--- a/pages/dashboard/data/ajo-report-fy25.xlsx
+++ b/pages/dashboard/data/ajo-report-fy25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12DD79FC-2D3D-49B8-ADA2-EF418021B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE13126-CCE9-4724-9648-37E86FA6BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="-2180" yWindow="-20600" windowWidth="36780" windowHeight="20180" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -697,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -959,6 +959,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -1261,7 +1273,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,15 +1420,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1574,19 +1577,17 @@
     <xf numFmtId="3" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1598,9 +1599,19 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -2407,25 +2418,25 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>55.898739449216016</c:v>
+                  <c:v>53.862613270972744</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.621032199890728</c:v>
+                  <c:v>50.927836305527393</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.947398821495838</c:v>
+                  <c:v>58.082526027896634</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.269097469058586</c:v>
+                  <c:v>54.219982910052046</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2897,25 +2908,25 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>8.0427565754072781</c:v>
+                  <c:v>7.8780334546787314</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3780939234638776</c:v>
+                  <c:v>7.3783567411816762</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6868367266910909</c:v>
+                  <c:v>7.1805822118257403</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8599265371121136</c:v>
+                  <c:v>5.5323521492996601</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4391,24 +4402,24 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="73.25" style="110" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="111" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="112" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="113" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="114" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="81"/>
-    <col min="11" max="11" width="11" style="113" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="81"/>
+    <col min="1" max="1" width="73.25" style="107" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="108" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="109" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="110" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="111" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="110" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="111" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="78"/>
+    <col min="11" max="11" width="11" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="61" customFormat="1" ht="32.1" customHeight="1">
@@ -4446,6654 +4457,6652 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="73" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:11" s="70" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="115">
         <v>45789</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="63">
         <v>588341</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="64">
         <v>289517</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="65">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.209047134229976</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="66">
         <v>23405</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="67">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.9781351291172973</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="68">
         <v>251</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="69">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.2662333578655912E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="115">
         <v>45783</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="73">
         <v>541</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="64">
         <v>281</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.940850277264325</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="66">
         <v>4</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.73937153419593349</v>
       </c>
-      <c r="J3" s="79">
-        <v>0</v>
-      </c>
-      <c r="K3" s="80">
+      <c r="J3" s="76">
+        <v>0</v>
+      </c>
+      <c r="K3" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="115">
         <v>45783</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="119">
         <v>71031</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="130">
         <v>15099</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>21.256915994424968</v>
       </c>
-      <c r="H4" s="127">
+      <c r="H4" s="132">
         <v>492</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.69265531950838366</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="119">
         <v>45</v>
       </c>
-      <c r="K4" s="132">
+      <c r="K4" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3352620686742411E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>45783</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="119">
         <v>67745</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="130">
         <v>15182</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>22.410510000738064</v>
       </c>
-      <c r="H5" s="127">
+      <c r="H5" s="132">
         <v>315</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.46497896523728688</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="119">
         <v>61</v>
       </c>
-      <c r="K5" s="132">
+      <c r="K5" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.0043545649125395E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="115">
         <v>45783</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="119">
         <v>62044</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="130">
         <v>17135</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>27.617497260009028</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="132">
         <v>328</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.52865708207078843</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="119">
         <v>39</v>
       </c>
-      <c r="K6" s="132">
+      <c r="K6" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.2858616465733999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="115">
         <v>45783</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="119">
         <v>17236</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="130">
         <v>4620</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>26.80436296124391</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="132">
         <v>78</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.45254119285216987</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="119">
         <v>4</v>
       </c>
-      <c r="K7" s="132">
+      <c r="K7" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3207240659085637E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="115">
         <v>45782</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="73">
         <v>11207</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="64">
         <v>4904</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>43.758365307397163</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="66">
         <v>182</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.6239850093691444</v>
       </c>
-      <c r="J8" s="79">
-        <v>0</v>
-      </c>
-      <c r="K8" s="80">
+      <c r="J8" s="76">
+        <v>0</v>
+      </c>
+      <c r="K8" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="115">
         <v>45782</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="76">
-        <v>1573</v>
-      </c>
-      <c r="F9" s="67">
+      <c r="E9" s="131">
+        <v>1753</v>
+      </c>
+      <c r="F9" s="64">
         <v>921</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>58.550540368722181</v>
-      </c>
-      <c r="H9" s="69">
+        <v>52.538505419281236</v>
+      </c>
+      <c r="H9" s="66">
         <v>41</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>2.6064844246662426</v>
-      </c>
-      <c r="J9" s="79">
-        <v>0</v>
-      </c>
-      <c r="K9" s="80">
+        <v>2.3388476896748429</v>
+      </c>
+      <c r="J9" s="76">
+        <v>0</v>
+      </c>
+      <c r="K9" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="115">
         <v>45782</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="131">
+        <v>9206</v>
+      </c>
+      <c r="F10" s="133">
+        <v>967</v>
+      </c>
+      <c r="G10" s="131">
+        <v>51</v>
+      </c>
+      <c r="H10" s="133">
+        <v>51</v>
+      </c>
+      <c r="I10" s="75">
+        <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>0.55398653052357161</v>
+      </c>
+      <c r="J10" s="131">
+        <v>2</v>
+      </c>
+      <c r="K10" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>2.1724961981316532E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="115">
+        <v>45782</v>
+      </c>
+      <c r="C11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="76">
-        <v>9206</v>
-      </c>
-      <c r="F10" s="67">
-        <v>4237</v>
-      </c>
-      <c r="G10" s="77">
-        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>46.024331957419072</v>
-      </c>
-      <c r="H10" s="69">
-        <v>191</v>
-      </c>
-      <c r="I10" s="78">
+      <c r="E11" s="131">
+        <v>9265</v>
+      </c>
+      <c r="F11" s="133">
+        <v>4253</v>
+      </c>
+      <c r="G11" s="131">
+        <v>195</v>
+      </c>
+      <c r="H11" s="133">
+        <v>195</v>
+      </c>
+      <c r="I11" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>2.0747338692157289</v>
-      </c>
-      <c r="J10" s="79">
-        <v>3</v>
-      </c>
-      <c r="K10" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>3.25874429719748E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A11" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="118">
-        <v>45782</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="102" t="s">
+        <v>2.1046950890447924</v>
+      </c>
+      <c r="J11" s="131">
+        <v>6</v>
+      </c>
+      <c r="K11" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>6.4759848893685926E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A12" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="115">
+        <v>45781</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="76">
-        <v>175</v>
-      </c>
-      <c r="F11" s="67">
-        <v>963</v>
-      </c>
-      <c r="G11" s="77">
-        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>550.28571428571422</v>
-      </c>
-      <c r="H11" s="69">
-        <v>51</v>
-      </c>
-      <c r="I11" s="78">
-        <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>29.142857142857142</v>
-      </c>
-      <c r="J11" s="79">
-        <v>1</v>
-      </c>
-      <c r="K11" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="118">
-        <v>45781</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="76">
+      <c r="E12" s="73">
         <v>9527</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="64">
         <v>4754</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.900283405059305</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="66">
         <v>266</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.7920646583394562</v>
       </c>
-      <c r="J12" s="79">
-        <v>0</v>
-      </c>
-      <c r="K12" s="80">
+      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+      <c r="K12" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="115">
         <v>45781</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <v>1140</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="64">
         <v>656</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.543859649122808</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="66">
         <v>39</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.4210526315789478</v>
       </c>
-      <c r="J13" s="79">
-        <v>0</v>
-      </c>
-      <c r="K13" s="80">
+      <c r="J13" s="76">
+        <v>0</v>
+      </c>
+      <c r="K13" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="115">
         <v>45778</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="73">
         <v>9536</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="64">
         <v>4901</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.394714765100666</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="66">
         <v>218</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2860738255033559</v>
       </c>
-      <c r="J14" s="79">
-        <v>0</v>
-      </c>
-      <c r="K14" s="80">
+      <c r="J14" s="76">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="115">
         <v>45778</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="73">
         <v>1191</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="64">
         <v>667</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>56.00335852225021</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="66">
         <v>44</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.6943744752308985</v>
       </c>
-      <c r="J15" s="79">
-        <v>0</v>
-      </c>
-      <c r="K15" s="80">
+      <c r="J15" s="76">
+        <v>0</v>
+      </c>
+      <c r="K15" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="115">
         <v>45778</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="73">
         <v>6749</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="64">
         <v>3091</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>45.799377685583046</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="66">
         <v>204</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.0226700251889169</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="76">
         <v>2</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.96340198547933E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="115">
         <v>45778</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="73">
         <v>1127</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="64">
         <v>617</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.747116237799467</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="66">
         <v>46</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.0816326530612246</v>
       </c>
-      <c r="J17" s="79">
-        <v>0</v>
-      </c>
-      <c r="K17" s="80">
+      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+      <c r="K17" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="118">
+      <c r="B18" s="115">
         <v>45778</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="73">
         <v>547</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="64">
         <v>314</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.404021937842778</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="66">
         <v>11</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.0109689213893969</v>
       </c>
-      <c r="J18" s="79">
-        <v>0</v>
-      </c>
-      <c r="K18" s="80">
+      <c r="J18" s="76">
+        <v>0</v>
+      </c>
+      <c r="K18" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="115">
         <v>45762</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="73">
         <v>9649</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="64">
         <v>4250</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.046015131101669</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="66">
         <v>199</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.062389884962172</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="76">
         <v>9</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.3273914395274118E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="118">
+      <c r="B20" s="115">
         <v>45762</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="73">
         <v>1670</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="64">
         <v>968</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.964071856287426</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="66">
         <v>54</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.2335329341317367</v>
       </c>
-      <c r="J20" s="79">
-        <v>0</v>
-      </c>
-      <c r="K20" s="80">
+      <c r="J20" s="76">
+        <v>0</v>
+      </c>
+      <c r="K20" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="118">
+      <c r="B21" s="115">
         <v>45762</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="73">
         <v>7316</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>3035</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>41.484417714598145</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="66">
         <v>84</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1481683980317114</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="76">
         <v>4</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4674685620557675E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="118">
+      <c r="B22" s="115">
         <v>45762</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="73">
         <v>827</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="64">
         <v>451</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.534461910519951</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="66">
         <v>18</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1765417170495769</v>
       </c>
-      <c r="J22" s="79">
-        <v>0</v>
-      </c>
-      <c r="K22" s="80">
+      <c r="J22" s="76">
+        <v>0</v>
+      </c>
+      <c r="K22" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="118">
+      <c r="B23" s="115">
         <v>45755</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="73">
         <v>104378</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="64">
         <v>54559</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.270593420069368</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="66">
         <v>1810</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.7340818946521297</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="76">
         <v>33</v>
       </c>
-      <c r="K23" s="80">
+      <c r="K23" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1615857747801263E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="118">
+      <c r="B24" s="115">
         <v>45755</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="73">
         <v>12048</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="64">
         <v>7266</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.308764940239044</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="66">
         <v>351</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.9133466135458166</v>
       </c>
-      <c r="J24" s="79">
-        <v>0</v>
-      </c>
-      <c r="K24" s="80">
+      <c r="J24" s="76">
+        <v>0</v>
+      </c>
+      <c r="K24" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="115">
         <v>45747</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="73">
         <v>8448</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="64">
         <v>3722</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.057765151515149</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="66">
         <v>109</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2902462121212122</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="76">
         <v>1</v>
       </c>
-      <c r="K25" s="80">
+      <c r="K25" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1837121212121212E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="118">
+      <c r="B26" s="115">
         <v>45747</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="73">
         <v>906</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="64">
         <v>462</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.993377483443716</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="66">
         <v>17</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8763796909492272</v>
       </c>
-      <c r="J26" s="79">
-        <v>0</v>
-      </c>
-      <c r="K26" s="80">
+      <c r="J26" s="76">
+        <v>0</v>
+      </c>
+      <c r="K26" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="118">
+      <c r="B27" s="115">
         <v>45743</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="73">
         <v>8787</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="64">
         <v>3751</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>42.688061909639238</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="66">
         <v>110</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2518493228633207</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="76">
         <v>1</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1380448389666554E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="118">
+      <c r="B28" s="115">
         <v>45743</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="73">
         <v>1003</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="64">
         <v>542</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.037886340977067</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="66">
         <v>39</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.8883349950149553</v>
       </c>
-      <c r="J28" s="79">
-        <v>0</v>
-      </c>
-      <c r="K28" s="80">
+      <c r="J28" s="76">
+        <v>0</v>
+      </c>
+      <c r="K28" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="118">
+      <c r="B29" s="115">
         <v>45740</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="73">
         <v>103297</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="64">
         <v>52410</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.737194691036521</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="66">
         <v>1843</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.784175726303765</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="76">
         <v>22</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1297811165861543E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="118">
+      <c r="B30" s="115">
         <v>45740</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="73">
         <v>9825</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="64">
         <v>6035</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>61.424936386768451</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="66">
         <v>322</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.2773536895674296</v>
       </c>
-      <c r="J30" s="79">
-        <v>0</v>
-      </c>
-      <c r="K30" s="80">
+      <c r="J30" s="76">
+        <v>0</v>
+      </c>
+      <c r="K30" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="118">
+      <c r="B31" s="115">
         <v>45733</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="73">
         <v>5836</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="64">
         <v>1630</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>27.930089102124743</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="66">
         <v>290</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.9691569568197398</v>
       </c>
-      <c r="J31" s="79">
-        <v>0</v>
-      </c>
-      <c r="K31" s="80">
+      <c r="J31" s="76">
+        <v>0</v>
+      </c>
+      <c r="K31" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="118">
+      <c r="B32" s="115">
         <v>45733</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="73">
         <v>523</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="64">
         <v>215</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>41.108986615678781</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="66">
         <v>77</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.722753346080305</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="76">
         <v>1</v>
       </c>
-      <c r="K32" s="80">
+      <c r="K32" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.19120458891013384</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="118">
+      <c r="B33" s="115">
         <v>45729</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="73">
         <v>9489</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="64">
         <v>4903</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.670355148066186</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="66">
         <v>18</v>
       </c>
-      <c r="I33" s="78">
+      <c r="I33" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.18969332911792602</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="76">
         <v>2</v>
       </c>
-      <c r="K33" s="80">
+      <c r="K33" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1077036568658447E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="118">
+      <c r="B34" s="115">
         <v>45729</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="73">
         <v>208</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="64">
         <v>123</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>59.134615384615387</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="66">
         <v>5</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4038461538461542</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="76">
         <v>2</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="118">
+      <c r="B35" s="115">
         <v>45727</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="73">
         <v>755</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="64">
         <v>391</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.788079470198682</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="66">
         <v>81</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>10.728476821192052</v>
       </c>
-      <c r="J35" s="79">
-        <v>0</v>
-      </c>
-      <c r="K35" s="80">
+      <c r="J35" s="76">
+        <v>0</v>
+      </c>
+      <c r="K35" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="108">
+      <c r="B36" s="105">
         <v>45727</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="76">
+      <c r="E36" s="73">
         <v>612</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="64">
         <v>372</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.784313725490193</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="66">
         <v>89</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.542483660130721</v>
       </c>
-      <c r="J36" s="79">
-        <v>0</v>
-      </c>
-      <c r="K36" s="80">
+      <c r="J36" s="76">
+        <v>0</v>
+      </c>
+      <c r="K36" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="118">
+      <c r="B37" s="115">
         <v>45720</v>
       </c>
-      <c r="C37" s="120" t="s">
+      <c r="C37" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="76">
+      <c r="E37" s="73">
         <v>13152</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="64">
         <v>5309</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>40.366484184914839</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="66">
         <v>483</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.6724452554744524</v>
       </c>
-      <c r="J37" s="79">
+      <c r="J37" s="76">
         <v>8</v>
       </c>
-      <c r="K37" s="80">
+      <c r="K37" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.0827250608272508E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="118">
+      <c r="B38" s="115">
         <v>45720</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="76">
+      <c r="E38" s="73">
         <v>827</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="64">
         <v>443</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>53.5671100362757</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="66">
         <v>109</v>
       </c>
-      <c r="I38" s="78">
+      <c r="I38" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>13.180169286577993</v>
       </c>
-      <c r="J38" s="79">
-        <v>0</v>
-      </c>
-      <c r="K38" s="80">
+      <c r="J38" s="76">
+        <v>0</v>
+      </c>
+      <c r="K38" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="118">
+      <c r="B39" s="115">
         <v>45720</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="76">
+      <c r="E39" s="73">
         <v>30392</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="64">
         <v>14391</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>47.35127665175046</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="66">
         <v>438</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.4411687286127928</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="76">
         <v>20</v>
       </c>
-      <c r="K39" s="80">
+      <c r="K39" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.5806791260858116E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="118">
+      <c r="B40" s="115">
         <v>45720</v>
       </c>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="120" t="s">
+      <c r="D40" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="76">
+      <c r="E40" s="73">
         <v>9584</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="64">
         <v>5313</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>55.436143572621035</v>
       </c>
-      <c r="H40" s="69">
+      <c r="H40" s="66">
         <v>224</v>
       </c>
-      <c r="I40" s="78">
+      <c r="I40" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.337228714524207</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="76">
         <v>1</v>
       </c>
-      <c r="K40" s="80">
+      <c r="K40" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0434056761268781E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="118">
+      <c r="B41" s="115">
         <v>45714</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="73">
         <v>9759</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="64">
         <v>5319</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.503535198278506</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="66">
         <v>509</v>
       </c>
-      <c r="I41" s="78">
+      <c r="I41" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.2156983297469006</v>
       </c>
-      <c r="J41" s="79">
-        <v>0</v>
-      </c>
-      <c r="K41" s="80">
+      <c r="J41" s="76">
+        <v>0</v>
+      </c>
+      <c r="K41" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="118">
+      <c r="B42" s="115">
         <v>45714</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="73">
         <v>1584</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="64">
         <v>1000</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>63.131313131313128</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="66">
         <v>124</v>
       </c>
-      <c r="I42" s="78">
+      <c r="I42" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>7.8282828282828287</v>
       </c>
-      <c r="J42" s="79">
+      <c r="J42" s="76">
         <v>1</v>
       </c>
-      <c r="K42" s="80">
+      <c r="K42" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3131313131313135E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="118">
+      <c r="B43" s="115">
         <v>45714</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="76">
+      <c r="E43" s="73">
         <v>41649</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="64">
         <v>18690</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.875027011452858</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="66">
         <v>281</v>
       </c>
-      <c r="I43" s="78">
+      <c r="I43" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.67468606689236232</v>
       </c>
-      <c r="J43" s="79">
+      <c r="J43" s="76">
         <v>1</v>
       </c>
-      <c r="K43" s="80">
+      <c r="K43" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4010180316454176E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="118">
+      <c r="B44" s="115">
         <v>45714</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="76">
+      <c r="E44" s="73">
         <v>7961</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="64">
         <v>4262</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>53.535987941213413</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="66">
         <v>84</v>
       </c>
-      <c r="I44" s="78">
+      <c r="I44" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0551438261524932</v>
       </c>
-      <c r="J44" s="79">
-        <v>0</v>
-      </c>
-      <c r="K44" s="80">
+      <c r="J44" s="76">
+        <v>0</v>
+      </c>
+      <c r="K44" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="118">
+      <c r="B45" s="115">
         <v>45714</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="76">
+      <c r="E45" s="73">
         <v>700</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="64">
         <v>402</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.428571428571431</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="66">
         <v>29</v>
       </c>
-      <c r="I45" s="78">
+      <c r="I45" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1428571428571423</v>
       </c>
-      <c r="J45" s="79">
-        <v>0</v>
-      </c>
-      <c r="K45" s="80">
+      <c r="J45" s="76">
+        <v>0</v>
+      </c>
+      <c r="K45" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="118">
+      <c r="B46" s="115">
         <v>45706</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="73">
         <v>580006</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="64">
         <v>285631</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.246214694330746</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="66">
         <v>20787</v>
       </c>
-      <c r="I46" s="78">
+      <c r="I46" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5839284421195639</v>
       </c>
-      <c r="J46" s="79">
+      <c r="J46" s="76">
         <v>284</v>
       </c>
-      <c r="K46" s="80">
+      <c r="K46" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.8965010706785793E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="118">
+      <c r="B47" s="115">
         <v>45705</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="73">
         <v>9644</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="64">
         <v>4871</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.50808793031937</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="66">
         <v>113</v>
       </c>
-      <c r="I47" s="78">
+      <c r="I47" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1717129821650767</v>
       </c>
-      <c r="J47" s="79">
+      <c r="J47" s="76">
         <v>2</v>
       </c>
-      <c r="K47" s="80">
+      <c r="K47" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.0738282870178346E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="118">
+      <c r="B48" s="115">
         <v>45705</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="120" t="s">
+      <c r="D48" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="73">
         <v>13286</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="64">
         <v>9418</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.886647598976367</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="66">
         <v>1471</v>
       </c>
-      <c r="I48" s="78">
+      <c r="I48" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>11.071804907421345</v>
       </c>
-      <c r="J48" s="79">
+      <c r="J48" s="76">
         <v>3</v>
       </c>
-      <c r="K48" s="80">
+      <c r="K48" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2580159566460936E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="118">
+      <c r="B49" s="115">
         <v>45705</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="76">
+      <c r="E49" s="73">
         <v>46324</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="64">
         <v>24149</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.130645022018825</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="66">
         <v>2848</v>
       </c>
-      <c r="I49" s="78">
+      <c r="I49" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>6.1480010361799504</v>
       </c>
-      <c r="J49" s="79">
+      <c r="J49" s="76">
         <v>11</v>
       </c>
-      <c r="K49" s="80">
+      <c r="K49" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3745790518953456E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="118">
+      <c r="B50" s="115">
         <v>45694</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="73">
         <v>106153</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="64">
         <v>15207</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.325548971767166</v>
       </c>
-      <c r="H50" s="69">
+      <c r="H50" s="66">
         <v>1932</v>
       </c>
-      <c r="I50" s="78">
+      <c r="I50" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8200145073620153</v>
       </c>
-      <c r="J50" s="79">
+      <c r="J50" s="76">
         <v>1</v>
       </c>
-      <c r="K50" s="80">
+      <c r="K50" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.4203649449379676E-4</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="118">
+      <c r="B51" s="115">
         <v>45694</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="73">
         <v>76829</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="64">
         <v>22194</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>28.887529448515537</v>
       </c>
-      <c r="H51" s="69">
+      <c r="H51" s="66">
         <v>1423</v>
       </c>
-      <c r="I51" s="78">
+      <c r="I51" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8521651980371996</v>
       </c>
-      <c r="J51" s="79">
-        <v>0</v>
-      </c>
-      <c r="K51" s="80">
+      <c r="J51" s="76">
+        <v>0</v>
+      </c>
+      <c r="K51" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="118">
+      <c r="B52" s="115">
         <v>45694</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="73">
         <v>1505</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="64">
         <v>603</v>
       </c>
-      <c r="G52" s="77">
+      <c r="G52" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>40.066445182724252</v>
       </c>
-      <c r="H52" s="69">
+      <c r="H52" s="66">
         <v>181</v>
       </c>
-      <c r="I52" s="78">
+      <c r="I52" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>12.026578073089702</v>
       </c>
-      <c r="J52" s="79">
-        <v>0</v>
-      </c>
-      <c r="K52" s="80">
+      <c r="J52" s="76">
+        <v>0</v>
+      </c>
+      <c r="K52" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="115">
         <v>45694</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="83">
         <v>1479</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="64">
         <v>579</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>39.148073022312374</v>
       </c>
-      <c r="H53" s="69">
+      <c r="H53" s="66">
         <v>164</v>
       </c>
-      <c r="I53" s="88">
+      <c r="I53" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>11.088573360378634</v>
       </c>
-      <c r="J53" s="79">
-        <v>0</v>
-      </c>
-      <c r="K53" s="80">
+      <c r="J53" s="76">
+        <v>0</v>
+      </c>
+      <c r="K53" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="118">
+      <c r="B54" s="115">
         <v>45694</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="86">
+      <c r="E54" s="83">
         <v>229389</v>
       </c>
-      <c r="F54" s="67">
+      <c r="F54" s="64">
         <v>137988</v>
       </c>
-      <c r="G54" s="87">
+      <c r="G54" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.154584570315052</v>
       </c>
-      <c r="H54" s="69">
+      <c r="H54" s="66">
         <v>9275</v>
       </c>
-      <c r="I54" s="88">
+      <c r="I54" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.0433499426737987</v>
       </c>
-      <c r="J54" s="79">
-        <v>0</v>
-      </c>
-      <c r="K54" s="80">
+      <c r="J54" s="76">
+        <v>0</v>
+      </c>
+      <c r="K54" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="118">
+      <c r="B55" s="115">
         <v>45694</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="83">
         <v>166698</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="64">
         <v>100499</v>
       </c>
-      <c r="G55" s="87">
+      <c r="G55" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.288065843621396</v>
       </c>
-      <c r="H55" s="69">
+      <c r="H55" s="66">
         <v>6891</v>
       </c>
-      <c r="I55" s="88">
+      <c r="I55" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1338228413058342</v>
       </c>
-      <c r="J55" s="79">
-        <v>0</v>
-      </c>
-      <c r="K55" s="80">
+      <c r="J55" s="76">
+        <v>0</v>
+      </c>
+      <c r="K55" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="118">
+      <c r="B56" s="115">
         <v>45694</v>
       </c>
-      <c r="C56" s="91" t="s">
+      <c r="C56" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="91" t="s">
+      <c r="D56" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="86">
+      <c r="E56" s="83">
         <v>5345</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="64">
         <v>3622</v>
       </c>
-      <c r="G56" s="87">
+      <c r="G56" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>67.76426566884939</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="66">
         <v>967</v>
       </c>
-      <c r="I56" s="88">
+      <c r="I56" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>18.091674462114124</v>
       </c>
-      <c r="J56" s="79">
-        <v>0</v>
-      </c>
-      <c r="K56" s="80">
+      <c r="J56" s="76">
+        <v>0</v>
+      </c>
+      <c r="K56" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="118">
+      <c r="B57" s="115">
         <v>45694</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="76">
+      <c r="E57" s="73">
         <v>5277</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="64">
         <v>3667</v>
       </c>
-      <c r="G57" s="77">
+      <c r="G57" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>69.490240667045668</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="66">
         <v>988</v>
       </c>
-      <c r="I57" s="78">
+      <c r="I57" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>18.72275914345272</v>
       </c>
-      <c r="J57" s="79">
-        <v>0</v>
-      </c>
-      <c r="K57" s="80">
+      <c r="J57" s="76">
+        <v>0</v>
+      </c>
+      <c r="K57" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="118">
+      <c r="B58" s="115">
         <v>45690</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C58" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="73">
         <v>2818</v>
       </c>
-      <c r="F58" s="67">
+      <c r="F58" s="64">
         <v>1701</v>
       </c>
-      <c r="G58" s="77">
+      <c r="G58" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.361958836053944</v>
       </c>
-      <c r="H58" s="69">
+      <c r="H58" s="66">
         <v>1701</v>
       </c>
-      <c r="I58" s="78">
+      <c r="I58" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.361958836053944</v>
       </c>
-      <c r="J58" s="79">
-        <v>0</v>
-      </c>
-      <c r="K58" s="80">
+      <c r="J58" s="76">
+        <v>0</v>
+      </c>
+      <c r="K58" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="118">
+      <c r="B59" s="115">
         <v>45690</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="76">
+      <c r="E59" s="73">
         <v>326</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="64">
         <v>231</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.858895705521476</v>
       </c>
-      <c r="H59" s="69">
+      <c r="H59" s="66">
         <v>231</v>
       </c>
-      <c r="I59" s="78">
+      <c r="I59" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.858895705521476</v>
       </c>
-      <c r="J59" s="79">
-        <v>0</v>
-      </c>
-      <c r="K59" s="80">
+      <c r="J59" s="76">
+        <v>0</v>
+      </c>
+      <c r="K59" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="118">
+      <c r="B60" s="115">
         <v>45688</v>
       </c>
-      <c r="C60" s="91" t="s">
+      <c r="C60" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="76">
+      <c r="E60" s="73">
         <v>6307</v>
       </c>
-      <c r="F60" s="94">
+      <c r="F60" s="91">
         <v>3263</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.736166164579032</v>
       </c>
-      <c r="H60" s="95">
+      <c r="H60" s="92">
         <v>197</v>
       </c>
-      <c r="I60" s="78">
+      <c r="I60" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1235135563659426</v>
       </c>
-      <c r="J60" s="79">
+      <c r="J60" s="76">
         <v>1</v>
       </c>
-      <c r="K60" s="80">
+      <c r="K60" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.5855398763278898E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="118">
+      <c r="B61" s="115">
         <v>45688</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="76">
+      <c r="E61" s="73">
         <v>872</v>
       </c>
-      <c r="F61" s="94">
+      <c r="F61" s="91">
         <v>549</v>
       </c>
-      <c r="G61" s="77">
+      <c r="G61" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>62.958715596330272</v>
       </c>
-      <c r="H61" s="95">
+      <c r="H61" s="92">
         <v>45</v>
       </c>
-      <c r="I61" s="78">
+      <c r="I61" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.1605504587155968</v>
       </c>
-      <c r="J61" s="79">
-        <v>0</v>
-      </c>
-      <c r="K61" s="80">
+      <c r="J61" s="76">
+        <v>0</v>
+      </c>
+      <c r="K61" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="118">
+      <c r="B62" s="115">
         <v>45687</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="98" t="s">
+      <c r="D62" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="76">
+      <c r="E62" s="73">
         <v>5071</v>
       </c>
-      <c r="F62" s="94">
+      <c r="F62" s="91">
         <v>2779</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.80181423782291</v>
       </c>
-      <c r="H62" s="95">
+      <c r="H62" s="92">
         <v>179</v>
       </c>
-      <c r="I62" s="78">
+      <c r="I62" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5298757641490832</v>
       </c>
-      <c r="J62" s="79">
+      <c r="J62" s="76">
         <v>2</v>
       </c>
-      <c r="K62" s="80">
+      <c r="K62" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.9439952672056799E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="118">
+      <c r="B63" s="115">
         <v>45687</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="73">
         <v>918</v>
       </c>
-      <c r="F63" s="94">
+      <c r="F63" s="91">
         <v>552</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.130718954248366</v>
       </c>
-      <c r="H63" s="95">
+      <c r="H63" s="92">
         <v>40</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I63" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.3572984749455337</v>
       </c>
-      <c r="J63" s="79">
-        <v>0</v>
-      </c>
-      <c r="K63" s="80">
+      <c r="J63" s="76">
+        <v>0</v>
+      </c>
+      <c r="K63" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="118">
+      <c r="B64" s="115">
         <v>45686</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="C64" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="98" t="s">
+      <c r="D64" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="76">
+      <c r="E64" s="73">
         <v>9541</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="91">
         <v>4850</v>
       </c>
-      <c r="G64" s="77">
+      <c r="G64" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.833245990986264</v>
       </c>
-      <c r="H64" s="95">
+      <c r="H64" s="92">
         <v>123</v>
       </c>
-      <c r="I64" s="78">
+      <c r="I64" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2891730426580024</v>
       </c>
-      <c r="J64" s="79">
+      <c r="J64" s="76">
         <v>1</v>
       </c>
-      <c r="K64" s="80">
+      <c r="K64" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0481081647626034E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="118">
+      <c r="B65" s="115">
         <v>45686</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="91" t="s">
+      <c r="D65" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="86">
+      <c r="E65" s="83">
         <v>8951</v>
       </c>
-      <c r="F65" s="94">
+      <c r="F65" s="91">
         <v>3886</v>
       </c>
-      <c r="G65" s="87">
+      <c r="G65" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>43.414143671098202</v>
       </c>
-      <c r="H65" s="95">
+      <c r="H65" s="92">
         <v>114</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2736007150039101</v>
       </c>
-      <c r="J65" s="79">
+      <c r="J65" s="76">
         <v>1</v>
       </c>
-      <c r="K65" s="80">
+      <c r="K65" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1171936096525528E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="118">
+      <c r="B66" s="115">
         <v>45686</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="73">
         <v>654</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="91">
         <v>365</v>
       </c>
-      <c r="G66" s="77">
+      <c r="G66" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>55.810397553516822</v>
       </c>
-      <c r="H66" s="95">
+      <c r="H66" s="92">
         <v>12</v>
       </c>
-      <c r="I66" s="78">
+      <c r="I66" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.834862385321101</v>
       </c>
-      <c r="J66" s="79">
-        <v>0</v>
-      </c>
-      <c r="K66" s="80">
+      <c r="J66" s="76">
+        <v>0</v>
+      </c>
+      <c r="K66" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="118">
+      <c r="B67" s="115">
         <v>45678</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="91" t="s">
+      <c r="D67" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="86">
+      <c r="E67" s="83">
         <v>2887</v>
       </c>
-      <c r="F67" s="94">
+      <c r="F67" s="91">
         <v>1382</v>
       </c>
-      <c r="G67" s="87">
+      <c r="G67" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>47.869760997575341</v>
       </c>
-      <c r="H67" s="95">
+      <c r="H67" s="92">
         <v>211</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>7.3086248701073773</v>
       </c>
-      <c r="J67" s="79">
-        <v>0</v>
-      </c>
-      <c r="K67" s="80">
+      <c r="J67" s="76">
+        <v>0</v>
+      </c>
+      <c r="K67" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="99">
+      <c r="B68" s="96">
         <v>45673</v>
       </c>
-      <c r="C68" s="91" t="s">
+      <c r="C68" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="91" t="s">
+      <c r="D68" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="86">
+      <c r="E68" s="83">
         <v>7938</v>
       </c>
-      <c r="F68" s="94">
+      <c r="F68" s="91">
         <v>4083</v>
       </c>
-      <c r="G68" s="87">
+      <c r="G68" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.436130007558575</v>
       </c>
-      <c r="H68" s="95">
+      <c r="H68" s="92">
         <v>204</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5699168556311416</v>
       </c>
-      <c r="J68" s="79">
+      <c r="J68" s="76">
         <v>4</v>
       </c>
-      <c r="K68" s="80">
+      <c r="K68" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.0390526581002779E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="99">
+      <c r="B69" s="96">
         <v>45673</v>
       </c>
-      <c r="C69" s="91" t="s">
+      <c r="C69" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="91" t="s">
+      <c r="D69" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="86">
+      <c r="E69" s="83">
         <v>719</v>
       </c>
-      <c r="F69" s="94">
+      <c r="F69" s="91">
         <v>450</v>
       </c>
-      <c r="G69" s="87">
+      <c r="G69" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>62.586926286509041</v>
       </c>
-      <c r="H69" s="95">
+      <c r="H69" s="92">
         <v>40</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.563282336578582</v>
       </c>
-      <c r="J69" s="79">
-        <v>0</v>
-      </c>
-      <c r="K69" s="80">
+      <c r="J69" s="76">
+        <v>0</v>
+      </c>
+      <c r="K69" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="99">
+      <c r="B70" s="96">
         <v>45671</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="C70" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="91" t="s">
+      <c r="D70" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="86">
+      <c r="E70" s="83">
         <v>11109</v>
       </c>
-      <c r="F70" s="94">
+      <c r="F70" s="91">
         <v>3903</v>
       </c>
-      <c r="G70" s="87">
+      <c r="G70" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>35.133675398325678</v>
       </c>
-      <c r="H70" s="130">
+      <c r="H70" s="125">
         <v>56</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.50409577819785756</v>
       </c>
-      <c r="J70" s="79">
+      <c r="J70" s="76">
         <v>7</v>
       </c>
-      <c r="K70" s="80">
+      <c r="K70" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3011972274732195E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="99">
+      <c r="B71" s="96">
         <v>45665</v>
       </c>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="109" t="s">
+      <c r="D71" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="86">
+      <c r="E71" s="83">
         <v>236</v>
       </c>
-      <c r="F71" s="94">
+      <c r="F71" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>228.92</v>
       </c>
-      <c r="G71" s="87">
+      <c r="G71" s="84">
         <v>97</v>
       </c>
-      <c r="H71" s="95">
+      <c r="H71" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>205.32</v>
       </c>
-      <c r="I71" s="88">
+      <c r="I71" s="85">
         <v>87</v>
       </c>
-      <c r="J71" s="79">
-        <v>0</v>
-      </c>
-      <c r="K71" s="80">
+      <c r="J71" s="76">
+        <v>0</v>
+      </c>
+      <c r="K71" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A72" s="106" t="s">
+      <c r="A72" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="99">
+      <c r="B72" s="96">
         <v>45665</v>
       </c>
-      <c r="C72" s="98" t="s">
+      <c r="C72" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="98" t="s">
+      <c r="D72" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="86">
+      <c r="E72" s="83">
         <v>894</v>
       </c>
-      <c r="F72" s="94">
+      <c r="F72" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>35.76</v>
       </c>
-      <c r="G72" s="103">
+      <c r="G72" s="100">
         <v>4</v>
       </c>
-      <c r="H72" s="95">
+      <c r="H72" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>59.898000000000003</v>
       </c>
-      <c r="I72" s="88">
+      <c r="I72" s="85">
         <v>6.7</v>
       </c>
-      <c r="J72" s="79">
-        <v>0</v>
-      </c>
-      <c r="K72" s="80">
+      <c r="J72" s="76">
+        <v>0</v>
+      </c>
+      <c r="K72" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="99">
+      <c r="B73" s="96">
         <v>45665</v>
       </c>
-      <c r="C73" s="98" t="s">
+      <c r="C73" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="109" t="s">
+      <c r="D73" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="86">
+      <c r="E73" s="83">
         <v>24</v>
       </c>
-      <c r="F73" s="94">
+      <c r="F73" s="91">
         <v>16</v>
       </c>
-      <c r="G73" s="87">
+      <c r="G73" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="H73" s="95">
+      <c r="H73" s="92">
         <v>1</v>
       </c>
-      <c r="I73" s="88">
+      <c r="I73" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="J73" s="79">
+      <c r="J73" s="76">
         <v>1</v>
       </c>
-      <c r="K73" s="80">
+      <c r="K73" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1666666666666661</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="99">
+      <c r="B74" s="96">
         <v>45665</v>
       </c>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="109" t="s">
+      <c r="D74" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="86">
+      <c r="E74" s="83">
         <v>5895</v>
       </c>
-      <c r="F74" s="94">
+      <c r="F74" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3119.9999999999995</v>
       </c>
-      <c r="G74" s="87">
+      <c r="G74" s="84">
         <f>SUM(3120)/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.926208651399484</v>
       </c>
-      <c r="H74" s="130">
+      <c r="H74" s="125">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>73</v>
       </c>
-      <c r="I74" s="88">
+      <c r="I74" s="85">
         <f>SUM(73)/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2383375742154368</v>
       </c>
-      <c r="J74" s="79">
+      <c r="J74" s="76">
         <v>6</v>
       </c>
-      <c r="K74" s="80">
+      <c r="K74" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.10178117048346055</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="99">
+      <c r="B75" s="96">
         <v>45664</v>
       </c>
-      <c r="C75" s="98" t="s">
+      <c r="C75" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="98" t="s">
+      <c r="D75" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="86">
+      <c r="E75" s="83">
         <v>9518</v>
       </c>
-      <c r="F75" s="94">
+      <c r="F75" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>228.43200000000002</v>
       </c>
-      <c r="G75" s="87">
+      <c r="G75" s="84">
         <v>2.4</v>
       </c>
-      <c r="H75" s="95">
+      <c r="H75" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1361.0739999999998</v>
       </c>
-      <c r="I75" s="88">
+      <c r="I75" s="85">
         <v>14.3</v>
       </c>
-      <c r="J75" s="79">
+      <c r="J75" s="76">
         <v>2</v>
       </c>
-      <c r="K75" s="80">
+      <c r="K75" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.101281781886951E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="99">
+      <c r="B76" s="96">
         <v>45645</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="86">
+      <c r="E76" s="83">
         <v>19548</v>
       </c>
-      <c r="F76" s="94">
+      <c r="F76" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>13683.6</v>
       </c>
-      <c r="G76" s="87">
+      <c r="G76" s="84">
         <v>70</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>189.61559999999997</v>
       </c>
-      <c r="I76" s="88">
+      <c r="I76" s="85">
         <v>0.97</v>
       </c>
-      <c r="J76" s="79">
+      <c r="J76" s="76">
         <v>12</v>
       </c>
-      <c r="K76" s="80">
+      <c r="K76" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.1387354205033759E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="99">
+      <c r="B77" s="96">
         <v>45645</v>
       </c>
-      <c r="C77" s="91" t="s">
+      <c r="C77" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="91" t="s">
+      <c r="D77" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="76">
+      <c r="E77" s="73">
         <v>62524</v>
       </c>
-      <c r="F77" s="94">
+      <c r="F77" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>14943.235999999999</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="74">
         <v>23.9</v>
       </c>
-      <c r="H77" s="95">
+      <c r="H77" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1631.8763999999999</v>
       </c>
-      <c r="I77" s="78">
+      <c r="I77" s="75">
         <v>2.61</v>
       </c>
-      <c r="J77" s="79">
+      <c r="J77" s="76">
         <v>52</v>
       </c>
-      <c r="K77" s="80">
+      <c r="K77" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>8.3168063463629968E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="99">
+      <c r="B78" s="96">
         <v>45639</v>
       </c>
-      <c r="C78" s="120" t="s">
+      <c r="C78" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="73">
         <v>62753</v>
       </c>
-      <c r="F78" s="94">
+      <c r="F78" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>18198.37</v>
       </c>
-      <c r="G78" s="77">
+      <c r="G78" s="74">
         <v>29</v>
       </c>
-      <c r="H78" s="95">
+      <c r="H78" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>928.74440000000004</v>
       </c>
-      <c r="I78" s="78">
+      <c r="I78" s="75">
         <v>1.48</v>
       </c>
-      <c r="J78" s="79">
+      <c r="J78" s="76">
         <v>11</v>
       </c>
-      <c r="K78" s="80">
+      <c r="K78" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.7529042436218188E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="99">
+      <c r="B79" s="96">
         <v>45639</v>
       </c>
-      <c r="C79" s="98" t="s">
+      <c r="C79" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="86">
+      <c r="E79" s="83">
         <v>19697</v>
       </c>
-      <c r="F79" s="94">
+      <c r="F79" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>14181.84</v>
       </c>
-      <c r="G79" s="87">
+      <c r="G79" s="84">
         <v>72</v>
       </c>
-      <c r="H79" s="95">
+      <c r="H79" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>202.87909999999999</v>
       </c>
-      <c r="I79" s="88">
+      <c r="I79" s="85">
         <v>1.03</v>
       </c>
-      <c r="J79" s="79">
+      <c r="J79" s="76">
         <v>11</v>
       </c>
-      <c r="K79" s="80">
+      <c r="K79" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.5846067929126268E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="99">
+      <c r="B80" s="96">
         <v>45631</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="91" t="s">
+      <c r="D80" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="86">
+      <c r="E80" s="83">
         <v>82378</v>
       </c>
-      <c r="F80" s="94">
+      <c r="F80" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>24631.021999999997</v>
       </c>
-      <c r="G80" s="87">
+      <c r="G80" s="84">
         <v>29.9</v>
       </c>
-      <c r="H80" s="95">
+      <c r="H80" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30150.348000000002</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="85">
         <v>36.6</v>
       </c>
-      <c r="J80" s="79">
+      <c r="J80" s="76">
         <v>53</v>
       </c>
-      <c r="K80" s="80">
+      <c r="K80" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.4337565854961282E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="99">
+      <c r="B81" s="96">
         <v>45625</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="91" t="s">
+      <c r="D81" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="83">
         <v>13396</v>
       </c>
-      <c r="F81" s="94">
+      <c r="F81" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>7626.3428000000004</v>
       </c>
-      <c r="G81" s="87">
+      <c r="G81" s="84">
         <v>56.93</v>
       </c>
-      <c r="H81" s="95">
+      <c r="H81" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2322.8663999999999</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="85">
         <v>17.34</v>
       </c>
-      <c r="J81" s="79">
+      <c r="J81" s="76">
         <v>6</v>
       </c>
-      <c r="K81" s="80">
+      <c r="K81" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.4789489399820845E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="99">
+      <c r="B82" s="96">
         <v>45625</v>
       </c>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="91" t="s">
+      <c r="D82" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="86">
+      <c r="E82" s="83">
         <v>8716</v>
       </c>
-      <c r="F82" s="94">
+      <c r="F82" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4776.3679999999995</v>
       </c>
-      <c r="G82" s="87">
+      <c r="G82" s="84">
         <v>54.8</v>
       </c>
-      <c r="H82" s="95">
+      <c r="H82" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1208.9092000000001</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="85">
         <v>13.87</v>
       </c>
-      <c r="J82" s="79">
+      <c r="J82" s="76">
         <v>8</v>
       </c>
-      <c r="K82" s="80">
+      <c r="K82" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.1785222579164757E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="99">
+      <c r="B83" s="96">
         <v>45625</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="91" t="s">
+      <c r="D83" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="86">
+      <c r="E83" s="83">
         <v>86518</v>
       </c>
-      <c r="F83" s="94">
+      <c r="F83" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>22226.474200000001</v>
       </c>
-      <c r="G83" s="87">
+      <c r="G83" s="84">
         <v>25.69</v>
       </c>
-      <c r="H83" s="95">
+      <c r="H83" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>198.9914</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="85">
         <v>0.23</v>
       </c>
-      <c r="J83" s="79">
+      <c r="J83" s="76">
         <v>40</v>
       </c>
-      <c r="K83" s="80">
+      <c r="K83" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.6233153794586097E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="99">
+      <c r="B84" s="96">
         <v>45624</v>
       </c>
-      <c r="C84" s="91" t="s">
+      <c r="C84" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="91" t="s">
+      <c r="D84" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="76">
+      <c r="E84" s="73">
         <v>9632</v>
       </c>
-      <c r="F84" s="94">
+      <c r="F84" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2521.6576</v>
       </c>
-      <c r="G84" s="77">
+      <c r="G84" s="74">
         <v>26.18</v>
       </c>
-      <c r="H84" s="95">
+      <c r="H84" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>23.116799999999998</v>
       </c>
-      <c r="I84" s="78">
+      <c r="I84" s="75">
         <v>0.24</v>
       </c>
-      <c r="J84" s="79">
+      <c r="J84" s="76">
         <v>9</v>
       </c>
-      <c r="K84" s="80">
+      <c r="K84" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.3438538205980068E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="99">
+      <c r="B85" s="96">
         <v>45622</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="91" t="s">
+      <c r="D85" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="86">
+      <c r="E85" s="83">
         <v>160366</v>
       </c>
-      <c r="F85" s="94">
+      <c r="F85" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>55775.294800000003</v>
       </c>
-      <c r="G85" s="87">
+      <c r="G85" s="84">
         <v>34.78</v>
       </c>
-      <c r="H85" s="95">
+      <c r="H85" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>577.31759999999997</v>
       </c>
-      <c r="I85" s="88">
+      <c r="I85" s="85">
         <v>0.36</v>
       </c>
-      <c r="J85" s="79">
+      <c r="J85" s="76">
         <v>119</v>
       </c>
-      <c r="K85" s="80">
+      <c r="K85" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.4205255478093868E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="99">
+      <c r="B86" s="96">
         <v>45618</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="91" t="s">
+      <c r="D86" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="86">
+      <c r="E86" s="83">
         <v>1614</v>
       </c>
-      <c r="F86" s="94">
+      <c r="F86" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1133.9964000000002</v>
       </c>
-      <c r="G86" s="87">
+      <c r="G86" s="84">
         <v>70.260000000000005</v>
       </c>
-      <c r="H86" s="95">
+      <c r="H86" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>377.1918</v>
       </c>
-      <c r="I86" s="88">
+      <c r="I86" s="85">
         <v>23.37</v>
       </c>
-      <c r="J86" s="79">
-        <v>0</v>
-      </c>
-      <c r="K86" s="80">
+      <c r="J86" s="76">
+        <v>0</v>
+      </c>
+      <c r="K86" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="99">
+      <c r="B87" s="96">
         <v>45618</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="91" t="s">
+      <c r="D87" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="86">
+      <c r="E87" s="83">
         <v>2083</v>
       </c>
-      <c r="F87" s="94">
+      <c r="F87" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1478.0968</v>
       </c>
-      <c r="G87" s="87">
+      <c r="G87" s="84">
         <v>70.959999999999994</v>
       </c>
-      <c r="H87" s="95">
+      <c r="H87" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>591.98860000000002</v>
       </c>
-      <c r="I87" s="88">
+      <c r="I87" s="85">
         <v>28.42</v>
       </c>
-      <c r="J87" s="79">
-        <v>0</v>
-      </c>
-      <c r="K87" s="80">
+      <c r="J87" s="76">
+        <v>0</v>
+      </c>
+      <c r="K87" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="99">
+      <c r="B88" s="96">
         <v>45615</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="91" t="s">
+      <c r="D88" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="76">
+      <c r="E88" s="73">
         <v>2674</v>
       </c>
-      <c r="F88" s="94">
+      <c r="F88" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1351.4395999999999</v>
       </c>
-      <c r="G88" s="77">
+      <c r="G88" s="74">
         <v>50.54</v>
       </c>
-      <c r="H88" s="95">
+      <c r="H88" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>239.59040000000002</v>
       </c>
-      <c r="I88" s="78">
+      <c r="I88" s="75">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J88" s="79">
-        <v>0</v>
-      </c>
-      <c r="K88" s="80">
+      <c r="J88" s="76">
+        <v>0</v>
+      </c>
+      <c r="K88" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="99">
+      <c r="B89" s="96">
         <v>45615</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="91" t="s">
+      <c r="D89" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="86">
+      <c r="E89" s="83">
         <v>2524</v>
       </c>
-      <c r="F89" s="94">
+      <c r="F89" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1454.5811999999999</v>
       </c>
-      <c r="G89" s="87">
+      <c r="G89" s="84">
         <v>57.63</v>
       </c>
-      <c r="H89" s="95">
+      <c r="H89" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>237.50839999999999</v>
       </c>
-      <c r="I89" s="88">
+      <c r="I89" s="85">
         <v>9.41</v>
       </c>
-      <c r="J89" s="79">
-        <v>0</v>
-      </c>
-      <c r="K89" s="80">
+      <c r="J89" s="76">
+        <v>0</v>
+      </c>
+      <c r="K89" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A90" s="90" t="s">
+      <c r="A90" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="99">
+      <c r="B90" s="96">
         <v>45615</v>
       </c>
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="98" t="s">
+      <c r="D90" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E90" s="83">
         <v>704</v>
       </c>
-      <c r="F90" s="94">
+      <c r="F90" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>393.04320000000001</v>
       </c>
-      <c r="G90" s="87">
+      <c r="G90" s="84">
         <v>55.83</v>
       </c>
-      <c r="H90" s="95">
+      <c r="H90" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>80.044799999999995</v>
       </c>
-      <c r="I90" s="88">
+      <c r="I90" s="85">
         <v>11.37</v>
       </c>
-      <c r="J90" s="79">
-        <v>0</v>
-      </c>
-      <c r="K90" s="80">
+      <c r="J90" s="76">
+        <v>0</v>
+      </c>
+      <c r="K90" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="99">
+      <c r="B91" s="96">
         <v>45615</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="91" t="s">
+      <c r="D91" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="86">
+      <c r="E91" s="83">
         <v>611</v>
       </c>
-      <c r="F91" s="94">
+      <c r="F91" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>414.38019999999995</v>
       </c>
-      <c r="G91" s="87">
+      <c r="G91" s="84">
         <v>67.819999999999993</v>
       </c>
-      <c r="H91" s="95">
+      <c r="H91" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>73.625500000000002</v>
       </c>
-      <c r="I91" s="88">
+      <c r="I91" s="85">
         <v>12.05</v>
       </c>
-      <c r="J91" s="79">
-        <v>0</v>
-      </c>
-      <c r="K91" s="80">
+      <c r="J91" s="76">
+        <v>0</v>
+      </c>
+      <c r="K91" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="99">
+      <c r="B92" s="96">
         <v>45615</v>
       </c>
-      <c r="C92" s="91" t="s">
+      <c r="C92" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="91" t="s">
+      <c r="D92" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="86">
+      <c r="E92" s="83">
         <v>4812</v>
       </c>
-      <c r="F92" s="94">
+      <c r="F92" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2830.4184000000005</v>
       </c>
-      <c r="G92" s="87">
+      <c r="G92" s="84">
         <v>58.82</v>
       </c>
-      <c r="H92" s="95">
+      <c r="H92" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>501.41039999999998</v>
       </c>
-      <c r="I92" s="88">
+      <c r="I92" s="85">
         <v>10.42</v>
       </c>
-      <c r="J92" s="79">
-        <v>0</v>
-      </c>
-      <c r="K92" s="80">
+      <c r="J92" s="76">
+        <v>0</v>
+      </c>
+      <c r="K92" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="99">
+      <c r="B93" s="96">
         <v>45615</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="91" t="s">
+      <c r="D93" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="86">
+      <c r="E93" s="83">
         <v>1244</v>
       </c>
-      <c r="F93" s="94">
+      <c r="F93" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>670.01839999999993</v>
       </c>
-      <c r="G93" s="87">
+      <c r="G93" s="84">
         <v>53.86</v>
       </c>
-      <c r="H93" s="95">
+      <c r="H93" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>70.037199999999999</v>
       </c>
-      <c r="I93" s="88">
+      <c r="I93" s="85">
         <v>5.63</v>
       </c>
-      <c r="J93" s="79">
-        <v>0</v>
-      </c>
-      <c r="K93" s="80">
+      <c r="J93" s="76">
+        <v>0</v>
+      </c>
+      <c r="K93" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A94" s="89" t="s">
+      <c r="A94" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="99">
+      <c r="B94" s="96">
         <v>45615</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="91" t="s">
+      <c r="D94" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="86">
+      <c r="E94" s="83">
         <v>9460</v>
       </c>
-      <c r="F94" s="94">
+      <c r="F94" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4897.442</v>
       </c>
-      <c r="G94" s="87">
+      <c r="G94" s="84">
         <v>51.77</v>
       </c>
-      <c r="H94" s="95">
+      <c r="H94" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>434.214</v>
       </c>
-      <c r="I94" s="88">
+      <c r="I94" s="85">
         <v>4.59</v>
       </c>
-      <c r="J94" s="79">
+      <c r="J94" s="76">
         <v>1</v>
       </c>
-      <c r="K94" s="80">
+      <c r="K94" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0570824524312896E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A95" s="89" t="s">
+      <c r="A95" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="99">
+      <c r="B95" s="96">
         <v>45615</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="86">
+      <c r="E95" s="83">
         <v>401</v>
       </c>
-      <c r="F95" s="94">
+      <c r="F95" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>257.80290000000002</v>
       </c>
-      <c r="G95" s="87">
+      <c r="G95" s="84">
         <v>64.290000000000006</v>
       </c>
-      <c r="H95" s="95">
+      <c r="H95" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>71.618600000000001</v>
       </c>
-      <c r="I95" s="88">
+      <c r="I95" s="85">
         <v>17.86</v>
       </c>
-      <c r="J95" s="79">
-        <v>0</v>
-      </c>
-      <c r="K95" s="80">
+      <c r="J95" s="76">
+        <v>0</v>
+      </c>
+      <c r="K95" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="99">
+      <c r="B96" s="96">
         <v>45615</v>
       </c>
-      <c r="C96" s="91" t="s">
+      <c r="C96" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="91" t="s">
+      <c r="D96" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="86">
+      <c r="E96" s="83">
         <v>3147</v>
       </c>
-      <c r="F96" s="94">
+      <c r="F96" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1857.9888000000001</v>
       </c>
-      <c r="G96" s="87">
+      <c r="G96" s="84">
         <v>59.04</v>
       </c>
-      <c r="H96" s="95">
+      <c r="H96" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>581.88029999999992</v>
       </c>
-      <c r="I96" s="88">
+      <c r="I96" s="85">
         <v>18.489999999999998</v>
       </c>
-      <c r="J96" s="79">
-        <v>0</v>
-      </c>
-      <c r="K96" s="80">
+      <c r="J96" s="76">
+        <v>0</v>
+      </c>
+      <c r="K96" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="99">
+      <c r="B97" s="96">
         <v>45615</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="91" t="s">
+      <c r="D97" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="86">
+      <c r="E97" s="83">
         <v>9605</v>
       </c>
-      <c r="F97" s="94">
+      <c r="F97" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3557.692</v>
       </c>
-      <c r="G97" s="87">
+      <c r="G97" s="84">
         <v>37.04</v>
       </c>
-      <c r="H97" s="95">
+      <c r="H97" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>75.879500000000007</v>
       </c>
-      <c r="I97" s="88">
+      <c r="I97" s="85">
         <v>0.79</v>
       </c>
-      <c r="J97" s="79">
+      <c r="J97" s="76">
         <v>3</v>
       </c>
-      <c r="K97" s="80">
+      <c r="K97" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1233732431025507E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="99">
+      <c r="B98" s="96">
         <v>45615</v>
       </c>
-      <c r="C98" s="91" t="s">
+      <c r="C98" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="86">
+      <c r="E98" s="83">
         <v>136</v>
       </c>
-      <c r="F98" s="94">
+      <c r="F98" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>56.004799999999996</v>
       </c>
-      <c r="G98" s="87">
+      <c r="G98" s="84">
         <v>41.18</v>
       </c>
-      <c r="H98" s="95">
+      <c r="H98" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1.9991999999999999</v>
       </c>
-      <c r="I98" s="88">
+      <c r="I98" s="85">
         <v>1.47</v>
       </c>
-      <c r="J98" s="79">
-        <v>0</v>
-      </c>
-      <c r="K98" s="80">
+      <c r="J98" s="76">
+        <v>0</v>
+      </c>
+      <c r="K98" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="99">
+      <c r="B99" s="96">
         <v>45615</v>
       </c>
-      <c r="C99" s="91" t="s">
+      <c r="C99" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="91" t="s">
+      <c r="D99" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="76">
+      <c r="E99" s="73">
         <v>8370</v>
       </c>
-      <c r="F99" s="94">
+      <c r="F99" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4495.527</v>
       </c>
-      <c r="G99" s="77">
+      <c r="G99" s="74">
         <v>53.71</v>
       </c>
-      <c r="H99" s="95">
+      <c r="H99" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>256.959</v>
       </c>
-      <c r="I99" s="78">
+      <c r="I99" s="75">
         <v>3.07</v>
       </c>
-      <c r="J99" s="79">
+      <c r="J99" s="76">
         <v>1</v>
       </c>
-      <c r="K99" s="80">
+      <c r="K99" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1947431302270011E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="99">
+      <c r="B100" s="96">
         <v>45615</v>
       </c>
-      <c r="C100" s="120" t="s">
+      <c r="C100" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="120" t="s">
+      <c r="D100" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="76">
+      <c r="E100" s="73">
         <v>1299</v>
       </c>
-      <c r="F100" s="94">
+      <c r="F100" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>820.44839999999999</v>
       </c>
-      <c r="G100" s="77">
+      <c r="G100" s="74">
         <v>63.16</v>
       </c>
-      <c r="H100" s="95">
+      <c r="H100" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>54.298199999999994</v>
       </c>
-      <c r="I100" s="78">
+      <c r="I100" s="75">
         <v>4.18</v>
       </c>
-      <c r="J100" s="79">
-        <v>0</v>
-      </c>
-      <c r="K100" s="80">
+      <c r="J100" s="76">
+        <v>0</v>
+      </c>
+      <c r="K100" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="99">
+      <c r="B101" s="96">
         <v>45615</v>
       </c>
-      <c r="C101" s="91" t="s">
+      <c r="C101" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="91" t="s">
+      <c r="D101" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="86">
+      <c r="E101" s="83">
         <v>439</v>
       </c>
-      <c r="F101" s="94">
+      <c r="F101" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>291.97890000000001</v>
       </c>
-      <c r="G101" s="87">
+      <c r="G101" s="84">
         <v>66.510000000000005</v>
       </c>
-      <c r="H101" s="95">
+      <c r="H101" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>205.97880000000001</v>
       </c>
-      <c r="I101" s="88">
+      <c r="I101" s="85">
         <v>46.92</v>
       </c>
-      <c r="J101" s="79">
-        <v>0</v>
-      </c>
-      <c r="K101" s="80">
+      <c r="J101" s="76">
+        <v>0</v>
+      </c>
+      <c r="K101" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="99">
+      <c r="B102" s="96">
         <v>45615</v>
       </c>
-      <c r="C102" s="91" t="s">
+      <c r="C102" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="91" t="s">
+      <c r="D102" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="76">
+      <c r="E102" s="73">
         <v>577</v>
       </c>
-      <c r="F102" s="94">
+      <c r="F102" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>369.97240000000005</v>
       </c>
-      <c r="G102" s="77">
+      <c r="G102" s="74">
         <v>64.12</v>
       </c>
-      <c r="H102" s="95">
+      <c r="H102" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>207.02760000000001</v>
       </c>
-      <c r="I102" s="78">
+      <c r="I102" s="75">
         <v>35.880000000000003</v>
       </c>
-      <c r="J102" s="79">
-        <v>0</v>
-      </c>
-      <c r="K102" s="80">
+      <c r="J102" s="76">
+        <v>0</v>
+      </c>
+      <c r="K102" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="99">
+      <c r="B103" s="96">
         <v>45614</v>
       </c>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="120" t="s">
+      <c r="D103" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="76">
+      <c r="E103" s="73">
         <v>1397</v>
       </c>
-      <c r="F103" s="94">
+      <c r="F103" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>823.53150000000005</v>
       </c>
-      <c r="G103" s="77">
+      <c r="G103" s="74">
         <v>58.95</v>
       </c>
-      <c r="H103" s="95">
+      <c r="H103" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>48.196500000000007</v>
       </c>
-      <c r="I103" s="78">
+      <c r="I103" s="75">
         <v>3.45</v>
       </c>
-      <c r="J103" s="79">
+      <c r="J103" s="76">
         <v>1</v>
       </c>
-      <c r="K103" s="80">
+      <c r="K103" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.1581961345740866E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="99">
+      <c r="B104" s="96">
         <v>45614</v>
       </c>
-      <c r="C104" s="120" t="s">
+      <c r="C104" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="120" t="s">
+      <c r="D104" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="76">
+      <c r="E104" s="73">
         <v>13052</v>
       </c>
-      <c r="F104" s="94">
+      <c r="F104" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6763.5464000000002</v>
       </c>
-      <c r="G104" s="77">
+      <c r="G104" s="74">
         <v>51.82</v>
       </c>
-      <c r="H104" s="95">
+      <c r="H104" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>255.8192</v>
       </c>
-      <c r="I104" s="78">
+      <c r="I104" s="75">
         <v>1.96</v>
       </c>
-      <c r="J104" s="79">
+      <c r="J104" s="76">
         <v>1</v>
       </c>
-      <c r="K104" s="80">
+      <c r="K104" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.6616610481152307E-3</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="97">
+      <c r="B105" s="94">
         <v>45608</v>
       </c>
-      <c r="C105" s="120" t="s">
+      <c r="C105" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="120" t="s">
+      <c r="D105" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="86">
+      <c r="E105" s="83">
         <v>11557</v>
       </c>
-      <c r="F105" s="94">
+      <c r="F105" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6471.92</v>
       </c>
-      <c r="G105" s="87">
+      <c r="G105" s="84">
         <v>56</v>
       </c>
-      <c r="H105" s="95">
+      <c r="H105" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>32.359600000000007</v>
       </c>
-      <c r="I105" s="88">
+      <c r="I105" s="85">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J105" s="79">
+      <c r="J105" s="76">
         <v>4</v>
       </c>
-      <c r="K105" s="80">
+      <c r="K105" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.4611058233105473E-2</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B106" s="99">
+      <c r="B106" s="96">
         <v>45607</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C106" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="76">
+      <c r="E106" s="73">
         <v>307493</v>
       </c>
-      <c r="F106" s="94">
+      <c r="F106" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>155222.46639999998</v>
       </c>
-      <c r="G106" s="77">
+      <c r="G106" s="74">
         <v>50.48</v>
       </c>
-      <c r="H106" s="95">
+      <c r="H106" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35853.683799999999</v>
       </c>
-      <c r="I106" s="78">
+      <c r="I106" s="75">
         <v>11.66</v>
       </c>
-      <c r="J106" s="79">
+      <c r="J106" s="76">
         <v>196</v>
       </c>
-      <c r="K106" s="80">
+      <c r="K106" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3741288419573772E-2</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="99">
+      <c r="B107" s="96">
         <v>45604</v>
       </c>
-      <c r="C107" s="120" t="s">
+      <c r="C107" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="120" t="s">
+      <c r="D107" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="86">
+      <c r="E107" s="83">
         <v>23537</v>
       </c>
-      <c r="F107" s="104">
+      <c r="F107" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>13842.109699999999</v>
       </c>
-      <c r="G107" s="87">
+      <c r="G107" s="84">
         <v>58.81</v>
       </c>
-      <c r="H107" s="131">
+      <c r="H107" s="126">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>4203.7082</v>
       </c>
-      <c r="I107" s="87">
+      <c r="I107" s="84">
         <v>17.86</v>
       </c>
-      <c r="J107" s="79">
+      <c r="J107" s="76">
         <v>10</v>
       </c>
-      <c r="K107" s="80">
+      <c r="K107" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.2486298168840551E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B108" s="97">
+      <c r="B108" s="94">
         <v>45594</v>
       </c>
-      <c r="C108" s="91" t="s">
+      <c r="C108" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="91" t="s">
+      <c r="D108" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="86">
+      <c r="E108" s="83">
         <v>9414</v>
       </c>
-      <c r="F108" s="104">
+      <c r="F108" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3925.6380000000004</v>
       </c>
-      <c r="G108" s="87">
+      <c r="G108" s="84">
         <v>41.7</v>
       </c>
-      <c r="H108" s="105">
+      <c r="H108" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>119.5578</v>
       </c>
-      <c r="I108" s="88">
+      <c r="I108" s="85">
         <v>1.27</v>
       </c>
-      <c r="J108" s="79">
+      <c r="J108" s="76">
         <v>2</v>
       </c>
-      <c r="K108" s="80">
+      <c r="K108" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1244954323348206E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B109" s="97">
+      <c r="B109" s="94">
         <v>45594</v>
       </c>
-      <c r="C109" s="98" t="s">
+      <c r="C109" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="98" t="s">
+      <c r="D109" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="86">
+      <c r="E109" s="83">
         <v>323</v>
       </c>
-      <c r="F109" s="104">
+      <c r="F109" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>172.99880000000002</v>
       </c>
-      <c r="G109" s="87">
+      <c r="G109" s="84">
         <v>53.56</v>
       </c>
-      <c r="H109" s="105">
+      <c r="H109" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>4.0051999999999994</v>
       </c>
-      <c r="I109" s="88">
+      <c r="I109" s="85">
         <v>1.24</v>
       </c>
-      <c r="J109" s="79">
-        <v>0</v>
-      </c>
-      <c r="K109" s="80">
+      <c r="J109" s="76">
+        <v>0</v>
+      </c>
+      <c r="K109" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="97">
+      <c r="B110" s="94">
         <v>45594</v>
       </c>
-      <c r="C110" s="91" t="s">
+      <c r="C110" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="91" t="s">
+      <c r="D110" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="83">
         <v>5027</v>
       </c>
-      <c r="F110" s="104">
+      <c r="F110" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2111.34</v>
       </c>
-      <c r="G110" s="87">
+      <c r="G110" s="84">
         <v>42</v>
       </c>
-      <c r="H110" s="105">
+      <c r="H110" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>251.35</v>
       </c>
-      <c r="I110" s="88">
+      <c r="I110" s="85">
         <v>5</v>
       </c>
-      <c r="J110" s="79">
+      <c r="J110" s="76">
         <v>1</v>
       </c>
-      <c r="K110" s="80">
+      <c r="K110" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.9892580067634773E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="97">
+      <c r="B111" s="94">
         <v>45594</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="91" t="s">
+      <c r="D111" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="86">
+      <c r="E111" s="83">
         <v>131</v>
       </c>
-      <c r="F111" s="104">
+      <c r="F111" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>82.53</v>
       </c>
-      <c r="G111" s="87">
+      <c r="G111" s="84">
         <v>63</v>
       </c>
-      <c r="H111" s="105">
+      <c r="H111" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>34.06</v>
       </c>
-      <c r="I111" s="88">
+      <c r="I111" s="85">
         <v>26</v>
       </c>
-      <c r="J111" s="79">
-        <v>0</v>
-      </c>
-      <c r="K111" s="80">
+      <c r="J111" s="76">
+        <v>0</v>
+      </c>
+      <c r="K111" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="97">
+      <c r="B112" s="94">
         <v>45587</v>
       </c>
-      <c r="C112" s="120" t="s">
+      <c r="C112" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="120" t="s">
+      <c r="D112" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="76">
+      <c r="E112" s="73">
         <v>45474</v>
       </c>
-      <c r="F112" s="104">
+      <c r="F112" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>25774.663199999999</v>
       </c>
-      <c r="G112" s="87">
+      <c r="G112" s="84">
         <v>56.68</v>
       </c>
-      <c r="H112" s="95">
+      <c r="H112" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>291.03359999999998</v>
       </c>
-      <c r="I112" s="88">
+      <c r="I112" s="85">
         <v>0.64</v>
       </c>
-      <c r="J112" s="79">
+      <c r="J112" s="76">
         <v>53</v>
       </c>
-      <c r="K112" s="80">
+      <c r="K112" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.11655011655011654</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B113" s="97">
+      <c r="B113" s="94">
         <v>45587</v>
       </c>
-      <c r="C113" s="98" t="s">
+      <c r="C113" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="98" t="s">
+      <c r="D113" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="86">
+      <c r="E113" s="83">
         <v>4621</v>
       </c>
-      <c r="F113" s="104">
+      <c r="F113" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2790.1598000000004</v>
       </c>
-      <c r="G113" s="87">
+      <c r="G113" s="84">
         <v>60.38</v>
       </c>
-      <c r="H113" s="105">
+      <c r="H113" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>61.921400000000006</v>
       </c>
-      <c r="I113" s="88">
+      <c r="I113" s="85">
         <v>1.34</v>
       </c>
-      <c r="J113" s="79">
+      <c r="J113" s="76">
         <v>7</v>
       </c>
-      <c r="K113" s="80">
+      <c r="K113" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.15148236312486477</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="97">
+      <c r="B114" s="94">
         <v>45580</v>
       </c>
-      <c r="C114" s="120" t="s">
+      <c r="C114" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="120" t="s">
+      <c r="D114" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="76">
+      <c r="E114" s="73">
         <v>141</v>
       </c>
-      <c r="F114" s="104">
+      <c r="F114" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>124.99650000000001</v>
       </c>
-      <c r="G114" s="87">
+      <c r="G114" s="84">
         <v>88.65</v>
       </c>
-      <c r="H114" s="95">
+      <c r="H114" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>38.916000000000004</v>
       </c>
-      <c r="I114" s="88">
+      <c r="I114" s="85">
         <v>27.6</v>
       </c>
-      <c r="J114" s="79">
-        <v>0</v>
-      </c>
-      <c r="K114" s="80">
+      <c r="J114" s="76">
+        <v>0</v>
+      </c>
+      <c r="K114" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A115" s="90" t="s">
+      <c r="A115" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="97">
+      <c r="B115" s="94">
         <v>45580</v>
       </c>
-      <c r="C115" s="91" t="s">
+      <c r="C115" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="120" t="s">
+      <c r="D115" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="86">
+      <c r="E115" s="83">
         <v>24092</v>
       </c>
-      <c r="F115" s="104">
+      <c r="F115" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>17820.8524</v>
       </c>
-      <c r="G115" s="87">
+      <c r="G115" s="84">
         <v>73.97</v>
       </c>
-      <c r="H115" s="105">
+      <c r="H115" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>6006.1355999999996</v>
       </c>
-      <c r="I115" s="88">
+      <c r="I115" s="85">
         <v>24.93</v>
       </c>
-      <c r="J115" s="79">
-        <v>0</v>
-      </c>
-      <c r="K115" s="80">
+      <c r="J115" s="76">
+        <v>0</v>
+      </c>
+      <c r="K115" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="97">
+      <c r="B116" s="94">
         <v>45580</v>
       </c>
-      <c r="C116" s="91" t="s">
+      <c r="C116" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="120" t="s">
+      <c r="D116" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="86">
+      <c r="E116" s="83">
         <v>18497</v>
       </c>
-      <c r="F116" s="104">
+      <c r="F116" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12903.507200000002</v>
       </c>
-      <c r="G116" s="87">
+      <c r="G116" s="84">
         <v>69.760000000000005</v>
       </c>
-      <c r="H116" s="105">
+      <c r="H116" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3677.2035999999998</v>
       </c>
-      <c r="I116" s="88">
+      <c r="I116" s="85">
         <v>19.88</v>
       </c>
-      <c r="J116" s="79">
-        <v>0</v>
-      </c>
-      <c r="K116" s="80">
+      <c r="J116" s="76">
+        <v>0</v>
+      </c>
+      <c r="K116" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A117" s="90" t="s">
+      <c r="A117" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="97">
+      <c r="B117" s="94">
         <v>45575</v>
       </c>
-      <c r="C117" s="91" t="s">
+      <c r="C117" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="120" t="s">
+      <c r="D117" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="86">
+      <c r="E117" s="83">
         <v>220241</v>
       </c>
-      <c r="F117" s="104">
+      <c r="F117" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>131549.94930000001</v>
       </c>
-      <c r="G117" s="87">
+      <c r="G117" s="84">
         <v>59.73</v>
       </c>
-      <c r="H117" s="105">
+      <c r="H117" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>37881.451999999997</v>
       </c>
-      <c r="I117" s="88">
+      <c r="I117" s="85">
         <v>17.2</v>
       </c>
-      <c r="J117" s="79">
-        <v>0</v>
-      </c>
-      <c r="K117" s="80">
+      <c r="J117" s="76">
+        <v>0</v>
+      </c>
+      <c r="K117" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A118" s="90" t="s">
+      <c r="A118" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="97">
+      <c r="B118" s="94">
         <v>45573</v>
       </c>
-      <c r="C118" s="91" t="s">
+      <c r="C118" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="120" t="s">
+      <c r="D118" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="86">
+      <c r="E118" s="83">
         <v>327862</v>
       </c>
-      <c r="F118" s="104">
+      <c r="F118" s="101">
         <v>172086</v>
       </c>
-      <c r="G118" s="87">
+      <c r="G118" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.48732698513399</v>
       </c>
-      <c r="H118" s="129">
+      <c r="H118" s="124">
         <v>58732</v>
       </c>
-      <c r="I118" s="88">
+      <c r="I118" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>17.913634394958855</v>
       </c>
-      <c r="J118" s="79">
-        <v>0</v>
-      </c>
-      <c r="K118" s="80">
+      <c r="J118" s="76">
+        <v>0</v>
+      </c>
+      <c r="K118" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B119" s="97">
+      <c r="B119" s="94">
         <v>45572</v>
       </c>
-      <c r="C119" s="91" t="s">
+      <c r="C119" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="91" t="s">
+      <c r="D119" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="86">
+      <c r="E119" s="83">
         <v>2348</v>
       </c>
-      <c r="F119" s="104">
+      <c r="F119" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1849.7544</v>
       </c>
-      <c r="G119" s="87">
+      <c r="G119" s="84">
         <v>78.78</v>
       </c>
-      <c r="H119" s="105">
+      <c r="H119" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>814.99080000000004</v>
       </c>
-      <c r="I119" s="88">
+      <c r="I119" s="85">
         <v>34.71</v>
       </c>
-      <c r="J119" s="79">
-        <v>0</v>
-      </c>
-      <c r="K119" s="80">
+      <c r="J119" s="76">
+        <v>0</v>
+      </c>
+      <c r="K119" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A120" s="89" t="s">
+      <c r="A120" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="97">
+      <c r="B120" s="94">
         <v>45572</v>
       </c>
-      <c r="C120" s="120" t="s">
+      <c r="C120" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="120" t="s">
+      <c r="D120" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="76">
+      <c r="E120" s="73">
         <v>3652</v>
       </c>
-      <c r="F120" s="104">
+      <c r="F120" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2638.9352000000003</v>
       </c>
-      <c r="G120" s="87">
+      <c r="G120" s="84">
         <v>72.260000000000005</v>
       </c>
-      <c r="H120" s="95">
+      <c r="H120" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>956.09360000000004</v>
       </c>
-      <c r="I120" s="88">
+      <c r="I120" s="85">
         <v>26.18</v>
       </c>
-      <c r="J120" s="79">
-        <v>0</v>
-      </c>
-      <c r="K120" s="80">
+      <c r="J120" s="76">
+        <v>0</v>
+      </c>
+      <c r="K120" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="97">
+      <c r="B121" s="94">
         <v>45572</v>
       </c>
-      <c r="C121" s="120" t="s">
+      <c r="C121" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="120" t="s">
+      <c r="D121" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="76">
+      <c r="E121" s="73">
         <v>2034</v>
       </c>
-      <c r="F121" s="104">
+      <c r="F121" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1630.251</v>
       </c>
-      <c r="G121" s="87">
+      <c r="G121" s="84">
         <v>80.150000000000006</v>
       </c>
-      <c r="H121" s="95">
+      <c r="H121" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>833.94</v>
       </c>
-      <c r="I121" s="88">
+      <c r="I121" s="85">
         <v>41</v>
       </c>
-      <c r="J121" s="79">
-        <v>0</v>
-      </c>
-      <c r="K121" s="80">
+      <c r="J121" s="76">
+        <v>0</v>
+      </c>
+      <c r="K121" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B122" s="97">
+      <c r="B122" s="94">
         <v>45572</v>
       </c>
-      <c r="C122" s="120" t="s">
+      <c r="C122" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="120" t="s">
+      <c r="D122" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="76">
+      <c r="E122" s="73">
         <v>3584</v>
       </c>
-      <c r="F122" s="104">
+      <c r="F122" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2156.4928</v>
       </c>
-      <c r="G122" s="87">
+      <c r="G122" s="84">
         <v>60.17</v>
       </c>
-      <c r="H122" s="95">
+      <c r="H122" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>642.96960000000001</v>
       </c>
-      <c r="I122" s="88">
+      <c r="I122" s="85">
         <v>17.940000000000001</v>
       </c>
-      <c r="J122" s="79">
-        <v>0</v>
-      </c>
-      <c r="K122" s="80">
+      <c r="J122" s="76">
+        <v>0</v>
+      </c>
+      <c r="K122" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="97">
+      <c r="B123" s="94">
         <v>45560</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D123" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="76">
+      <c r="E123" s="73">
         <v>695</v>
       </c>
-      <c r="F123" s="104">
+      <c r="F123" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>412.41300000000001</v>
       </c>
-      <c r="G123" s="87">
+      <c r="G123" s="84">
         <v>59.34</v>
       </c>
-      <c r="H123" s="95">
+      <c r="H123" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>110.85250000000001</v>
       </c>
-      <c r="I123" s="88">
+      <c r="I123" s="85">
         <v>15.95</v>
       </c>
-      <c r="J123" s="79">
-        <v>0</v>
-      </c>
-      <c r="K123" s="80">
+      <c r="J123" s="76">
+        <v>0</v>
+      </c>
+      <c r="K123" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B124" s="97">
+      <c r="B124" s="94">
         <v>45560</v>
       </c>
-      <c r="C124" s="75" t="s">
+      <c r="C124" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="76">
+      <c r="E124" s="73">
         <v>15</v>
       </c>
-      <c r="F124" s="104">
+      <c r="F124" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12</v>
       </c>
-      <c r="G124" s="87">
+      <c r="G124" s="84">
         <v>80</v>
       </c>
-      <c r="H124" s="95">
+      <c r="H124" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3</v>
       </c>
-      <c r="I124" s="88">
+      <c r="I124" s="85">
         <v>20</v>
       </c>
-      <c r="J124" s="79">
-        <v>0</v>
-      </c>
-      <c r="K124" s="80">
+      <c r="J124" s="76">
+        <v>0</v>
+      </c>
+      <c r="K124" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B125" s="97">
+      <c r="B125" s="94">
         <v>45551</v>
       </c>
-      <c r="C125" s="85" t="s">
+      <c r="C125" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="85" t="s">
+      <c r="D125" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="103">
+      <c r="E125" s="100">
         <v>549</v>
       </c>
-      <c r="F125" s="104">
+      <c r="F125" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>249.0264</v>
       </c>
-      <c r="G125" s="87">
+      <c r="G125" s="84">
         <v>45.36</v>
       </c>
-      <c r="H125" s="105">
+      <c r="H125" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>57.974400000000003</v>
       </c>
-      <c r="I125" s="88">
+      <c r="I125" s="85">
         <v>10.56</v>
       </c>
-      <c r="J125" s="79">
+      <c r="J125" s="76">
         <v>1</v>
       </c>
-      <c r="K125" s="80">
+      <c r="K125" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.18214936247723132</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="97">
+      <c r="B126" s="94">
         <v>45551</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="85" t="s">
+      <c r="D126" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="76">
+      <c r="E126" s="73">
         <v>3640</v>
       </c>
-      <c r="F126" s="104">
+      <c r="F126" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1207.0239999999999</v>
       </c>
-      <c r="G126" s="87">
+      <c r="G126" s="84">
         <v>33.159999999999997</v>
       </c>
-      <c r="H126" s="95">
+      <c r="H126" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>234.05200000000002</v>
       </c>
-      <c r="I126" s="88">
+      <c r="I126" s="85">
         <v>6.43</v>
       </c>
-      <c r="J126" s="79">
-        <v>0</v>
-      </c>
-      <c r="K126" s="80">
+      <c r="J126" s="76">
+        <v>0</v>
+      </c>
+      <c r="K126" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="97">
+      <c r="B127" s="94">
         <v>45547</v>
       </c>
-      <c r="C127" s="85" t="s">
+      <c r="C127" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="85" t="s">
+      <c r="D127" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="76">
+      <c r="E127" s="73">
         <v>61270</v>
       </c>
-      <c r="F127" s="104">
+      <c r="F127" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>30340.904000000002</v>
       </c>
-      <c r="G127" s="87">
+      <c r="G127" s="84">
         <v>49.52</v>
       </c>
-      <c r="H127" s="95">
+      <c r="H127" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>655.58900000000006</v>
       </c>
-      <c r="I127" s="88">
+      <c r="I127" s="85">
         <v>1.07</v>
       </c>
-      <c r="J127" s="79">
-        <v>0</v>
-      </c>
-      <c r="K127" s="80">
+      <c r="J127" s="76">
+        <v>0</v>
+      </c>
+      <c r="K127" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A128" s="84" t="s">
+      <c r="A128" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="97">
+      <c r="B128" s="94">
         <v>45547</v>
       </c>
-      <c r="C128" s="85" t="s">
+      <c r="C128" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="85" t="s">
+      <c r="D128" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="76">
+      <c r="E128" s="73">
         <v>13636</v>
       </c>
-      <c r="F128" s="104">
+      <c r="F128" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>7428.8927999999987</v>
       </c>
-      <c r="G128" s="87">
+      <c r="G128" s="84">
         <v>54.48</v>
       </c>
-      <c r="H128" s="95">
+      <c r="H128" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>227.72119999999998</v>
       </c>
-      <c r="I128" s="88">
+      <c r="I128" s="85">
         <v>1.67</v>
       </c>
-      <c r="J128" s="79">
-        <v>0</v>
-      </c>
-      <c r="K128" s="80">
+      <c r="J128" s="76">
+        <v>0</v>
+      </c>
+      <c r="K128" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A129" s="74" t="s">
+      <c r="A129" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="97">
+      <c r="B129" s="94">
         <v>45547</v>
       </c>
-      <c r="C129" s="85" t="s">
+      <c r="C129" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="76">
+      <c r="E129" s="73">
         <v>65428</v>
       </c>
-      <c r="F129" s="104">
+      <c r="F129" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23050.2844</v>
       </c>
-      <c r="G129" s="87">
+      <c r="G129" s="84">
         <v>35.229999999999997</v>
       </c>
-      <c r="H129" s="95">
+      <c r="H129" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>667.36559999999997</v>
       </c>
-      <c r="I129" s="88">
+      <c r="I129" s="85">
         <v>1.02</v>
       </c>
-      <c r="J129" s="79">
-        <v>0</v>
-      </c>
-      <c r="K129" s="80">
+      <c r="J129" s="76">
+        <v>0</v>
+      </c>
+      <c r="K129" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="97">
+      <c r="B130" s="94">
         <v>45546</v>
       </c>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="85" t="s">
+      <c r="D130" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="86">
+      <c r="E130" s="83">
         <v>25695</v>
       </c>
-      <c r="F130" s="104">
+      <c r="F130" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>15023.866499999998</v>
       </c>
-      <c r="G130" s="87">
+      <c r="G130" s="84">
         <v>58.47</v>
       </c>
-      <c r="H130" s="105">
+      <c r="H130" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1575.1035000000002</v>
       </c>
-      <c r="I130" s="88">
+      <c r="I130" s="85">
         <v>6.13</v>
       </c>
-      <c r="J130" s="79">
-        <v>0</v>
-      </c>
-      <c r="K130" s="80">
+      <c r="J130" s="76">
+        <v>0</v>
+      </c>
+      <c r="K130" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="97">
+      <c r="B131" s="94">
         <v>45546</v>
       </c>
-      <c r="C131" s="85" t="s">
+      <c r="C131" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="85" t="s">
+      <c r="D131" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="86">
+      <c r="E131" s="83">
         <v>21318</v>
       </c>
-      <c r="F131" s="104">
+      <c r="F131" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12347.385600000001</v>
       </c>
-      <c r="G131" s="87">
+      <c r="G131" s="84">
         <v>57.92</v>
       </c>
-      <c r="H131" s="105">
+      <c r="H131" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1534.896</v>
       </c>
-      <c r="I131" s="88">
+      <c r="I131" s="85">
         <v>7.2</v>
       </c>
-      <c r="J131" s="79">
-        <v>0</v>
-      </c>
-      <c r="K131" s="80">
+      <c r="J131" s="76">
+        <v>0</v>
+      </c>
+      <c r="K131" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="97">
+      <c r="B132" s="94">
         <v>45545</v>
       </c>
-      <c r="C132" s="85" t="s">
+      <c r="C132" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="85" t="s">
+      <c r="D132" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="86">
+      <c r="E132" s="83">
         <v>2253</v>
       </c>
-      <c r="F132" s="104">
+      <c r="F132" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>720.96</v>
       </c>
-      <c r="G132" s="87">
+      <c r="G132" s="84">
         <v>32</v>
       </c>
-      <c r="H132" s="105">
+      <c r="H132" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>45.961199999999998</v>
       </c>
-      <c r="I132" s="88">
+      <c r="I132" s="85">
         <v>2.04</v>
       </c>
-      <c r="J132" s="79">
-        <v>0</v>
-      </c>
-      <c r="K132" s="80">
+      <c r="J132" s="76">
+        <v>0</v>
+      </c>
+      <c r="K132" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="97">
+      <c r="B133" s="94">
         <v>45545</v>
       </c>
-      <c r="C133" s="85" t="s">
+      <c r="C133" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="85" t="s">
+      <c r="D133" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="86">
+      <c r="E133" s="83">
         <v>2191</v>
       </c>
-      <c r="F133" s="104">
+      <c r="F133" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>755.89499999999998</v>
       </c>
-      <c r="G133" s="87">
+      <c r="G133" s="84">
         <v>34.5</v>
       </c>
-      <c r="H133" s="105">
+      <c r="H133" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35.275100000000002</v>
       </c>
-      <c r="I133" s="88">
+      <c r="I133" s="85">
         <v>1.61</v>
       </c>
-      <c r="J133" s="79">
+      <c r="J133" s="76">
         <v>1</v>
       </c>
-      <c r="K133" s="80">
+      <c r="K133" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.5641259698767686E-2</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="97">
+      <c r="B134" s="94">
         <v>45538</v>
       </c>
-      <c r="C134" s="85" t="s">
+      <c r="C134" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="85" t="s">
+      <c r="D134" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="86">
+      <c r="E134" s="83">
         <v>12661</v>
       </c>
-      <c r="F134" s="104">
+      <c r="F134" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>8874.0949000000001</v>
       </c>
-      <c r="G134" s="87">
+      <c r="G134" s="84">
         <v>70.09</v>
       </c>
-      <c r="H134" s="105">
+      <c r="H134" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1386.3794999999998</v>
       </c>
-      <c r="I134" s="88">
+      <c r="I134" s="85">
         <v>10.95</v>
       </c>
-      <c r="J134" s="79">
-        <v>0</v>
-      </c>
-      <c r="K134" s="80">
+      <c r="J134" s="76">
+        <v>0</v>
+      </c>
+      <c r="K134" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B135" s="97">
+      <c r="B135" s="94">
         <v>45538</v>
       </c>
-      <c r="C135" s="85" t="s">
+      <c r="C135" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="85" t="s">
+      <c r="D135" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="86">
+      <c r="E135" s="83">
         <v>4539</v>
       </c>
-      <c r="F135" s="104">
+      <c r="F135" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1715.2881</v>
       </c>
-      <c r="G135" s="87">
+      <c r="G135" s="84">
         <v>37.79</v>
       </c>
-      <c r="H135" s="105">
+      <c r="H135" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>60.368699999999997</v>
       </c>
-      <c r="I135" s="88">
+      <c r="I135" s="85">
         <v>1.33</v>
       </c>
-      <c r="J135" s="79">
+      <c r="J135" s="76">
         <v>1</v>
       </c>
-      <c r="K135" s="80">
+      <c r="K135" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.203128442388191E-2</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B136" s="97">
+      <c r="B136" s="94">
         <v>45538</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C136" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="85" t="s">
+      <c r="D136" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="103">
+      <c r="E136" s="100">
         <v>92</v>
       </c>
-      <c r="F136" s="104">
+      <c r="F136" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>41.004399999999997</v>
       </c>
-      <c r="G136" s="87">
+      <c r="G136" s="84">
         <v>44.57</v>
       </c>
-      <c r="H136" s="105">
+      <c r="H136" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2.9991999999999996</v>
       </c>
-      <c r="I136" s="88">
+      <c r="I136" s="85">
         <v>3.26</v>
       </c>
-      <c r="J136" s="79">
-        <v>0</v>
-      </c>
-      <c r="K136" s="80">
+      <c r="J136" s="76">
+        <v>0</v>
+      </c>
+      <c r="K136" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B137" s="83">
+      <c r="B137" s="80">
         <v>45538</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C137" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D137" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="76">
+      <c r="E137" s="73">
         <v>12661</v>
       </c>
-      <c r="F137" s="94">
+      <c r="F137" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>9323.5604000000003</v>
       </c>
-      <c r="G137" s="87">
+      <c r="G137" s="84">
         <v>73.64</v>
       </c>
-      <c r="H137" s="95">
+      <c r="H137" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1405.3710000000001</v>
       </c>
-      <c r="I137" s="88">
+      <c r="I137" s="85">
         <v>11.1</v>
       </c>
-      <c r="J137" s="79">
-        <v>0</v>
-      </c>
-      <c r="K137" s="80">
+      <c r="J137" s="76">
+        <v>0</v>
+      </c>
+      <c r="K137" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="B138" s="83">
+      <c r="B138" s="80">
         <v>45537</v>
       </c>
-      <c r="C138" s="85" t="s">
+      <c r="C138" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="85" t="s">
+      <c r="D138" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="86">
+      <c r="E138" s="83">
         <v>3686</v>
       </c>
-      <c r="F138" s="104">
+      <c r="F138" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2029.1429999999998</v>
       </c>
-      <c r="G138" s="87">
+      <c r="G138" s="84">
         <v>55.05</v>
       </c>
-      <c r="H138" s="105">
+      <c r="H138" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30.962399999999999</v>
       </c>
-      <c r="I138" s="88">
+      <c r="I138" s="85">
         <v>0.84</v>
       </c>
-      <c r="J138" s="79">
+      <c r="J138" s="76">
         <v>2</v>
       </c>
-      <c r="K138" s="80">
+      <c r="K138" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4259359739555077E-2</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="83">
+      <c r="B139" s="80">
         <v>45537</v>
       </c>
-      <c r="C139" s="85" t="s">
+      <c r="C139" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="85" t="s">
+      <c r="D139" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E139" s="86">
+      <c r="E139" s="83">
         <v>51742</v>
       </c>
-      <c r="F139" s="104">
+      <c r="F139" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23749.577999999998</v>
       </c>
-      <c r="G139" s="87">
+      <c r="G139" s="84">
         <v>45.9</v>
       </c>
-      <c r="H139" s="105">
+      <c r="H139" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>222.4906</v>
       </c>
-      <c r="I139" s="88">
+      <c r="I139" s="85">
         <v>0.43</v>
       </c>
-      <c r="J139" s="79">
+      <c r="J139" s="76">
         <v>27</v>
       </c>
-      <c r="K139" s="80">
+      <c r="K139" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.2181979822967794E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="83">
+      <c r="B140" s="80">
         <v>45532</v>
       </c>
-      <c r="C140" s="85" t="s">
+      <c r="C140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="85" t="s">
+      <c r="D140" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="86">
+      <c r="E140" s="83">
         <v>9409</v>
       </c>
-      <c r="F140" s="104">
+      <c r="F140" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3291.2681999999995</v>
       </c>
-      <c r="G140" s="87">
+      <c r="G140" s="84">
         <v>34.979999999999997</v>
       </c>
-      <c r="H140" s="105">
+      <c r="H140" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>90.326399999999992</v>
       </c>
-      <c r="I140" s="88">
+      <c r="I140" s="85">
         <v>0.96</v>
       </c>
-      <c r="J140" s="79">
-        <v>0</v>
-      </c>
-      <c r="K140" s="80">
+      <c r="J140" s="76">
+        <v>0</v>
+      </c>
+      <c r="K140" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B141" s="83">
+      <c r="B141" s="80">
         <v>45532</v>
       </c>
-      <c r="C141" s="85" t="s">
+      <c r="C141" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="85" t="s">
+      <c r="D141" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="79">
+      <c r="E141" s="76">
         <v>562</v>
       </c>
-      <c r="F141" s="104">
+      <c r="F141" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>267.00619999999998</v>
       </c>
-      <c r="G141" s="87">
+      <c r="G141" s="84">
         <v>47.51</v>
       </c>
-      <c r="H141" s="95">
+      <c r="H141" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>6.7439999999999998</v>
       </c>
-      <c r="I141" s="88">
+      <c r="I141" s="85">
         <v>1.2</v>
       </c>
-      <c r="J141" s="79">
-        <v>0</v>
-      </c>
-      <c r="K141" s="80">
+      <c r="J141" s="76">
+        <v>0</v>
+      </c>
+      <c r="K141" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A142" s="84" t="s">
+      <c r="A142" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="83">
+      <c r="B142" s="80">
         <v>45531</v>
       </c>
-      <c r="C142" s="85" t="s">
+      <c r="C142" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D142" s="85" t="s">
+      <c r="D142" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E142" s="86">
+      <c r="E142" s="83">
         <v>3653</v>
       </c>
-      <c r="F142" s="104">
+      <c r="F142" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1970.4281999999998</v>
       </c>
-      <c r="G142" s="87">
+      <c r="G142" s="84">
         <v>53.94</v>
       </c>
-      <c r="H142" s="105">
+      <c r="H142" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35.434100000000001</v>
       </c>
-      <c r="I142" s="88">
+      <c r="I142" s="85">
         <v>0.97</v>
       </c>
-      <c r="J142" s="79">
+      <c r="J142" s="76">
         <v>1</v>
       </c>
-      <c r="K142" s="80">
+      <c r="K142" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.7374760470845878E-2</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A143" s="84" t="s">
+      <c r="A143" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="83">
+      <c r="B143" s="80">
         <v>45531</v>
       </c>
-      <c r="C143" s="85" t="s">
+      <c r="C143" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="85" t="s">
+      <c r="D143" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E143" s="86">
+      <c r="E143" s="83">
         <v>52112</v>
       </c>
-      <c r="F143" s="104">
+      <c r="F143" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23731.804799999998</v>
       </c>
-      <c r="G143" s="87">
+      <c r="G143" s="84">
         <v>45.54</v>
       </c>
-      <c r="H143" s="105">
+      <c r="H143" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>317.88319999999999</v>
       </c>
-      <c r="I143" s="88">
+      <c r="I143" s="85">
         <v>0.61</v>
       </c>
-      <c r="J143" s="79">
+      <c r="J143" s="76">
         <v>13</v>
       </c>
-      <c r="K143" s="80">
+      <c r="K143" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4946269573226893E-2</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A144" s="74" t="s">
+      <c r="A144" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="83">
+      <c r="B144" s="80">
         <v>45531</v>
       </c>
-      <c r="C144" s="75" t="s">
+      <c r="C144" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="75" t="s">
+      <c r="D144" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="76">
+      <c r="E144" s="73">
         <v>8619</v>
       </c>
-      <c r="F144" s="104">
+      <c r="F144" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4639.6076999999996</v>
       </c>
-      <c r="G144" s="87">
+      <c r="G144" s="84">
         <v>53.83</v>
       </c>
-      <c r="H144" s="95">
+      <c r="H144" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>249.0891</v>
       </c>
-      <c r="I144" s="88">
+      <c r="I144" s="85">
         <v>2.89</v>
       </c>
-      <c r="J144" s="79">
+      <c r="J144" s="76">
         <v>2</v>
       </c>
-      <c r="K144" s="80">
+      <c r="K144" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3204548091425917E-2</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A145" s="74" t="s">
+      <c r="A145" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B145" s="97">
+      <c r="B145" s="94">
         <v>45531</v>
       </c>
-      <c r="C145" s="85" t="s">
+      <c r="C145" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="85" t="s">
+      <c r="D145" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="86">
+      <c r="E145" s="83">
         <v>1311</v>
       </c>
-      <c r="F145" s="104">
+      <c r="F145" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>847.03710000000001</v>
       </c>
-      <c r="G145" s="87">
+      <c r="G145" s="84">
         <v>64.61</v>
       </c>
-      <c r="H145" s="105">
+      <c r="H145" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>64.239000000000004</v>
       </c>
-      <c r="I145" s="88">
+      <c r="I145" s="85">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J145" s="79">
-        <v>0</v>
-      </c>
-      <c r="K145" s="80">
+      <c r="J145" s="76">
+        <v>0</v>
+      </c>
+      <c r="K145" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A146" s="84" t="s">
+      <c r="A146" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="B146" s="97">
+      <c r="B146" s="94">
         <v>45530</v>
       </c>
-      <c r="C146" s="85" t="s">
+      <c r="C146" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="85" t="s">
+      <c r="D146" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E146" s="103">
+      <c r="E146" s="100">
         <v>154</v>
       </c>
-      <c r="F146" s="104">
+      <c r="F146" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>91.783999999999992</v>
       </c>
-      <c r="G146" s="87">
+      <c r="G146" s="84">
         <v>59.6</v>
       </c>
-      <c r="H146" s="105">
+      <c r="H146" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2.0327999999999999</v>
       </c>
-      <c r="I146" s="88">
+      <c r="I146" s="85">
         <v>1.32</v>
       </c>
-      <c r="J146" s="103">
-        <v>0</v>
-      </c>
-      <c r="K146" s="80">
+      <c r="J146" s="100">
+        <v>0</v>
+      </c>
+      <c r="K146" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="B147" s="97">
+      <c r="B147" s="94">
         <v>45530</v>
       </c>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="85" t="s">
+      <c r="D147" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E147" s="86">
+      <c r="E147" s="83">
         <v>1002</v>
       </c>
-      <c r="F147" s="104">
+      <c r="F147" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>437.9742</v>
       </c>
-      <c r="G147" s="87">
+      <c r="G147" s="84">
         <v>43.71</v>
       </c>
-      <c r="H147" s="105">
+      <c r="H147" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>7.0139999999999993</v>
       </c>
-      <c r="I147" s="88">
+      <c r="I147" s="85">
         <v>0.7</v>
       </c>
-      <c r="J147" s="103">
-        <v>0</v>
-      </c>
-      <c r="K147" s="80">
+      <c r="J147" s="100">
+        <v>0</v>
+      </c>
+      <c r="K147" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A148" s="74" t="s">
+      <c r="A148" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B148" s="97">
+      <c r="B148" s="94">
         <v>45508</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="75" t="s">
+      <c r="D148" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="76">
+      <c r="E148" s="73">
         <v>8213</v>
       </c>
-      <c r="F148" s="104">
+      <c r="F148" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3833.0071000000003</v>
       </c>
-      <c r="G148" s="87">
+      <c r="G148" s="84">
         <v>46.67</v>
       </c>
-      <c r="H148" s="95">
+      <c r="H148" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>159.3322</v>
       </c>
-      <c r="I148" s="88">
+      <c r="I148" s="85">
         <v>1.94</v>
       </c>
-      <c r="J148" s="103">
-        <v>0</v>
-      </c>
-      <c r="K148" s="80">
+      <c r="J148" s="100">
+        <v>0</v>
+      </c>
+      <c r="K148" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A149" s="74" t="s">
+      <c r="A149" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="97">
+      <c r="B149" s="94">
         <v>45508</v>
       </c>
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="85" t="s">
+      <c r="D149" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="86">
+      <c r="E149" s="83">
         <v>1553</v>
       </c>
-      <c r="F149" s="104">
+      <c r="F149" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>970.93560000000002</v>
       </c>
-      <c r="G149" s="87">
+      <c r="G149" s="84">
         <v>62.52</v>
       </c>
-      <c r="H149" s="105">
+      <c r="H149" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>99.236699999999999</v>
       </c>
-      <c r="I149" s="88">
+      <c r="I149" s="85">
         <v>6.39</v>
       </c>
-      <c r="J149" s="103">
-        <v>0</v>
-      </c>
-      <c r="K149" s="80">
+      <c r="J149" s="100">
+        <v>0</v>
+      </c>
+      <c r="K149" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="97">
+      <c r="B150" s="94">
         <v>45504</v>
       </c>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="85" t="s">
+      <c r="D150" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E150" s="86">
+      <c r="E150" s="83">
         <v>8525</v>
       </c>
-      <c r="F150" s="104">
+      <c r="F150" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4762.0649999999996</v>
       </c>
-      <c r="G150" s="87">
+      <c r="G150" s="84">
         <v>55.86</v>
       </c>
-      <c r="H150" s="105">
+      <c r="H150" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>457.79250000000002</v>
       </c>
-      <c r="I150" s="88">
+      <c r="I150" s="85">
         <v>5.37</v>
       </c>
-      <c r="J150" s="103">
+      <c r="J150" s="100">
         <v>3</v>
       </c>
-      <c r="K150" s="80">
+      <c r="K150" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5190615835777123E-2</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="B151" s="97">
+      <c r="B151" s="94">
         <v>45503</v>
       </c>
-      <c r="C151" s="85" t="s">
+      <c r="C151" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="85" t="s">
+      <c r="D151" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="86">
+      <c r="E151" s="83">
         <v>309707</v>
       </c>
-      <c r="F151" s="104">
+      <c r="F151" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>182696.1593</v>
       </c>
-      <c r="G151" s="87">
+      <c r="G151" s="84">
         <v>58.99</v>
       </c>
-      <c r="H151" s="105">
+      <c r="H151" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30072.549700000003</v>
       </c>
-      <c r="I151" s="88">
+      <c r="I151" s="85">
         <v>9.7100000000000009</v>
       </c>
-      <c r="J151" s="103">
+      <c r="J151" s="100">
         <v>79</v>
       </c>
-      <c r="K151" s="80">
+      <c r="K151" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5507980123148654E-2</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B152" s="97">
+      <c r="B152" s="94">
         <v>45503</v>
       </c>
-      <c r="C152" s="85" t="s">
+      <c r="C152" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="85" t="s">
+      <c r="D152" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E152" s="86">
+      <c r="E152" s="83">
         <v>3484</v>
       </c>
-      <c r="F152" s="104">
+      <c r="F152" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1813.7704000000001</v>
       </c>
-      <c r="G152" s="87">
+      <c r="G152" s="84">
         <v>52.06</v>
       </c>
-      <c r="H152" s="105">
+      <c r="H152" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>48.427599999999991</v>
       </c>
-      <c r="I152" s="88">
+      <c r="I152" s="85">
         <v>1.39</v>
       </c>
-      <c r="J152" s="103">
-        <v>0</v>
-      </c>
-      <c r="K152" s="80">
+      <c r="J152" s="100">
+        <v>0</v>
+      </c>
+      <c r="K152" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B153" s="97">
+      <c r="B153" s="94">
         <v>45503</v>
       </c>
-      <c r="C153" s="85" t="s">
+      <c r="C153" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="85" t="s">
+      <c r="D153" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="103">
+      <c r="E153" s="100">
         <v>365</v>
       </c>
-      <c r="F153" s="104">
+      <c r="F153" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>219.58399999999997</v>
       </c>
-      <c r="G153" s="87">
+      <c r="G153" s="84">
         <v>60.16</v>
       </c>
-      <c r="H153" s="105">
+      <c r="H153" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>10.0375</v>
       </c>
-      <c r="I153" s="88">
+      <c r="I153" s="85">
         <v>2.75</v>
       </c>
-      <c r="J153" s="103">
-        <v>0</v>
-      </c>
-      <c r="K153" s="80">
+      <c r="J153" s="100">
+        <v>0</v>
+      </c>
+      <c r="K153" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A154" s="84" t="s">
+      <c r="A154" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B154" s="97">
+      <c r="B154" s="94">
         <v>45502</v>
       </c>
-      <c r="C154" s="85" t="s">
+      <c r="C154" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="85" t="s">
+      <c r="D154" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E154" s="86">
+      <c r="E154" s="83">
         <v>9580</v>
       </c>
-      <c r="F154" s="104">
+      <c r="F154" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4718.1499999999996</v>
       </c>
-      <c r="G154" s="87">
+      <c r="G154" s="84">
         <v>49.25</v>
       </c>
-      <c r="H154" s="105">
+      <c r="H154" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>97.716000000000008</v>
       </c>
-      <c r="I154" s="88">
+      <c r="I154" s="85">
         <v>1.02</v>
       </c>
-      <c r="J154" s="103">
+      <c r="J154" s="100">
         <v>3</v>
       </c>
-      <c r="K154" s="80">
+      <c r="K154" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1315240083507306E-2</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A155" s="84" t="s">
+      <c r="A155" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="B155" s="97">
+      <c r="B155" s="94">
         <v>45496</v>
       </c>
-      <c r="C155" s="85" t="s">
+      <c r="C155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="85" t="s">
+      <c r="D155" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="86">
+      <c r="E155" s="83">
         <v>4357</v>
       </c>
-      <c r="F155" s="104">
+      <c r="F155" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2644.6990000000001</v>
       </c>
-      <c r="G155" s="87">
+      <c r="G155" s="84">
         <v>60.7</v>
       </c>
-      <c r="H155" s="105">
+      <c r="H155" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>133.75989999999999</v>
       </c>
-      <c r="I155" s="88">
+      <c r="I155" s="85">
         <v>3.07</v>
       </c>
-      <c r="J155" s="103">
+      <c r="J155" s="100">
         <v>1</v>
       </c>
-      <c r="K155" s="80">
+      <c r="K155" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2951572182694516E-2</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A156" s="89" t="s">
+      <c r="A156" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B156" s="97">
+      <c r="B156" s="94">
         <v>45496</v>
       </c>
-      <c r="C156" s="85" t="s">
+      <c r="C156" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="85" t="s">
+      <c r="D156" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="86">
+      <c r="E156" s="83">
         <v>4331</v>
       </c>
-      <c r="F156" s="104">
+      <c r="F156" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2628.9169999999999</v>
       </c>
-      <c r="G156" s="87">
+      <c r="G156" s="84">
         <v>60.7</v>
       </c>
-      <c r="H156" s="105">
+      <c r="H156" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>132.96170000000001</v>
       </c>
-      <c r="I156" s="88">
+      <c r="I156" s="85">
         <v>3.07</v>
       </c>
-      <c r="J156" s="103">
+      <c r="J156" s="100">
         <v>13</v>
       </c>
-      <c r="K156" s="80">
+      <c r="K156" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.30016162549064884</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="97">
+      <c r="B157" s="94">
         <v>45492</v>
       </c>
-      <c r="C157" s="85" t="s">
+      <c r="C157" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="85" t="s">
+      <c r="D157" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="86">
+      <c r="E157" s="83">
         <v>98299</v>
       </c>
-      <c r="F157" s="104">
+      <c r="F157" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53327.207499999997</v>
       </c>
-      <c r="G157" s="87">
+      <c r="G157" s="84">
         <v>54.25</v>
       </c>
-      <c r="H157" s="105">
+      <c r="H157" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3371.6557000000003</v>
       </c>
-      <c r="I157" s="88">
+      <c r="I157" s="85">
         <v>3.43</v>
       </c>
-      <c r="J157" s="103">
+      <c r="J157" s="100">
         <v>13</v>
       </c>
-      <c r="K157" s="80">
+      <c r="K157" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.322495651023917E-2</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="97">
+      <c r="B158" s="94">
         <v>45492</v>
       </c>
-      <c r="C158" s="85" t="s">
+      <c r="C158" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="85" t="s">
+      <c r="D158" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="86">
+      <c r="E158" s="83">
         <v>98082</v>
       </c>
-      <c r="F158" s="104">
+      <c r="F158" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53209.485000000001</v>
       </c>
-      <c r="G158" s="87">
+      <c r="G158" s="84">
         <v>54.25</v>
       </c>
-      <c r="H158" s="105">
+      <c r="H158" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1824.3252000000002</v>
       </c>
-      <c r="I158" s="88">
+      <c r="I158" s="85">
         <v>1.86</v>
       </c>
-      <c r="J158" s="103">
-        <v>0</v>
-      </c>
-      <c r="K158" s="80">
+      <c r="J158" s="100">
+        <v>0</v>
+      </c>
+      <c r="K158" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A159" s="84" t="s">
+      <c r="A159" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="97">
+      <c r="B159" s="94">
         <v>45492</v>
       </c>
-      <c r="C159" s="85" t="s">
+      <c r="C159" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D159" s="85" t="s">
+      <c r="D159" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="76">
+      <c r="E159" s="73">
         <v>98299</v>
       </c>
-      <c r="F159" s="104">
+      <c r="F159" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53327.207499999997</v>
       </c>
-      <c r="G159" s="87">
+      <c r="G159" s="84">
         <v>54.25</v>
       </c>
-      <c r="H159" s="95">
+      <c r="H159" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1838.1913</v>
       </c>
-      <c r="I159" s="88">
+      <c r="I159" s="85">
         <v>1.87</v>
       </c>
-      <c r="J159" s="103">
+      <c r="J159" s="100">
         <v>3</v>
       </c>
-      <c r="K159" s="80">
+      <c r="K159" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.0519130408244231E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A160" s="84" t="s">
+      <c r="A160" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="97">
+      <c r="B160" s="94">
         <v>45490</v>
       </c>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="85" t="s">
+      <c r="D160" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="103">
+      <c r="E160" s="100">
         <v>375</v>
       </c>
-      <c r="F160" s="104">
+      <c r="F160" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>223.57499999999999</v>
       </c>
-      <c r="G160" s="87">
+      <c r="G160" s="84">
         <v>59.62</v>
       </c>
-      <c r="H160" s="105">
+      <c r="H160" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>13.387499999999999</v>
       </c>
-      <c r="I160" s="88">
+      <c r="I160" s="85">
         <v>3.57</v>
       </c>
-      <c r="J160" s="103">
-        <v>0</v>
-      </c>
-      <c r="K160" s="80">
+      <c r="J160" s="100">
+        <v>0</v>
+      </c>
+      <c r="K160" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A161" s="84" t="s">
+      <c r="A161" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="97">
+      <c r="B161" s="94">
         <v>45490</v>
       </c>
-      <c r="C161" s="85" t="s">
+      <c r="C161" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="85" t="s">
+      <c r="D161" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E161" s="86">
+      <c r="E161" s="83">
         <v>3422</v>
       </c>
-      <c r="F161" s="104">
+      <c r="F161" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1694.5744</v>
       </c>
-      <c r="G161" s="87">
+      <c r="G161" s="84">
         <v>49.52</v>
       </c>
-      <c r="H161" s="105">
+      <c r="H161" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>79.390399999999985</v>
       </c>
-      <c r="I161" s="88">
+      <c r="I161" s="85">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J161" s="103">
+      <c r="J161" s="100">
         <v>1</v>
       </c>
-      <c r="K161" s="80">
+      <c r="K161" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.9222676797194622E-2</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A162" s="84" t="s">
+      <c r="A162" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="97">
+      <c r="B162" s="94">
         <v>45490</v>
       </c>
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="85" t="s">
+      <c r="D162" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="103">
+      <c r="E162" s="100">
         <v>365</v>
       </c>
-      <c r="F162" s="104">
+      <c r="F162" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>217.613</v>
       </c>
-      <c r="G162" s="87">
+      <c r="G162" s="84">
         <v>59.62</v>
       </c>
-      <c r="H162" s="105">
+      <c r="H162" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>13.0305</v>
       </c>
-      <c r="I162" s="88">
+      <c r="I162" s="85">
         <v>3.57</v>
       </c>
-      <c r="J162" s="103">
-        <v>0</v>
-      </c>
-      <c r="K162" s="80">
+      <c r="J162" s="100">
+        <v>0</v>
+      </c>
+      <c r="K162" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A163" s="84" t="s">
+      <c r="A163" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="97">
+      <c r="B163" s="94">
         <v>45490</v>
       </c>
-      <c r="C163" s="85" t="s">
+      <c r="C163" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="85" t="s">
+      <c r="D163" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="86">
+      <c r="E163" s="83">
         <v>3558</v>
       </c>
-      <c r="F163" s="104">
+      <c r="F163" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1761.9216000000001</v>
       </c>
-      <c r="G163" s="87">
+      <c r="G163" s="84">
         <v>49.52</v>
       </c>
-      <c r="H163" s="105">
+      <c r="H163" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>82.545599999999993</v>
       </c>
-      <c r="I163" s="88">
+      <c r="I163" s="85">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J163" s="103">
+      <c r="J163" s="100">
         <v>1</v>
       </c>
-      <c r="K163" s="80">
+      <c r="K163" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.8105677346824058E-2</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A164" s="84" t="s">
+      <c r="A164" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="97">
+      <c r="B164" s="94">
         <v>45484</v>
       </c>
-      <c r="C164" s="85" t="s">
+      <c r="C164" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D164" s="85" t="s">
+      <c r="D164" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E164" s="86">
+      <c r="E164" s="83">
         <v>4226</v>
       </c>
-      <c r="F164" s="104">
+      <c r="F164" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3228.2414000000003</v>
       </c>
-      <c r="G164" s="87">
+      <c r="G164" s="84">
         <v>76.39</v>
       </c>
-      <c r="H164" s="105">
+      <c r="H164" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>368.92980000000006</v>
       </c>
-      <c r="I164" s="88">
+      <c r="I164" s="85">
         <v>8.73</v>
       </c>
-      <c r="J164" s="103">
+      <c r="J164" s="100">
         <v>6</v>
       </c>
-      <c r="K164" s="80">
+      <c r="K164" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.14197823000473261</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A165" s="84" t="s">
+      <c r="A165" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="B165" s="97">
+      <c r="B165" s="94">
         <v>45484</v>
       </c>
-      <c r="C165" s="85" t="s">
+      <c r="C165" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D165" s="85" t="s">
+      <c r="D165" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="103">
+      <c r="E165" s="100">
         <v>457</v>
       </c>
-      <c r="F165" s="104">
+      <c r="F165" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>374.00880000000006</v>
       </c>
-      <c r="G165" s="87">
+      <c r="G165" s="84">
         <v>81.84</v>
       </c>
-      <c r="H165" s="105">
+      <c r="H165" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>139.97909999999999</v>
       </c>
-      <c r="I165" s="88">
+      <c r="I165" s="85">
         <v>30.63</v>
       </c>
-      <c r="J165" s="103">
-        <v>0</v>
-      </c>
-      <c r="K165" s="80">
+      <c r="J165" s="100">
+        <v>0</v>
+      </c>
+      <c r="K165" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A166" s="84" t="s">
+      <c r="A166" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B166" s="97">
+      <c r="B166" s="94">
         <v>45483</v>
       </c>
-      <c r="C166" s="85" t="s">
+      <c r="C166" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="85" t="s">
+      <c r="D166" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E166" s="86">
+      <c r="E166" s="83">
         <v>17730</v>
       </c>
-      <c r="F166" s="104">
+      <c r="F166" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>8155.8</v>
       </c>
-      <c r="G166" s="87">
+      <c r="G166" s="84">
         <v>46</v>
       </c>
-      <c r="H166" s="105">
+      <c r="H166" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>283.68</v>
       </c>
-      <c r="I166" s="88">
+      <c r="I166" s="85">
         <v>1.6</v>
       </c>
-      <c r="J166" s="103">
+      <c r="J166" s="100">
         <v>17</v>
       </c>
-      <c r="K166" s="80">
+      <c r="K166" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.5882684715172029E-2</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A167" s="84" t="s">
+      <c r="A167" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="B167" s="97">
+      <c r="B167" s="94">
         <v>45483</v>
       </c>
-      <c r="C167" s="85" t="s">
+      <c r="C167" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="85" t="s">
+      <c r="D167" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E167" s="86">
+      <c r="E167" s="83">
         <v>35884</v>
       </c>
-      <c r="F167" s="104">
+      <c r="F167" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23640.379199999999</v>
       </c>
-      <c r="G167" s="87">
+      <c r="G167" s="84">
         <v>65.88</v>
       </c>
-      <c r="H167" s="105">
+      <c r="H167" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1309.7659999999998</v>
       </c>
-      <c r="I167" s="88">
+      <c r="I167" s="85">
         <v>3.65</v>
       </c>
-      <c r="J167" s="103">
+      <c r="J167" s="100">
         <v>3</v>
       </c>
-      <c r="K167" s="80">
+      <c r="K167" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>8.3602719875153272E-3</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A168" s="84" t="s">
+      <c r="A168" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="B168" s="97">
+      <c r="B168" s="94">
         <v>45483</v>
       </c>
-      <c r="C168" s="85" t="s">
+      <c r="C168" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="85" t="s">
+      <c r="D168" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="E168" s="86">
+      <c r="E168" s="83">
         <v>7399</v>
       </c>
-      <c r="F168" s="104">
+      <c r="F168" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>5382.7725</v>
       </c>
-      <c r="G168" s="87">
+      <c r="G168" s="84">
         <v>72.75</v>
       </c>
-      <c r="H168" s="105">
+      <c r="H168" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>402.50560000000007</v>
       </c>
-      <c r="I168" s="88">
+      <c r="I168" s="85">
         <v>5.44</v>
       </c>
-      <c r="J168" s="103">
+      <c r="J168" s="100">
         <v>4</v>
       </c>
-      <c r="K168" s="80">
+      <c r="K168" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4061359643195028E-2</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A169" s="84" t="s">
+      <c r="A169" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="B169" s="97">
+      <c r="B169" s="94">
         <v>45483</v>
       </c>
-      <c r="C169" s="85" t="s">
+      <c r="C169" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D169" s="85" t="s">
+      <c r="D169" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E169" s="86">
+      <c r="E169" s="83">
         <v>476382</v>
       </c>
-      <c r="F169" s="104">
+      <c r="F169" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>222946.77599999998</v>
       </c>
-      <c r="G169" s="87">
+      <c r="G169" s="84">
         <v>46.8</v>
       </c>
-      <c r="H169" s="105">
+      <c r="H169" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>7193.3681999999999</v>
       </c>
-      <c r="I169" s="88">
+      <c r="I169" s="85">
         <v>1.51</v>
       </c>
-      <c r="J169" s="103">
+      <c r="J169" s="100">
         <v>277</v>
       </c>
-      <c r="K169" s="80">
+      <c r="K169" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.8146613432077617E-2</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A170" s="84" t="s">
+      <c r="A170" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B170" s="97">
+      <c r="B170" s="94">
         <v>45482</v>
       </c>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="85" t="s">
+      <c r="D170" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="86">
+      <c r="E170" s="83">
         <v>8599</v>
       </c>
-      <c r="F170" s="104">
+      <c r="F170" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4299.5</v>
       </c>
-      <c r="G170" s="87">
+      <c r="G170" s="84">
         <v>50</v>
       </c>
-      <c r="H170" s="105">
+      <c r="H170" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>163.38099999999997</v>
       </c>
-      <c r="I170" s="88">
+      <c r="I170" s="85">
         <v>1.9</v>
       </c>
-      <c r="J170" s="103">
-        <v>0</v>
-      </c>
-      <c r="K170" s="80">
+      <c r="J170" s="100">
+        <v>0</v>
+      </c>
+      <c r="K170" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A171" s="84" t="s">
+      <c r="A171" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B171" s="97">
+      <c r="B171" s="94">
         <v>45482</v>
       </c>
-      <c r="C171" s="85" t="s">
+      <c r="C171" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="85" t="s">
+      <c r="D171" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="103">
+      <c r="E171" s="100">
         <v>990</v>
       </c>
-      <c r="F171" s="104">
+      <c r="F171" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>643.5</v>
       </c>
-      <c r="G171" s="87">
+      <c r="G171" s="84">
         <v>65</v>
       </c>
-      <c r="H171" s="105">
+      <c r="H171" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>33.066000000000003</v>
       </c>
-      <c r="I171" s="88">
+      <c r="I171" s="85">
         <v>3.34</v>
       </c>
-      <c r="J171" s="103">
-        <v>0</v>
-      </c>
-      <c r="K171" s="80">
+      <c r="J171" s="100">
+        <v>0</v>
+      </c>
+      <c r="K171" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A172" s="84" t="s">
+      <c r="A172" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B172" s="97">
+      <c r="B172" s="94">
         <v>45476</v>
       </c>
-      <c r="C172" s="85" t="s">
+      <c r="C172" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D172" s="85" t="s">
+      <c r="D172" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E172" s="86">
+      <c r="E172" s="83">
         <v>11889</v>
       </c>
-      <c r="F172" s="104">
+      <c r="F172" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6657.84</v>
       </c>
-      <c r="G172" s="87">
+      <c r="G172" s="84">
         <v>56</v>
       </c>
-      <c r="H172" s="105">
+      <c r="H172" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>369.74790000000002</v>
       </c>
-      <c r="I172" s="88">
+      <c r="I172" s="85">
         <v>3.11</v>
       </c>
-      <c r="J172" s="103">
+      <c r="J172" s="100">
         <v>3</v>
       </c>
-      <c r="K172" s="80">
+      <c r="K172" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5233409033560434E-2</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A173" s="117" t="s">
+      <c r="A173" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="97">
+      <c r="B173" s="94">
         <v>45476</v>
       </c>
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D173" s="85" t="s">
+      <c r="D173" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E173" s="123">
+      <c r="E173" s="120">
         <v>2674</v>
       </c>
-      <c r="F173" s="126">
+      <c r="F173" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1845.06</v>
       </c>
-      <c r="G173" s="87">
+      <c r="G173" s="84">
         <v>69</v>
       </c>
-      <c r="H173" s="128">
+      <c r="H173" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>77.011200000000002</v>
       </c>
-      <c r="I173" s="88">
+      <c r="I173" s="85">
         <v>2.88</v>
       </c>
-      <c r="J173" s="124">
+      <c r="J173" s="121">
         <v>1</v>
       </c>
-      <c r="K173" s="131">
+      <c r="K173" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.7397157816005985E-2</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A174" s="74" t="s">
+      <c r="A174" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B174" s="97">
+      <c r="B174" s="94">
         <v>45475</v>
       </c>
-      <c r="C174" s="85" t="s">
+      <c r="C174" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="85" t="s">
+      <c r="D174" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="123">
+      <c r="E174" s="120">
         <v>9248</v>
       </c>
-      <c r="F174" s="126">
+      <c r="F174" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3884.16</v>
       </c>
-      <c r="G174" s="87">
+      <c r="G174" s="84">
         <v>42</v>
       </c>
-      <c r="H174" s="128">
+      <c r="H174" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>174.78719999999998</v>
       </c>
-      <c r="I174" s="88">
+      <c r="I174" s="85">
         <v>1.89</v>
       </c>
-      <c r="J174" s="124">
+      <c r="J174" s="121">
         <v>1</v>
       </c>
-      <c r="K174" s="131">
+      <c r="K174" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0813148788927337E-2</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A175" s="74" t="s">
+      <c r="A175" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B175" s="97">
+      <c r="B175" s="94">
         <v>45475</v>
       </c>
-      <c r="C175" s="85" t="s">
+      <c r="C175" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D175" s="85" t="s">
+      <c r="D175" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E175" s="124">
+      <c r="E175" s="121">
         <v>742</v>
       </c>
-      <c r="F175" s="126">
+      <c r="F175" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>472.654</v>
       </c>
-      <c r="G175" s="87">
+      <c r="G175" s="84">
         <v>63.7</v>
       </c>
-      <c r="H175" s="128">
+      <c r="H175" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>28.270199999999999</v>
       </c>
-      <c r="I175" s="88">
+      <c r="I175" s="85">
         <v>3.81</v>
       </c>
-      <c r="J175" s="124">
-        <v>0</v>
-      </c>
-      <c r="K175" s="131">
+      <c r="J175" s="121">
+        <v>0</v>
+      </c>
+      <c r="K175" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A176" s="74" t="s">
+      <c r="A176" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B176" s="97">
+      <c r="B176" s="94">
         <v>45468</v>
       </c>
-      <c r="C176" s="85" t="s">
+      <c r="C176" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D176" s="85" t="s">
+      <c r="D176" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="123">
+      <c r="E176" s="120">
         <v>4058</v>
       </c>
-      <c r="F176" s="126">
+      <c r="F176" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2741.1789999999996</v>
       </c>
-      <c r="G176" s="87">
+      <c r="G176" s="84">
         <v>67.55</v>
       </c>
-      <c r="H176" s="128">
+      <c r="H176" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>92.928200000000004</v>
       </c>
-      <c r="I176" s="88">
+      <c r="I176" s="85">
         <v>2.29</v>
       </c>
-      <c r="J176" s="124">
+      <c r="J176" s="121">
         <v>2</v>
       </c>
-      <c r="K176" s="131">
+      <c r="K176" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.928536224741252E-2</v>
       </c>
@@ -11254,18 +11263,18 @@
     <hyperlink ref="A13" r:id="rId147" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8f45fe33-bd9b-4571-975f-50c6cde365f5" xr:uid="{81E771A8-0834-4495-97AE-D4C0502E3147}"/>
     <hyperlink ref="A8" r:id="rId148" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{FE3D4640-FC41-4B6E-8128-2282A3F4A133}"/>
     <hyperlink ref="A9" r:id="rId149" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{1C6FF9F9-9C40-4567-ABB3-AED8A48CBF5D}"/>
-    <hyperlink ref="A10" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{2EFBF729-0882-4907-A3BB-24D881F5A365}"/>
-    <hyperlink ref="A11" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{71C794D5-E5A0-412B-BC23-B0230B70A0D3}"/>
-    <hyperlink ref="A3" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/46d445cb-ce24-4254-87bb-ca88434439e0" xr:uid="{BC45559B-19E3-4603-8805-FD31EC7E5CE7}"/>
-    <hyperlink ref="A2" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb13a4ec-a774-4a69-9033-4b72587b5392" display="CBUS - SEN - Insurance May 25 - Non Corporate_x000a_" xr:uid="{9476B490-5BDA-4904-ABAA-8FCF86348D34}"/>
-    <hyperlink ref="A65" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{6F824331-B482-4B06-A286-E44C912661B6}"/>
-    <hyperlink ref="A66" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{11100667-5BD5-455A-AEAF-BE8A7D3A97A8}"/>
-    <hyperlink ref="A50" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{B7836BB4-D84C-439C-9F58-EE0DDD9C18E5}"/>
-    <hyperlink ref="A51" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{2727C184-61AE-4E67-8063-0044C832106B}"/>
-    <hyperlink ref="A37" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{C12B5B88-A5BF-42E7-B0C1-DF4D1DCD0BFE}"/>
-    <hyperlink ref="A38" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{3E33AA54-EDE4-421A-B4E6-1727CBEFE885}"/>
-    <hyperlink ref="A173:A175" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" display="Email - CBUS - Young Cohort 2025 - May - 1. eDM [30-34]" xr:uid="{887A13A9-63F6-4FEB-A44C-A14848537DBA}"/>
-    <hyperlink ref="A7" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" xr:uid="{8EA51640-4C65-4A36-89FE-340DEB2E1CE4}"/>
+    <hyperlink ref="A11" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{71C794D5-E5A0-412B-BC23-B0230B70A0D3}"/>
+    <hyperlink ref="A3" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/46d445cb-ce24-4254-87bb-ca88434439e0" xr:uid="{BC45559B-19E3-4603-8805-FD31EC7E5CE7}"/>
+    <hyperlink ref="A2" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb13a4ec-a774-4a69-9033-4b72587b5392" display="CBUS - SEN - Insurance May 25 - Non Corporate_x000a_" xr:uid="{9476B490-5BDA-4904-ABAA-8FCF86348D34}"/>
+    <hyperlink ref="A65" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{6F824331-B482-4B06-A286-E44C912661B6}"/>
+    <hyperlink ref="A66" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{11100667-5BD5-455A-AEAF-BE8A7D3A97A8}"/>
+    <hyperlink ref="A50" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{B7836BB4-D84C-439C-9F58-EE0DDD9C18E5}"/>
+    <hyperlink ref="A51" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{2727C184-61AE-4E67-8063-0044C832106B}"/>
+    <hyperlink ref="A37" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{C12B5B88-A5BF-42E7-B0C1-DF4D1DCD0BFE}"/>
+    <hyperlink ref="A38" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{3E33AA54-EDE4-421A-B4E6-1727CBEFE885}"/>
+    <hyperlink ref="A173:A175" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" display="Email - CBUS - Young Cohort 2025 - May - 1. eDM [30-34]" xr:uid="{887A13A9-63F6-4FEB-A44C-A14848537DBA}"/>
+    <hyperlink ref="A7" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" xr:uid="{8EA51640-4C65-4A36-89FE-340DEB2E1CE4}"/>
+    <hyperlink ref="A10" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{70E2F968-5F6C-4AAD-BD48-DE09517801D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId162"/>
@@ -11312,66 +11321,66 @@
     <row r="1" spans="1:20" s="22" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64" t="s">
+      <c r="L1" s="129"/>
+      <c r="M1" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64" t="s">
+      <c r="R1" s="129"/>
+      <c r="S1" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="63"/>
+      <c r="T1" s="129"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="27">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="63"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
     </row>
     <row r="3" spans="1:20" s="27" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -11380,28 +11389,28 @@
       <c r="B3" s="26"/>
       <c r="C3" s="34">
         <f>AVERAGE('FY-ajo-report'!G:G)</f>
-        <v>55.898739449216016</v>
+        <v>53.862613270972744</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!G:G)</f>
-        <v>49.621032199890728</v>
+        <v>50.927836305527393</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="G3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Media",'FY-ajo-report'!G:G)</f>
-        <v>66.947398821495838</v>
+        <v>58.082526027896634</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!G:G)</f>
-        <v>58.269097469058586</v>
+        <v>54.219982910052046</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>158</v>
@@ -11449,28 +11458,28 @@
       <c r="B4" s="28"/>
       <c r="C4" s="20">
         <f>AVERAGE('FY-ajo-report'!I:I)</f>
-        <v>8.0427565754072781</v>
+        <v>7.8780334546787314</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!I:I)</f>
-        <v>7.3780939234638776</v>
+        <v>7.3783567411816762</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Media",'FY-ajo-report'!I:I)</f>
-        <v>7.6868367266910909</v>
+        <v>7.1805822118257403</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="I4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!I:I)</f>
-        <v>5.8599265371121136</v>
+        <v>5.5323521492996601</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>158</v>
@@ -11675,11 +11684,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="H1:H2"/>
@@ -11693,6 +11697,11 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 E4 G4 I4 K4 M4 O4 Q4 S4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -11886,14 +11895,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12132,16 +12139,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12149,7 +12158,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/ajo-report-fy25.xlsx
+++ b/pages/dashboard/data/ajo-report-fy25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12DD79FC-2D3D-49B8-ADA2-EF418021B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D3B8E5-2F21-49F7-8B4D-B694A0549ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="-2180" yWindow="-20600" windowWidth="36780" windowHeight="20180" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -697,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -961,6 +961,23 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1261,7 +1278,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,15 +1425,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1574,19 +1582,17 @@
     <xf numFmtId="3" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1598,9 +1604,20 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -2407,25 +2424,25 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>55.898739449216016</c:v>
+                  <c:v>53.903101836480452</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.621032199890728</c:v>
+                  <c:v>50.933906720170675</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.947398821495838</c:v>
+                  <c:v>58.194692197975833</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.269097469058586</c:v>
+                  <c:v>54.300499943732142</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2897,25 +2914,25 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>8.0427565754072781</c:v>
+                  <c:v>7.8940284645903853</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3780939234638776</c:v>
+                  <c:v>7.3787868517315651</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6868367266910909</c:v>
+                  <c:v>7.2288294772968271</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8599265371121136</c:v>
+                  <c:v>5.5641604076466971</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4391,24 +4408,24 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="73.25" style="110" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="111" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="112" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="113" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="114" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="81"/>
-    <col min="11" max="11" width="11" style="113" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="81"/>
+    <col min="1" max="1" width="82.875" style="107" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="108" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="109" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="110" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="111" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="110" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="111" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="78"/>
+    <col min="11" max="11" width="11" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="61" customFormat="1" ht="32.1" customHeight="1">
@@ -4446,6654 +4463,6652 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="73" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:11" s="70" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="115">
         <v>45789</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="63">
         <v>588341</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="64">
         <v>289517</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="65">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.209047134229976</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="66">
         <v>23405</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="67">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.9781351291172973</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="68">
         <v>251</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="69">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.2662333578655912E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="115">
         <v>45783</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="73">
         <v>541</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="64">
         <v>281</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.940850277264325</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="66">
         <v>4</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.73937153419593349</v>
       </c>
-      <c r="J3" s="79">
-        <v>0</v>
-      </c>
-      <c r="K3" s="80">
+      <c r="J3" s="76">
+        <v>0</v>
+      </c>
+      <c r="K3" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="115">
         <v>45783</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="119">
         <v>71031</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="130">
         <v>15099</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>21.256915994424968</v>
       </c>
-      <c r="H4" s="127">
+      <c r="H4" s="132">
         <v>492</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.69265531950838366</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="119">
         <v>45</v>
       </c>
-      <c r="K4" s="132">
+      <c r="K4" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3352620686742411E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>45783</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="119">
         <v>67745</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="130">
         <v>15182</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>22.410510000738064</v>
       </c>
-      <c r="H5" s="127">
+      <c r="H5" s="132">
         <v>315</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.46497896523728688</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="119">
         <v>61</v>
       </c>
-      <c r="K5" s="132">
+      <c r="K5" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.0043545649125395E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="115">
         <v>45783</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="119">
         <v>62044</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="130">
         <v>17135</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>27.617497260009028</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="132">
         <v>328</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.52865708207078843</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="119">
         <v>39</v>
       </c>
-      <c r="K6" s="132">
+      <c r="K6" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.2858616465733999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="115">
         <v>45783</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="119">
         <v>17236</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="130">
         <v>4620</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>26.80436296124391</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="132">
         <v>78</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.45254119285216987</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="119">
         <v>4</v>
       </c>
-      <c r="K7" s="132">
+      <c r="K7" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3207240659085637E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="115">
         <v>45782</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="134">
+        <v>1573</v>
+      </c>
+      <c r="F8" s="134">
+        <v>927</v>
+      </c>
+      <c r="G8" s="74">
+        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>58.931977113795298</v>
+      </c>
+      <c r="H8" s="134">
+        <v>43</v>
+      </c>
+      <c r="I8" s="75">
+        <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>2.7336300063572789</v>
+      </c>
+      <c r="J8" s="76">
+        <v>0</v>
+      </c>
+      <c r="K8" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="115">
+        <v>45782</v>
+      </c>
+      <c r="C9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="76">
-        <v>11207</v>
-      </c>
-      <c r="F8" s="67">
-        <v>4904</v>
-      </c>
-      <c r="G8" s="77">
+      <c r="E9" s="134">
+        <v>11208</v>
+      </c>
+      <c r="F9" s="134">
+        <v>4982</v>
+      </c>
+      <c r="G9" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>43.758365307397163</v>
-      </c>
-      <c r="H8" s="69">
-        <v>182</v>
-      </c>
-      <c r="I8" s="78">
+        <v>44.450392576730906</v>
+      </c>
+      <c r="H9" s="134">
+        <v>186</v>
+      </c>
+      <c r="I9" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>1.6239850093691444</v>
-      </c>
-      <c r="J8" s="79">
-        <v>0</v>
-      </c>
-      <c r="K8" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A9" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="118">
+        <v>1.6595289079229123</v>
+      </c>
+      <c r="J9" s="76">
+        <v>0</v>
+      </c>
+      <c r="K9" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A10" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="115">
         <v>45782</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C10" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D10" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="76">
-        <v>1573</v>
-      </c>
-      <c r="F9" s="67">
-        <v>921</v>
-      </c>
-      <c r="G9" s="77">
-        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>58.550540368722181</v>
-      </c>
-      <c r="H9" s="69">
-        <v>41</v>
-      </c>
-      <c r="I9" s="78">
+      <c r="E10" s="131">
+        <v>1753</v>
+      </c>
+      <c r="F10" s="133">
+        <v>967</v>
+      </c>
+      <c r="G10" s="131">
+        <v>51</v>
+      </c>
+      <c r="H10" s="133">
+        <v>51</v>
+      </c>
+      <c r="I10" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>2.6064844246662426</v>
-      </c>
-      <c r="J9" s="79">
-        <v>0</v>
-      </c>
-      <c r="K9" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A10" s="82" t="s">
+        <v>2.9092983456930974</v>
+      </c>
+      <c r="J10" s="131">
+        <v>2</v>
+      </c>
+      <c r="K10" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>0.11409013120365087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B11" s="115">
         <v>45782</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E11" s="131">
         <v>9206</v>
       </c>
-      <c r="F10" s="67">
-        <v>4237</v>
-      </c>
-      <c r="G10" s="77">
-        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>46.024331957419072</v>
-      </c>
-      <c r="H10" s="69">
-        <v>191</v>
-      </c>
-      <c r="I10" s="78">
+      <c r="F11" s="133">
+        <v>4253</v>
+      </c>
+      <c r="G11" s="131">
+        <v>195</v>
+      </c>
+      <c r="H11" s="133">
+        <v>195</v>
+      </c>
+      <c r="I11" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>2.0747338692157289</v>
-      </c>
-      <c r="J10" s="79">
-        <v>3</v>
-      </c>
-      <c r="K10" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>3.25874429719748E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A11" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="118">
-        <v>45782</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="102" t="s">
+        <v>2.1181837931783623</v>
+      </c>
+      <c r="J11" s="131">
+        <v>6</v>
+      </c>
+      <c r="K11" s="77">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
+        <v>6.5174885943949601E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A12" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="115">
+        <v>45781</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="76">
-        <v>175</v>
-      </c>
-      <c r="F11" s="67">
-        <v>963</v>
-      </c>
-      <c r="G11" s="77">
-        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>550.28571428571422</v>
-      </c>
-      <c r="H11" s="69">
-        <v>51</v>
-      </c>
-      <c r="I11" s="78">
-        <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
-        <v>29.142857142857142</v>
-      </c>
-      <c r="J11" s="79">
-        <v>1</v>
-      </c>
-      <c r="K11" s="80">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="118">
-        <v>45781</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="76">
+      <c r="E12" s="73">
         <v>9527</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="64">
         <v>4754</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.900283405059305</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="66">
         <v>266</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.7920646583394562</v>
       </c>
-      <c r="J12" s="79">
-        <v>0</v>
-      </c>
-      <c r="K12" s="80">
+      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+      <c r="K12" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="115">
         <v>45781</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <v>1140</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="64">
         <v>656</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.543859649122808</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="66">
         <v>39</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.4210526315789478</v>
       </c>
-      <c r="J13" s="79">
-        <v>0</v>
-      </c>
-      <c r="K13" s="80">
+      <c r="J13" s="76">
+        <v>0</v>
+      </c>
+      <c r="K13" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="115">
         <v>45778</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="73">
         <v>9536</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="64">
         <v>4901</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.394714765100666</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="66">
         <v>218</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2860738255033559</v>
       </c>
-      <c r="J14" s="79">
-        <v>0</v>
-      </c>
-      <c r="K14" s="80">
+      <c r="J14" s="76">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="115">
         <v>45778</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="73">
         <v>1191</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="64">
         <v>667</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>56.00335852225021</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="66">
         <v>44</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.6943744752308985</v>
       </c>
-      <c r="J15" s="79">
-        <v>0</v>
-      </c>
-      <c r="K15" s="80">
+      <c r="J15" s="76">
+        <v>0</v>
+      </c>
+      <c r="K15" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="115">
         <v>45778</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="73">
         <v>6749</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="64">
         <v>3091</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>45.799377685583046</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="66">
         <v>204</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.0226700251889169</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="76">
         <v>2</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.96340198547933E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="115">
         <v>45778</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="73">
         <v>1127</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="64">
         <v>617</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.747116237799467</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="66">
         <v>46</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.0816326530612246</v>
       </c>
-      <c r="J17" s="79">
-        <v>0</v>
-      </c>
-      <c r="K17" s="80">
+      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+      <c r="K17" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="118">
+      <c r="B18" s="115">
         <v>45778</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="73">
         <v>547</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="64">
         <v>314</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.404021937842778</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="66">
         <v>11</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.0109689213893969</v>
       </c>
-      <c r="J18" s="79">
-        <v>0</v>
-      </c>
-      <c r="K18" s="80">
+      <c r="J18" s="76">
+        <v>0</v>
+      </c>
+      <c r="K18" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="115">
         <v>45762</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="73">
         <v>9649</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="64">
         <v>4250</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.046015131101669</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="66">
         <v>199</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.062389884962172</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="76">
         <v>9</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.3273914395274118E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="118">
+      <c r="B20" s="115">
         <v>45762</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="73">
         <v>1670</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="64">
         <v>968</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.964071856287426</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="66">
         <v>54</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.2335329341317367</v>
       </c>
-      <c r="J20" s="79">
-        <v>0</v>
-      </c>
-      <c r="K20" s="80">
+      <c r="J20" s="76">
+        <v>0</v>
+      </c>
+      <c r="K20" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="118">
+      <c r="B21" s="115">
         <v>45762</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="73">
         <v>7316</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>3035</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>41.484417714598145</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="66">
         <v>84</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1481683980317114</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="76">
         <v>4</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4674685620557675E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="118">
+      <c r="B22" s="115">
         <v>45762</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="73">
         <v>827</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="64">
         <v>451</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.534461910519951</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="66">
         <v>18</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1765417170495769</v>
       </c>
-      <c r="J22" s="79">
-        <v>0</v>
-      </c>
-      <c r="K22" s="80">
+      <c r="J22" s="76">
+        <v>0</v>
+      </c>
+      <c r="K22" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="118">
+      <c r="B23" s="115">
         <v>45755</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="73">
         <v>104378</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="64">
         <v>54559</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.270593420069368</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="66">
         <v>1810</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.7340818946521297</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="76">
         <v>33</v>
       </c>
-      <c r="K23" s="80">
+      <c r="K23" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1615857747801263E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="118">
+      <c r="B24" s="115">
         <v>45755</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="73">
         <v>12048</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="64">
         <v>7266</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.308764940239044</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="66">
         <v>351</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.9133466135458166</v>
       </c>
-      <c r="J24" s="79">
-        <v>0</v>
-      </c>
-      <c r="K24" s="80">
+      <c r="J24" s="76">
+        <v>0</v>
+      </c>
+      <c r="K24" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="115">
         <v>45747</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="73">
         <v>8448</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="64">
         <v>3722</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.057765151515149</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="66">
         <v>109</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2902462121212122</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="76">
         <v>1</v>
       </c>
-      <c r="K25" s="80">
+      <c r="K25" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1837121212121212E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="118">
+      <c r="B26" s="115">
         <v>45747</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="73">
         <v>906</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="64">
         <v>462</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.993377483443716</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="66">
         <v>17</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8763796909492272</v>
       </c>
-      <c r="J26" s="79">
-        <v>0</v>
-      </c>
-      <c r="K26" s="80">
+      <c r="J26" s="76">
+        <v>0</v>
+      </c>
+      <c r="K26" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="118">
+      <c r="B27" s="115">
         <v>45743</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="73">
         <v>8787</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="64">
         <v>3751</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>42.688061909639238</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="66">
         <v>110</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2518493228633207</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="76">
         <v>1</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1380448389666554E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="118">
+      <c r="B28" s="115">
         <v>45743</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="73">
         <v>1003</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="64">
         <v>542</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.037886340977067</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="66">
         <v>39</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.8883349950149553</v>
       </c>
-      <c r="J28" s="79">
-        <v>0</v>
-      </c>
-      <c r="K28" s="80">
+      <c r="J28" s="76">
+        <v>0</v>
+      </c>
+      <c r="K28" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="118">
+      <c r="B29" s="115">
         <v>45740</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="73">
         <v>103297</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="64">
         <v>52410</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.737194691036521</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="66">
         <v>1843</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.784175726303765</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="76">
         <v>22</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1297811165861543E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="118">
+      <c r="B30" s="115">
         <v>45740</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="73">
         <v>9825</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="64">
         <v>6035</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>61.424936386768451</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="66">
         <v>322</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.2773536895674296</v>
       </c>
-      <c r="J30" s="79">
-        <v>0</v>
-      </c>
-      <c r="K30" s="80">
+      <c r="J30" s="76">
+        <v>0</v>
+      </c>
+      <c r="K30" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="118">
+      <c r="B31" s="115">
         <v>45733</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="73">
         <v>5836</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="64">
         <v>1630</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>27.930089102124743</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="66">
         <v>290</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.9691569568197398</v>
       </c>
-      <c r="J31" s="79">
-        <v>0</v>
-      </c>
-      <c r="K31" s="80">
+      <c r="J31" s="76">
+        <v>0</v>
+      </c>
+      <c r="K31" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="118">
+      <c r="B32" s="115">
         <v>45733</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="73">
         <v>523</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="64">
         <v>215</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>41.108986615678781</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="66">
         <v>77</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.722753346080305</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="76">
         <v>1</v>
       </c>
-      <c r="K32" s="80">
+      <c r="K32" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.19120458891013384</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="118">
+      <c r="B33" s="115">
         <v>45729</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="73">
         <v>9489</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="64">
         <v>4903</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.670355148066186</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="66">
         <v>18</v>
       </c>
-      <c r="I33" s="78">
+      <c r="I33" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.18969332911792602</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="76">
         <v>2</v>
       </c>
-      <c r="K33" s="80">
+      <c r="K33" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1077036568658447E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="118">
+      <c r="B34" s="115">
         <v>45729</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="73">
         <v>208</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="64">
         <v>123</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>59.134615384615387</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="66">
         <v>5</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4038461538461542</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="76">
         <v>2</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="118">
+      <c r="B35" s="115">
         <v>45727</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="73">
         <v>755</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="64">
         <v>391</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.788079470198682</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="66">
         <v>81</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>10.728476821192052</v>
       </c>
-      <c r="J35" s="79">
-        <v>0</v>
-      </c>
-      <c r="K35" s="80">
+      <c r="J35" s="76">
+        <v>0</v>
+      </c>
+      <c r="K35" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="108">
+      <c r="B36" s="105">
         <v>45727</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="76">
+      <c r="E36" s="73">
         <v>612</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="64">
         <v>372</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.784313725490193</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="66">
         <v>89</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.542483660130721</v>
       </c>
-      <c r="J36" s="79">
-        <v>0</v>
-      </c>
-      <c r="K36" s="80">
+      <c r="J36" s="76">
+        <v>0</v>
+      </c>
+      <c r="K36" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="118">
+      <c r="B37" s="115">
         <v>45720</v>
       </c>
-      <c r="C37" s="120" t="s">
+      <c r="C37" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="76">
+      <c r="E37" s="73">
         <v>13152</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="64">
         <v>5309</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>40.366484184914839</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="66">
         <v>483</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.6724452554744524</v>
       </c>
-      <c r="J37" s="79">
+      <c r="J37" s="76">
         <v>8</v>
       </c>
-      <c r="K37" s="80">
+      <c r="K37" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.0827250608272508E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="118">
+      <c r="B38" s="115">
         <v>45720</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="76">
+      <c r="E38" s="73">
         <v>827</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="64">
         <v>443</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>53.5671100362757</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="66">
         <v>109</v>
       </c>
-      <c r="I38" s="78">
+      <c r="I38" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>13.180169286577993</v>
       </c>
-      <c r="J38" s="79">
-        <v>0</v>
-      </c>
-      <c r="K38" s="80">
+      <c r="J38" s="76">
+        <v>0</v>
+      </c>
+      <c r="K38" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="118">
+      <c r="B39" s="115">
         <v>45720</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="76">
+      <c r="E39" s="73">
         <v>30392</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="64">
         <v>14391</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>47.35127665175046</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="66">
         <v>438</v>
       </c>
-      <c r="I39" s="78">
+      <c r="I39" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.4411687286127928</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="76">
         <v>20</v>
       </c>
-      <c r="K39" s="80">
+      <c r="K39" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.5806791260858116E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="118">
+      <c r="B40" s="115">
         <v>45720</v>
       </c>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="120" t="s">
+      <c r="D40" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="76">
+      <c r="E40" s="73">
         <v>9584</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="64">
         <v>5313</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>55.436143572621035</v>
       </c>
-      <c r="H40" s="69">
+      <c r="H40" s="66">
         <v>224</v>
       </c>
-      <c r="I40" s="78">
+      <c r="I40" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.337228714524207</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="76">
         <v>1</v>
       </c>
-      <c r="K40" s="80">
+      <c r="K40" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0434056761268781E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="118">
+      <c r="B41" s="115">
         <v>45714</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="73">
         <v>9759</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="64">
         <v>5319</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.503535198278506</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="66">
         <v>509</v>
       </c>
-      <c r="I41" s="78">
+      <c r="I41" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.2156983297469006</v>
       </c>
-      <c r="J41" s="79">
-        <v>0</v>
-      </c>
-      <c r="K41" s="80">
+      <c r="J41" s="76">
+        <v>0</v>
+      </c>
+      <c r="K41" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="118">
+      <c r="B42" s="115">
         <v>45714</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="73">
         <v>1584</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="64">
         <v>1000</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>63.131313131313128</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="66">
         <v>124</v>
       </c>
-      <c r="I42" s="78">
+      <c r="I42" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>7.8282828282828287</v>
       </c>
-      <c r="J42" s="79">
+      <c r="J42" s="76">
         <v>1</v>
       </c>
-      <c r="K42" s="80">
+      <c r="K42" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3131313131313135E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="118">
+      <c r="B43" s="115">
         <v>45714</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="76">
+      <c r="E43" s="73">
         <v>41649</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="64">
         <v>18690</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.875027011452858</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="66">
         <v>281</v>
       </c>
-      <c r="I43" s="78">
+      <c r="I43" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.67468606689236232</v>
       </c>
-      <c r="J43" s="79">
+      <c r="J43" s="76">
         <v>1</v>
       </c>
-      <c r="K43" s="80">
+      <c r="K43" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4010180316454176E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="118">
+      <c r="B44" s="115">
         <v>45714</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="76">
+      <c r="E44" s="73">
         <v>7961</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="64">
         <v>4262</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>53.535987941213413</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="66">
         <v>84</v>
       </c>
-      <c r="I44" s="78">
+      <c r="I44" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0551438261524932</v>
       </c>
-      <c r="J44" s="79">
-        <v>0</v>
-      </c>
-      <c r="K44" s="80">
+      <c r="J44" s="76">
+        <v>0</v>
+      </c>
+      <c r="K44" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="118">
+      <c r="B45" s="115">
         <v>45714</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="76">
+      <c r="E45" s="73">
         <v>700</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="64">
         <v>402</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>57.428571428571431</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="66">
         <v>29</v>
       </c>
-      <c r="I45" s="78">
+      <c r="I45" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1428571428571423</v>
       </c>
-      <c r="J45" s="79">
-        <v>0</v>
-      </c>
-      <c r="K45" s="80">
+      <c r="J45" s="76">
+        <v>0</v>
+      </c>
+      <c r="K45" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="118">
+      <c r="B46" s="115">
         <v>45706</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="73">
         <v>580006</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="64">
         <v>285631</v>
       </c>
-      <c r="G46" s="77">
+      <c r="G46" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>49.246214694330746</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="66">
         <v>20787</v>
       </c>
-      <c r="I46" s="78">
+      <c r="I46" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5839284421195639</v>
       </c>
-      <c r="J46" s="79">
+      <c r="J46" s="76">
         <v>284</v>
       </c>
-      <c r="K46" s="80">
+      <c r="K46" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.8965010706785793E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="118">
+      <c r="B47" s="115">
         <v>45705</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="73">
         <v>9644</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="64">
         <v>4871</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.50808793031937</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="66">
         <v>113</v>
       </c>
-      <c r="I47" s="78">
+      <c r="I47" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1717129821650767</v>
       </c>
-      <c r="J47" s="79">
+      <c r="J47" s="76">
         <v>2</v>
       </c>
-      <c r="K47" s="80">
+      <c r="K47" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.0738282870178346E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="118">
+      <c r="B48" s="115">
         <v>45705</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="120" t="s">
+      <c r="D48" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="73">
         <v>13286</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="64">
         <v>9418</v>
       </c>
-      <c r="G48" s="77">
+      <c r="G48" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.886647598976367</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="66">
         <v>1471</v>
       </c>
-      <c r="I48" s="78">
+      <c r="I48" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>11.071804907421345</v>
       </c>
-      <c r="J48" s="79">
+      <c r="J48" s="76">
         <v>3</v>
       </c>
-      <c r="K48" s="80">
+      <c r="K48" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2580159566460936E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="118">
+      <c r="B49" s="115">
         <v>45705</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="76">
+      <c r="E49" s="73">
         <v>46324</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="64">
         <v>24149</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.130645022018825</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="66">
         <v>2848</v>
       </c>
-      <c r="I49" s="78">
+      <c r="I49" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>6.1480010361799504</v>
       </c>
-      <c r="J49" s="79">
+      <c r="J49" s="76">
         <v>11</v>
       </c>
-      <c r="K49" s="80">
+      <c r="K49" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3745790518953456E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="118">
+      <c r="B50" s="115">
         <v>45694</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="73">
         <v>106153</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="64">
         <v>15207</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>14.325548971767166</v>
       </c>
-      <c r="H50" s="69">
+      <c r="H50" s="66">
         <v>1932</v>
       </c>
-      <c r="I50" s="78">
+      <c r="I50" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8200145073620153</v>
       </c>
-      <c r="J50" s="79">
+      <c r="J50" s="76">
         <v>1</v>
       </c>
-      <c r="K50" s="80">
+      <c r="K50" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.4203649449379676E-4</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="118">
+      <c r="B51" s="115">
         <v>45694</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="73">
         <v>76829</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="64">
         <v>22194</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>28.887529448515537</v>
       </c>
-      <c r="H51" s="69">
+      <c r="H51" s="66">
         <v>1423</v>
       </c>
-      <c r="I51" s="78">
+      <c r="I51" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.8521651980371996</v>
       </c>
-      <c r="J51" s="79">
-        <v>0</v>
-      </c>
-      <c r="K51" s="80">
+      <c r="J51" s="76">
+        <v>0</v>
+      </c>
+      <c r="K51" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="118">
+      <c r="B52" s="115">
         <v>45694</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="73">
         <v>1505</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="64">
         <v>603</v>
       </c>
-      <c r="G52" s="77">
+      <c r="G52" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>40.066445182724252</v>
       </c>
-      <c r="H52" s="69">
+      <c r="H52" s="66">
         <v>181</v>
       </c>
-      <c r="I52" s="78">
+      <c r="I52" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>12.026578073089702</v>
       </c>
-      <c r="J52" s="79">
-        <v>0</v>
-      </c>
-      <c r="K52" s="80">
+      <c r="J52" s="76">
+        <v>0</v>
+      </c>
+      <c r="K52" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="115">
         <v>45694</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="83">
         <v>1479</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="64">
         <v>579</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>39.148073022312374</v>
       </c>
-      <c r="H53" s="69">
+      <c r="H53" s="66">
         <v>164</v>
       </c>
-      <c r="I53" s="88">
+      <c r="I53" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>11.088573360378634</v>
       </c>
-      <c r="J53" s="79">
-        <v>0</v>
-      </c>
-      <c r="K53" s="80">
+      <c r="J53" s="76">
+        <v>0</v>
+      </c>
+      <c r="K53" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="118">
+      <c r="B54" s="115">
         <v>45694</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="86">
+      <c r="E54" s="83">
         <v>229389</v>
       </c>
-      <c r="F54" s="67">
+      <c r="F54" s="64">
         <v>137988</v>
       </c>
-      <c r="G54" s="87">
+      <c r="G54" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.154584570315052</v>
       </c>
-      <c r="H54" s="69">
+      <c r="H54" s="66">
         <v>9275</v>
       </c>
-      <c r="I54" s="88">
+      <c r="I54" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.0433499426737987</v>
       </c>
-      <c r="J54" s="79">
-        <v>0</v>
-      </c>
-      <c r="K54" s="80">
+      <c r="J54" s="76">
+        <v>0</v>
+      </c>
+      <c r="K54" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="118">
+      <c r="B55" s="115">
         <v>45694</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="83">
         <v>166698</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="64">
         <v>100499</v>
       </c>
-      <c r="G55" s="87">
+      <c r="G55" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.288065843621396</v>
       </c>
-      <c r="H55" s="69">
+      <c r="H55" s="66">
         <v>6891</v>
       </c>
-      <c r="I55" s="88">
+      <c r="I55" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1338228413058342</v>
       </c>
-      <c r="J55" s="79">
-        <v>0</v>
-      </c>
-      <c r="K55" s="80">
+      <c r="J55" s="76">
+        <v>0</v>
+      </c>
+      <c r="K55" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="118">
+      <c r="B56" s="115">
         <v>45694</v>
       </c>
-      <c r="C56" s="91" t="s">
+      <c r="C56" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="91" t="s">
+      <c r="D56" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="86">
+      <c r="E56" s="83">
         <v>5345</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="64">
         <v>3622</v>
       </c>
-      <c r="G56" s="87">
+      <c r="G56" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>67.76426566884939</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="66">
         <v>967</v>
       </c>
-      <c r="I56" s="88">
+      <c r="I56" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>18.091674462114124</v>
       </c>
-      <c r="J56" s="79">
-        <v>0</v>
-      </c>
-      <c r="K56" s="80">
+      <c r="J56" s="76">
+        <v>0</v>
+      </c>
+      <c r="K56" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="118">
+      <c r="B57" s="115">
         <v>45694</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="76">
+      <c r="E57" s="73">
         <v>5277</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="64">
         <v>3667</v>
       </c>
-      <c r="G57" s="77">
+      <c r="G57" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>69.490240667045668</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="66">
         <v>988</v>
       </c>
-      <c r="I57" s="78">
+      <c r="I57" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>18.72275914345272</v>
       </c>
-      <c r="J57" s="79">
-        <v>0</v>
-      </c>
-      <c r="K57" s="80">
+      <c r="J57" s="76">
+        <v>0</v>
+      </c>
+      <c r="K57" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="118">
+      <c r="B58" s="115">
         <v>45690</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C58" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="73">
         <v>2818</v>
       </c>
-      <c r="F58" s="67">
+      <c r="F58" s="64">
         <v>1701</v>
       </c>
-      <c r="G58" s="77">
+      <c r="G58" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.361958836053944</v>
       </c>
-      <c r="H58" s="69">
+      <c r="H58" s="66">
         <v>1701</v>
       </c>
-      <c r="I58" s="78">
+      <c r="I58" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.361958836053944</v>
       </c>
-      <c r="J58" s="79">
-        <v>0</v>
-      </c>
-      <c r="K58" s="80">
+      <c r="J58" s="76">
+        <v>0</v>
+      </c>
+      <c r="K58" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="118">
+      <c r="B59" s="115">
         <v>45690</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="76">
+      <c r="E59" s="73">
         <v>326</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="64">
         <v>231</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.858895705521476</v>
       </c>
-      <c r="H59" s="69">
+      <c r="H59" s="66">
         <v>231</v>
       </c>
-      <c r="I59" s="78">
+      <c r="I59" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>70.858895705521476</v>
       </c>
-      <c r="J59" s="79">
-        <v>0</v>
-      </c>
-      <c r="K59" s="80">
+      <c r="J59" s="76">
+        <v>0</v>
+      </c>
+      <c r="K59" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="118">
+      <c r="B60" s="115">
         <v>45688</v>
       </c>
-      <c r="C60" s="91" t="s">
+      <c r="C60" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="76">
+      <c r="E60" s="73">
         <v>6307</v>
       </c>
-      <c r="F60" s="94">
+      <c r="F60" s="91">
         <v>3263</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.736166164579032</v>
       </c>
-      <c r="H60" s="95">
+      <c r="H60" s="92">
         <v>197</v>
       </c>
-      <c r="I60" s="78">
+      <c r="I60" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1235135563659426</v>
       </c>
-      <c r="J60" s="79">
+      <c r="J60" s="76">
         <v>1</v>
       </c>
-      <c r="K60" s="80">
+      <c r="K60" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.5855398763278898E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="118">
+      <c r="B61" s="115">
         <v>45688</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="76">
+      <c r="E61" s="73">
         <v>872</v>
       </c>
-      <c r="F61" s="94">
+      <c r="F61" s="91">
         <v>549</v>
       </c>
-      <c r="G61" s="77">
+      <c r="G61" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>62.958715596330272</v>
       </c>
-      <c r="H61" s="95">
+      <c r="H61" s="92">
         <v>45</v>
       </c>
-      <c r="I61" s="78">
+      <c r="I61" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.1605504587155968</v>
       </c>
-      <c r="J61" s="79">
-        <v>0</v>
-      </c>
-      <c r="K61" s="80">
+      <c r="J61" s="76">
+        <v>0</v>
+      </c>
+      <c r="K61" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="118">
+      <c r="B62" s="115">
         <v>45687</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="98" t="s">
+      <c r="D62" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="76">
+      <c r="E62" s="73">
         <v>5071</v>
       </c>
-      <c r="F62" s="94">
+      <c r="F62" s="91">
         <v>2779</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>54.80181423782291</v>
       </c>
-      <c r="H62" s="95">
+      <c r="H62" s="92">
         <v>179</v>
       </c>
-      <c r="I62" s="78">
+      <c r="I62" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5298757641490832</v>
       </c>
-      <c r="J62" s="79">
+      <c r="J62" s="76">
         <v>2</v>
       </c>
-      <c r="K62" s="80">
+      <c r="K62" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.9439952672056799E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="118">
+      <c r="B63" s="115">
         <v>45687</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="73">
         <v>918</v>
       </c>
-      <c r="F63" s="94">
+      <c r="F63" s="91">
         <v>552</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>60.130718954248366</v>
       </c>
-      <c r="H63" s="95">
+      <c r="H63" s="92">
         <v>40</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I63" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.3572984749455337</v>
       </c>
-      <c r="J63" s="79">
-        <v>0</v>
-      </c>
-      <c r="K63" s="80">
+      <c r="J63" s="76">
+        <v>0</v>
+      </c>
+      <c r="K63" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="118">
+      <c r="B64" s="115">
         <v>45686</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="C64" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="98" t="s">
+      <c r="D64" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="76">
+      <c r="E64" s="73">
         <v>9541</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="91">
         <v>4850</v>
       </c>
-      <c r="G64" s="77">
+      <c r="G64" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>50.833245990986264</v>
       </c>
-      <c r="H64" s="95">
+      <c r="H64" s="92">
         <v>123</v>
       </c>
-      <c r="I64" s="78">
+      <c r="I64" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2891730426580024</v>
       </c>
-      <c r="J64" s="79">
+      <c r="J64" s="76">
         <v>1</v>
       </c>
-      <c r="K64" s="80">
+      <c r="K64" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0481081647626034E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="118">
+      <c r="B65" s="115">
         <v>45686</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="91" t="s">
+      <c r="D65" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="86">
+      <c r="E65" s="83">
         <v>8951</v>
       </c>
-      <c r="F65" s="94">
+      <c r="F65" s="91">
         <v>3886</v>
       </c>
-      <c r="G65" s="87">
+      <c r="G65" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>43.414143671098202</v>
       </c>
-      <c r="H65" s="95">
+      <c r="H65" s="92">
         <v>114</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2736007150039101</v>
       </c>
-      <c r="J65" s="79">
+      <c r="J65" s="76">
         <v>1</v>
       </c>
-      <c r="K65" s="80">
+      <c r="K65" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1171936096525528E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="118">
+      <c r="B66" s="115">
         <v>45686</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="73">
         <v>654</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="91">
         <v>365</v>
       </c>
-      <c r="G66" s="77">
+      <c r="G66" s="74">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>55.810397553516822</v>
       </c>
-      <c r="H66" s="95">
+      <c r="H66" s="92">
         <v>12</v>
       </c>
-      <c r="I66" s="78">
+      <c r="I66" s="75">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.834862385321101</v>
       </c>
-      <c r="J66" s="79">
-        <v>0</v>
-      </c>
-      <c r="K66" s="80">
+      <c r="J66" s="76">
+        <v>0</v>
+      </c>
+      <c r="K66" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="118">
+      <c r="B67" s="115">
         <v>45678</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="91" t="s">
+      <c r="D67" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="86">
+      <c r="E67" s="83">
         <v>2887</v>
       </c>
-      <c r="F67" s="94">
+      <c r="F67" s="91">
         <v>1382</v>
       </c>
-      <c r="G67" s="87">
+      <c r="G67" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>47.869760997575341</v>
       </c>
-      <c r="H67" s="95">
+      <c r="H67" s="92">
         <v>211</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>7.3086248701073773</v>
       </c>
-      <c r="J67" s="79">
-        <v>0</v>
-      </c>
-      <c r="K67" s="80">
+      <c r="J67" s="76">
+        <v>0</v>
+      </c>
+      <c r="K67" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="99">
+      <c r="B68" s="96">
         <v>45673</v>
       </c>
-      <c r="C68" s="91" t="s">
+      <c r="C68" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="91" t="s">
+      <c r="D68" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="86">
+      <c r="E68" s="83">
         <v>7938</v>
       </c>
-      <c r="F68" s="94">
+      <c r="F68" s="91">
         <v>4083</v>
       </c>
-      <c r="G68" s="87">
+      <c r="G68" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>51.436130007558575</v>
       </c>
-      <c r="H68" s="95">
+      <c r="H68" s="92">
         <v>204</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5699168556311416</v>
       </c>
-      <c r="J68" s="79">
+      <c r="J68" s="76">
         <v>4</v>
       </c>
-      <c r="K68" s="80">
+      <c r="K68" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.0390526581002779E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="99">
+      <c r="B69" s="96">
         <v>45673</v>
       </c>
-      <c r="C69" s="91" t="s">
+      <c r="C69" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="91" t="s">
+      <c r="D69" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="86">
+      <c r="E69" s="83">
         <v>719</v>
       </c>
-      <c r="F69" s="94">
+      <c r="F69" s="91">
         <v>450</v>
       </c>
-      <c r="G69" s="87">
+      <c r="G69" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>62.586926286509041</v>
       </c>
-      <c r="H69" s="95">
+      <c r="H69" s="92">
         <v>40</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>5.563282336578582</v>
       </c>
-      <c r="J69" s="79">
-        <v>0</v>
-      </c>
-      <c r="K69" s="80">
+      <c r="J69" s="76">
+        <v>0</v>
+      </c>
+      <c r="K69" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="99">
+      <c r="B70" s="96">
         <v>45671</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="C70" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="91" t="s">
+      <c r="D70" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="86">
+      <c r="E70" s="83">
         <v>11109</v>
       </c>
-      <c r="F70" s="94">
+      <c r="F70" s="91">
         <v>3903</v>
       </c>
-      <c r="G70" s="87">
+      <c r="G70" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>35.133675398325678</v>
       </c>
-      <c r="H70" s="130">
+      <c r="H70" s="125">
         <v>56</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>0.50409577819785756</v>
       </c>
-      <c r="J70" s="79">
+      <c r="J70" s="76">
         <v>7</v>
       </c>
-      <c r="K70" s="80">
+      <c r="K70" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3011972274732195E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="99">
+      <c r="B71" s="96">
         <v>45665</v>
       </c>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="109" t="s">
+      <c r="D71" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="86">
+      <c r="E71" s="83">
         <v>236</v>
       </c>
-      <c r="F71" s="94">
+      <c r="F71" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>228.92</v>
       </c>
-      <c r="G71" s="87">
+      <c r="G71" s="84">
         <v>97</v>
       </c>
-      <c r="H71" s="95">
+      <c r="H71" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>205.32</v>
       </c>
-      <c r="I71" s="88">
+      <c r="I71" s="85">
         <v>87</v>
       </c>
-      <c r="J71" s="79">
-        <v>0</v>
-      </c>
-      <c r="K71" s="80">
+      <c r="J71" s="76">
+        <v>0</v>
+      </c>
+      <c r="K71" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A72" s="106" t="s">
+      <c r="A72" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="99">
+      <c r="B72" s="96">
         <v>45665</v>
       </c>
-      <c r="C72" s="98" t="s">
+      <c r="C72" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="98" t="s">
+      <c r="D72" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="86">
+      <c r="E72" s="83">
         <v>894</v>
       </c>
-      <c r="F72" s="94">
+      <c r="F72" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>35.76</v>
       </c>
-      <c r="G72" s="103">
+      <c r="G72" s="100">
         <v>4</v>
       </c>
-      <c r="H72" s="95">
+      <c r="H72" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>59.898000000000003</v>
       </c>
-      <c r="I72" s="88">
+      <c r="I72" s="85">
         <v>6.7</v>
       </c>
-      <c r="J72" s="79">
-        <v>0</v>
-      </c>
-      <c r="K72" s="80">
+      <c r="J72" s="76">
+        <v>0</v>
+      </c>
+      <c r="K72" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="99">
+      <c r="B73" s="96">
         <v>45665</v>
       </c>
-      <c r="C73" s="98" t="s">
+      <c r="C73" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="109" t="s">
+      <c r="D73" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="86">
+      <c r="E73" s="83">
         <v>24</v>
       </c>
-      <c r="F73" s="94">
+      <c r="F73" s="91">
         <v>16</v>
       </c>
-      <c r="G73" s="87">
+      <c r="G73" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="H73" s="95">
+      <c r="H73" s="92">
         <v>1</v>
       </c>
-      <c r="I73" s="88">
+      <c r="I73" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="J73" s="79">
+      <c r="J73" s="76">
         <v>1</v>
       </c>
-      <c r="K73" s="80">
+      <c r="K73" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.1666666666666661</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="99">
+      <c r="B74" s="96">
         <v>45665</v>
       </c>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="109" t="s">
+      <c r="D74" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="86">
+      <c r="E74" s="83">
         <v>5895</v>
       </c>
-      <c r="F74" s="94">
+      <c r="F74" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3119.9999999999995</v>
       </c>
-      <c r="G74" s="87">
+      <c r="G74" s="84">
         <f>SUM(3120)/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.926208651399484</v>
       </c>
-      <c r="H74" s="130">
+      <c r="H74" s="125">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>73</v>
       </c>
-      <c r="I74" s="88">
+      <c r="I74" s="85">
         <f>SUM(73)/(Table1[[#This Row],[deliveried]])*100</f>
         <v>1.2383375742154368</v>
       </c>
-      <c r="J74" s="79">
+      <c r="J74" s="76">
         <v>6</v>
       </c>
-      <c r="K74" s="80">
+      <c r="K74" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.10178117048346055</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="99">
+      <c r="B75" s="96">
         <v>45664</v>
       </c>
-      <c r="C75" s="98" t="s">
+      <c r="C75" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="98" t="s">
+      <c r="D75" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="86">
+      <c r="E75" s="83">
         <v>9518</v>
       </c>
-      <c r="F75" s="94">
+      <c r="F75" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>228.43200000000002</v>
       </c>
-      <c r="G75" s="87">
+      <c r="G75" s="84">
         <v>2.4</v>
       </c>
-      <c r="H75" s="95">
+      <c r="H75" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1361.0739999999998</v>
       </c>
-      <c r="I75" s="88">
+      <c r="I75" s="85">
         <v>14.3</v>
       </c>
-      <c r="J75" s="79">
+      <c r="J75" s="76">
         <v>2</v>
       </c>
-      <c r="K75" s="80">
+      <c r="K75" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.101281781886951E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="99">
+      <c r="B76" s="96">
         <v>45645</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="86">
+      <c r="E76" s="83">
         <v>19548</v>
       </c>
-      <c r="F76" s="94">
+      <c r="F76" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>13683.6</v>
       </c>
-      <c r="G76" s="87">
+      <c r="G76" s="84">
         <v>70</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>189.61559999999997</v>
       </c>
-      <c r="I76" s="88">
+      <c r="I76" s="85">
         <v>0.97</v>
       </c>
-      <c r="J76" s="79">
+      <c r="J76" s="76">
         <v>12</v>
       </c>
-      <c r="K76" s="80">
+      <c r="K76" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.1387354205033759E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="99">
+      <c r="B77" s="96">
         <v>45645</v>
       </c>
-      <c r="C77" s="91" t="s">
+      <c r="C77" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="91" t="s">
+      <c r="D77" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="76">
+      <c r="E77" s="73">
         <v>62524</v>
       </c>
-      <c r="F77" s="94">
+      <c r="F77" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>14943.235999999999</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="74">
         <v>23.9</v>
       </c>
-      <c r="H77" s="95">
+      <c r="H77" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1631.8763999999999</v>
       </c>
-      <c r="I77" s="78">
+      <c r="I77" s="75">
         <v>2.61</v>
       </c>
-      <c r="J77" s="79">
+      <c r="J77" s="76">
         <v>52</v>
       </c>
-      <c r="K77" s="80">
+      <c r="K77" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>8.3168063463629968E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="99">
+      <c r="B78" s="96">
         <v>45639</v>
       </c>
-      <c r="C78" s="120" t="s">
+      <c r="C78" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="73">
         <v>62753</v>
       </c>
-      <c r="F78" s="94">
+      <c r="F78" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>18198.37</v>
       </c>
-      <c r="G78" s="77">
+      <c r="G78" s="74">
         <v>29</v>
       </c>
-      <c r="H78" s="95">
+      <c r="H78" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>928.74440000000004</v>
       </c>
-      <c r="I78" s="78">
+      <c r="I78" s="75">
         <v>1.48</v>
       </c>
-      <c r="J78" s="79">
+      <c r="J78" s="76">
         <v>11</v>
       </c>
-      <c r="K78" s="80">
+      <c r="K78" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.7529042436218188E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="99">
+      <c r="B79" s="96">
         <v>45639</v>
       </c>
-      <c r="C79" s="98" t="s">
+      <c r="C79" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="86">
+      <c r="E79" s="83">
         <v>19697</v>
       </c>
-      <c r="F79" s="94">
+      <c r="F79" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>14181.84</v>
       </c>
-      <c r="G79" s="87">
+      <c r="G79" s="84">
         <v>72</v>
       </c>
-      <c r="H79" s="95">
+      <c r="H79" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>202.87909999999999</v>
       </c>
-      <c r="I79" s="88">
+      <c r="I79" s="85">
         <v>1.03</v>
       </c>
-      <c r="J79" s="79">
+      <c r="J79" s="76">
         <v>11</v>
       </c>
-      <c r="K79" s="80">
+      <c r="K79" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.5846067929126268E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="99">
+      <c r="B80" s="96">
         <v>45631</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="91" t="s">
+      <c r="D80" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="86">
+      <c r="E80" s="83">
         <v>82378</v>
       </c>
-      <c r="F80" s="94">
+      <c r="F80" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>24631.021999999997</v>
       </c>
-      <c r="G80" s="87">
+      <c r="G80" s="84">
         <v>29.9</v>
       </c>
-      <c r="H80" s="95">
+      <c r="H80" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30150.348000000002</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="85">
         <v>36.6</v>
       </c>
-      <c r="J80" s="79">
+      <c r="J80" s="76">
         <v>53</v>
       </c>
-      <c r="K80" s="80">
+      <c r="K80" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.4337565854961282E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="99">
+      <c r="B81" s="96">
         <v>45625</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="91" t="s">
+      <c r="D81" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E81" s="83">
         <v>13396</v>
       </c>
-      <c r="F81" s="94">
+      <c r="F81" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>7626.3428000000004</v>
       </c>
-      <c r="G81" s="87">
+      <c r="G81" s="84">
         <v>56.93</v>
       </c>
-      <c r="H81" s="95">
+      <c r="H81" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2322.8663999999999</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="85">
         <v>17.34</v>
       </c>
-      <c r="J81" s="79">
+      <c r="J81" s="76">
         <v>6</v>
       </c>
-      <c r="K81" s="80">
+      <c r="K81" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.4789489399820845E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="99">
+      <c r="B82" s="96">
         <v>45625</v>
       </c>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="91" t="s">
+      <c r="D82" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="86">
+      <c r="E82" s="83">
         <v>8716</v>
       </c>
-      <c r="F82" s="94">
+      <c r="F82" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4776.3679999999995</v>
       </c>
-      <c r="G82" s="87">
+      <c r="G82" s="84">
         <v>54.8</v>
       </c>
-      <c r="H82" s="95">
+      <c r="H82" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1208.9092000000001</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="85">
         <v>13.87</v>
       </c>
-      <c r="J82" s="79">
+      <c r="J82" s="76">
         <v>8</v>
       </c>
-      <c r="K82" s="80">
+      <c r="K82" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.1785222579164757E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="99">
+      <c r="B83" s="96">
         <v>45625</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="91" t="s">
+      <c r="D83" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="86">
+      <c r="E83" s="83">
         <v>86518</v>
       </c>
-      <c r="F83" s="94">
+      <c r="F83" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>22226.474200000001</v>
       </c>
-      <c r="G83" s="87">
+      <c r="G83" s="84">
         <v>25.69</v>
       </c>
-      <c r="H83" s="95">
+      <c r="H83" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>198.9914</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="85">
         <v>0.23</v>
       </c>
-      <c r="J83" s="79">
+      <c r="J83" s="76">
         <v>40</v>
       </c>
-      <c r="K83" s="80">
+      <c r="K83" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.6233153794586097E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="99">
+      <c r="B84" s="96">
         <v>45624</v>
       </c>
-      <c r="C84" s="91" t="s">
+      <c r="C84" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="91" t="s">
+      <c r="D84" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="76">
+      <c r="E84" s="73">
         <v>9632</v>
       </c>
-      <c r="F84" s="94">
+      <c r="F84" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2521.6576</v>
       </c>
-      <c r="G84" s="77">
+      <c r="G84" s="74">
         <v>26.18</v>
       </c>
-      <c r="H84" s="95">
+      <c r="H84" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>23.116799999999998</v>
       </c>
-      <c r="I84" s="78">
+      <c r="I84" s="75">
         <v>0.24</v>
       </c>
-      <c r="J84" s="79">
+      <c r="J84" s="76">
         <v>9</v>
       </c>
-      <c r="K84" s="80">
+      <c r="K84" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.3438538205980068E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="99">
+      <c r="B85" s="96">
         <v>45622</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="91" t="s">
+      <c r="D85" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="86">
+      <c r="E85" s="83">
         <v>160366</v>
       </c>
-      <c r="F85" s="94">
+      <c r="F85" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>55775.294800000003</v>
       </c>
-      <c r="G85" s="87">
+      <c r="G85" s="84">
         <v>34.78</v>
       </c>
-      <c r="H85" s="95">
+      <c r="H85" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>577.31759999999997</v>
       </c>
-      <c r="I85" s="88">
+      <c r="I85" s="85">
         <v>0.36</v>
       </c>
-      <c r="J85" s="79">
+      <c r="J85" s="76">
         <v>119</v>
       </c>
-      <c r="K85" s="80">
+      <c r="K85" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.4205255478093868E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="99">
+      <c r="B86" s="96">
         <v>45618</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="91" t="s">
+      <c r="D86" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="86">
+      <c r="E86" s="83">
         <v>1614</v>
       </c>
-      <c r="F86" s="94">
+      <c r="F86" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1133.9964000000002</v>
       </c>
-      <c r="G86" s="87">
+      <c r="G86" s="84">
         <v>70.260000000000005</v>
       </c>
-      <c r="H86" s="95">
+      <c r="H86" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>377.1918</v>
       </c>
-      <c r="I86" s="88">
+      <c r="I86" s="85">
         <v>23.37</v>
       </c>
-      <c r="J86" s="79">
-        <v>0</v>
-      </c>
-      <c r="K86" s="80">
+      <c r="J86" s="76">
+        <v>0</v>
+      </c>
+      <c r="K86" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="99">
+      <c r="B87" s="96">
         <v>45618</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="91" t="s">
+      <c r="D87" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="86">
+      <c r="E87" s="83">
         <v>2083</v>
       </c>
-      <c r="F87" s="94">
+      <c r="F87" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1478.0968</v>
       </c>
-      <c r="G87" s="87">
+      <c r="G87" s="84">
         <v>70.959999999999994</v>
       </c>
-      <c r="H87" s="95">
+      <c r="H87" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>591.98860000000002</v>
       </c>
-      <c r="I87" s="88">
+      <c r="I87" s="85">
         <v>28.42</v>
       </c>
-      <c r="J87" s="79">
-        <v>0</v>
-      </c>
-      <c r="K87" s="80">
+      <c r="J87" s="76">
+        <v>0</v>
+      </c>
+      <c r="K87" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A88" s="90" t="s">
+      <c r="A88" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="99">
+      <c r="B88" s="96">
         <v>45615</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="91" t="s">
+      <c r="D88" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="76">
+      <c r="E88" s="73">
         <v>2674</v>
       </c>
-      <c r="F88" s="94">
+      <c r="F88" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1351.4395999999999</v>
       </c>
-      <c r="G88" s="77">
+      <c r="G88" s="74">
         <v>50.54</v>
       </c>
-      <c r="H88" s="95">
+      <c r="H88" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>239.59040000000002</v>
       </c>
-      <c r="I88" s="78">
+      <c r="I88" s="75">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J88" s="79">
-        <v>0</v>
-      </c>
-      <c r="K88" s="80">
+      <c r="J88" s="76">
+        <v>0</v>
+      </c>
+      <c r="K88" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="99">
+      <c r="B89" s="96">
         <v>45615</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="91" t="s">
+      <c r="D89" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="86">
+      <c r="E89" s="83">
         <v>2524</v>
       </c>
-      <c r="F89" s="94">
+      <c r="F89" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1454.5811999999999</v>
       </c>
-      <c r="G89" s="87">
+      <c r="G89" s="84">
         <v>57.63</v>
       </c>
-      <c r="H89" s="95">
+      <c r="H89" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>237.50839999999999</v>
       </c>
-      <c r="I89" s="88">
+      <c r="I89" s="85">
         <v>9.41</v>
       </c>
-      <c r="J89" s="79">
-        <v>0</v>
-      </c>
-      <c r="K89" s="80">
+      <c r="J89" s="76">
+        <v>0</v>
+      </c>
+      <c r="K89" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A90" s="90" t="s">
+      <c r="A90" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="99">
+      <c r="B90" s="96">
         <v>45615</v>
       </c>
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="98" t="s">
+      <c r="D90" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E90" s="83">
         <v>704</v>
       </c>
-      <c r="F90" s="94">
+      <c r="F90" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>393.04320000000001</v>
       </c>
-      <c r="G90" s="87">
+      <c r="G90" s="84">
         <v>55.83</v>
       </c>
-      <c r="H90" s="95">
+      <c r="H90" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>80.044799999999995</v>
       </c>
-      <c r="I90" s="88">
+      <c r="I90" s="85">
         <v>11.37</v>
       </c>
-      <c r="J90" s="79">
-        <v>0</v>
-      </c>
-      <c r="K90" s="80">
+      <c r="J90" s="76">
+        <v>0</v>
+      </c>
+      <c r="K90" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="99">
+      <c r="B91" s="96">
         <v>45615</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="91" t="s">
+      <c r="D91" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="86">
+      <c r="E91" s="83">
         <v>611</v>
       </c>
-      <c r="F91" s="94">
+      <c r="F91" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>414.38019999999995</v>
       </c>
-      <c r="G91" s="87">
+      <c r="G91" s="84">
         <v>67.819999999999993</v>
       </c>
-      <c r="H91" s="95">
+      <c r="H91" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>73.625500000000002</v>
       </c>
-      <c r="I91" s="88">
+      <c r="I91" s="85">
         <v>12.05</v>
       </c>
-      <c r="J91" s="79">
-        <v>0</v>
-      </c>
-      <c r="K91" s="80">
+      <c r="J91" s="76">
+        <v>0</v>
+      </c>
+      <c r="K91" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A92" s="100" t="s">
+      <c r="A92" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="99">
+      <c r="B92" s="96">
         <v>45615</v>
       </c>
-      <c r="C92" s="91" t="s">
+      <c r="C92" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="91" t="s">
+      <c r="D92" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="86">
+      <c r="E92" s="83">
         <v>4812</v>
       </c>
-      <c r="F92" s="94">
+      <c r="F92" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2830.4184000000005</v>
       </c>
-      <c r="G92" s="87">
+      <c r="G92" s="84">
         <v>58.82</v>
       </c>
-      <c r="H92" s="95">
+      <c r="H92" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>501.41039999999998</v>
       </c>
-      <c r="I92" s="88">
+      <c r="I92" s="85">
         <v>10.42</v>
       </c>
-      <c r="J92" s="79">
-        <v>0</v>
-      </c>
-      <c r="K92" s="80">
+      <c r="J92" s="76">
+        <v>0</v>
+      </c>
+      <c r="K92" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="99">
+      <c r="B93" s="96">
         <v>45615</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="91" t="s">
+      <c r="D93" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="86">
+      <c r="E93" s="83">
         <v>1244</v>
       </c>
-      <c r="F93" s="94">
+      <c r="F93" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>670.01839999999993</v>
       </c>
-      <c r="G93" s="87">
+      <c r="G93" s="84">
         <v>53.86</v>
       </c>
-      <c r="H93" s="95">
+      <c r="H93" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>70.037199999999999</v>
       </c>
-      <c r="I93" s="88">
+      <c r="I93" s="85">
         <v>5.63</v>
       </c>
-      <c r="J93" s="79">
-        <v>0</v>
-      </c>
-      <c r="K93" s="80">
+      <c r="J93" s="76">
+        <v>0</v>
+      </c>
+      <c r="K93" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A94" s="89" t="s">
+      <c r="A94" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="99">
+      <c r="B94" s="96">
         <v>45615</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="91" t="s">
+      <c r="D94" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="86">
+      <c r="E94" s="83">
         <v>9460</v>
       </c>
-      <c r="F94" s="94">
+      <c r="F94" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4897.442</v>
       </c>
-      <c r="G94" s="87">
+      <c r="G94" s="84">
         <v>51.77</v>
       </c>
-      <c r="H94" s="95">
+      <c r="H94" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>434.214</v>
       </c>
-      <c r="I94" s="88">
+      <c r="I94" s="85">
         <v>4.59</v>
       </c>
-      <c r="J94" s="79">
+      <c r="J94" s="76">
         <v>1</v>
       </c>
-      <c r="K94" s="80">
+      <c r="K94" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0570824524312896E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A95" s="89" t="s">
+      <c r="A95" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="99">
+      <c r="B95" s="96">
         <v>45615</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="86">
+      <c r="E95" s="83">
         <v>401</v>
       </c>
-      <c r="F95" s="94">
+      <c r="F95" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>257.80290000000002</v>
       </c>
-      <c r="G95" s="87">
+      <c r="G95" s="84">
         <v>64.290000000000006</v>
       </c>
-      <c r="H95" s="95">
+      <c r="H95" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>71.618600000000001</v>
       </c>
-      <c r="I95" s="88">
+      <c r="I95" s="85">
         <v>17.86</v>
       </c>
-      <c r="J95" s="79">
-        <v>0</v>
-      </c>
-      <c r="K95" s="80">
+      <c r="J95" s="76">
+        <v>0</v>
+      </c>
+      <c r="K95" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="99">
+      <c r="B96" s="96">
         <v>45615</v>
       </c>
-      <c r="C96" s="91" t="s">
+      <c r="C96" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="91" t="s">
+      <c r="D96" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="86">
+      <c r="E96" s="83">
         <v>3147</v>
       </c>
-      <c r="F96" s="94">
+      <c r="F96" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1857.9888000000001</v>
       </c>
-      <c r="G96" s="87">
+      <c r="G96" s="84">
         <v>59.04</v>
       </c>
-      <c r="H96" s="95">
+      <c r="H96" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>581.88029999999992</v>
       </c>
-      <c r="I96" s="88">
+      <c r="I96" s="85">
         <v>18.489999999999998</v>
       </c>
-      <c r="J96" s="79">
-        <v>0</v>
-      </c>
-      <c r="K96" s="80">
+      <c r="J96" s="76">
+        <v>0</v>
+      </c>
+      <c r="K96" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="99">
+      <c r="B97" s="96">
         <v>45615</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="91" t="s">
+      <c r="D97" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="86">
+      <c r="E97" s="83">
         <v>9605</v>
       </c>
-      <c r="F97" s="94">
+      <c r="F97" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3557.692</v>
       </c>
-      <c r="G97" s="87">
+      <c r="G97" s="84">
         <v>37.04</v>
       </c>
-      <c r="H97" s="95">
+      <c r="H97" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>75.879500000000007</v>
       </c>
-      <c r="I97" s="88">
+      <c r="I97" s="85">
         <v>0.79</v>
       </c>
-      <c r="J97" s="79">
+      <c r="J97" s="76">
         <v>3</v>
       </c>
-      <c r="K97" s="80">
+      <c r="K97" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1233732431025507E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="99">
+      <c r="B98" s="96">
         <v>45615</v>
       </c>
-      <c r="C98" s="91" t="s">
+      <c r="C98" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="86">
+      <c r="E98" s="83">
         <v>136</v>
       </c>
-      <c r="F98" s="94">
+      <c r="F98" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>56.004799999999996</v>
       </c>
-      <c r="G98" s="87">
+      <c r="G98" s="84">
         <v>41.18</v>
       </c>
-      <c r="H98" s="95">
+      <c r="H98" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1.9991999999999999</v>
       </c>
-      <c r="I98" s="88">
+      <c r="I98" s="85">
         <v>1.47</v>
       </c>
-      <c r="J98" s="79">
-        <v>0</v>
-      </c>
-      <c r="K98" s="80">
+      <c r="J98" s="76">
+        <v>0</v>
+      </c>
+      <c r="K98" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="99">
+      <c r="B99" s="96">
         <v>45615</v>
       </c>
-      <c r="C99" s="91" t="s">
+      <c r="C99" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="91" t="s">
+      <c r="D99" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="76">
+      <c r="E99" s="73">
         <v>8370</v>
       </c>
-      <c r="F99" s="94">
+      <c r="F99" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4495.527</v>
       </c>
-      <c r="G99" s="77">
+      <c r="G99" s="74">
         <v>53.71</v>
       </c>
-      <c r="H99" s="95">
+      <c r="H99" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>256.959</v>
       </c>
-      <c r="I99" s="78">
+      <c r="I99" s="75">
         <v>3.07</v>
       </c>
-      <c r="J99" s="79">
+      <c r="J99" s="76">
         <v>1</v>
       </c>
-      <c r="K99" s="80">
+      <c r="K99" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.1947431302270011E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="99">
+      <c r="B100" s="96">
         <v>45615</v>
       </c>
-      <c r="C100" s="120" t="s">
+      <c r="C100" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="120" t="s">
+      <c r="D100" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="76">
+      <c r="E100" s="73">
         <v>1299</v>
       </c>
-      <c r="F100" s="94">
+      <c r="F100" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>820.44839999999999</v>
       </c>
-      <c r="G100" s="77">
+      <c r="G100" s="74">
         <v>63.16</v>
       </c>
-      <c r="H100" s="95">
+      <c r="H100" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>54.298199999999994</v>
       </c>
-      <c r="I100" s="78">
+      <c r="I100" s="75">
         <v>4.18</v>
       </c>
-      <c r="J100" s="79">
-        <v>0</v>
-      </c>
-      <c r="K100" s="80">
+      <c r="J100" s="76">
+        <v>0</v>
+      </c>
+      <c r="K100" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="99">
+      <c r="B101" s="96">
         <v>45615</v>
       </c>
-      <c r="C101" s="91" t="s">
+      <c r="C101" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="91" t="s">
+      <c r="D101" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="86">
+      <c r="E101" s="83">
         <v>439</v>
       </c>
-      <c r="F101" s="94">
+      <c r="F101" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>291.97890000000001</v>
       </c>
-      <c r="G101" s="87">
+      <c r="G101" s="84">
         <v>66.510000000000005</v>
       </c>
-      <c r="H101" s="95">
+      <c r="H101" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>205.97880000000001</v>
       </c>
-      <c r="I101" s="88">
+      <c r="I101" s="85">
         <v>46.92</v>
       </c>
-      <c r="J101" s="79">
-        <v>0</v>
-      </c>
-      <c r="K101" s="80">
+      <c r="J101" s="76">
+        <v>0</v>
+      </c>
+      <c r="K101" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="99">
+      <c r="B102" s="96">
         <v>45615</v>
       </c>
-      <c r="C102" s="91" t="s">
+      <c r="C102" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="91" t="s">
+      <c r="D102" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="76">
+      <c r="E102" s="73">
         <v>577</v>
       </c>
-      <c r="F102" s="94">
+      <c r="F102" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>369.97240000000005</v>
       </c>
-      <c r="G102" s="77">
+      <c r="G102" s="74">
         <v>64.12</v>
       </c>
-      <c r="H102" s="95">
+      <c r="H102" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>207.02760000000001</v>
       </c>
-      <c r="I102" s="78">
+      <c r="I102" s="75">
         <v>35.880000000000003</v>
       </c>
-      <c r="J102" s="79">
-        <v>0</v>
-      </c>
-      <c r="K102" s="80">
+      <c r="J102" s="76">
+        <v>0</v>
+      </c>
+      <c r="K102" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="99">
+      <c r="B103" s="96">
         <v>45614</v>
       </c>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="120" t="s">
+      <c r="D103" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="76">
+      <c r="E103" s="73">
         <v>1397</v>
       </c>
-      <c r="F103" s="94">
+      <c r="F103" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>823.53150000000005</v>
       </c>
-      <c r="G103" s="77">
+      <c r="G103" s="74">
         <v>58.95</v>
       </c>
-      <c r="H103" s="95">
+      <c r="H103" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>48.196500000000007</v>
       </c>
-      <c r="I103" s="78">
+      <c r="I103" s="75">
         <v>3.45</v>
       </c>
-      <c r="J103" s="79">
+      <c r="J103" s="76">
         <v>1</v>
       </c>
-      <c r="K103" s="80">
+      <c r="K103" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.1581961345740866E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="99">
+      <c r="B104" s="96">
         <v>45614</v>
       </c>
-      <c r="C104" s="120" t="s">
+      <c r="C104" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="120" t="s">
+      <c r="D104" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="76">
+      <c r="E104" s="73">
         <v>13052</v>
       </c>
-      <c r="F104" s="94">
+      <c r="F104" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6763.5464000000002</v>
       </c>
-      <c r="G104" s="77">
+      <c r="G104" s="74">
         <v>51.82</v>
       </c>
-      <c r="H104" s="95">
+      <c r="H104" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>255.8192</v>
       </c>
-      <c r="I104" s="78">
+      <c r="I104" s="75">
         <v>1.96</v>
       </c>
-      <c r="J104" s="79">
+      <c r="J104" s="76">
         <v>1</v>
       </c>
-      <c r="K104" s="80">
+      <c r="K104" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>7.6616610481152307E-3</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="97">
+      <c r="B105" s="94">
         <v>45608</v>
       </c>
-      <c r="C105" s="120" t="s">
+      <c r="C105" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="120" t="s">
+      <c r="D105" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="86">
+      <c r="E105" s="83">
         <v>11557</v>
       </c>
-      <c r="F105" s="94">
+      <c r="F105" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6471.92</v>
       </c>
-      <c r="G105" s="87">
+      <c r="G105" s="84">
         <v>56</v>
       </c>
-      <c r="H105" s="95">
+      <c r="H105" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>32.359600000000007</v>
       </c>
-      <c r="I105" s="88">
+      <c r="I105" s="85">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J105" s="79">
+      <c r="J105" s="76">
         <v>4</v>
       </c>
-      <c r="K105" s="80">
+      <c r="K105" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.4611058233105473E-2</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B106" s="99">
+      <c r="B106" s="96">
         <v>45607</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C106" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="76">
+      <c r="E106" s="73">
         <v>307493</v>
       </c>
-      <c r="F106" s="94">
+      <c r="F106" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>155222.46639999998</v>
       </c>
-      <c r="G106" s="77">
+      <c r="G106" s="74">
         <v>50.48</v>
       </c>
-      <c r="H106" s="95">
+      <c r="H106" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35853.683799999999</v>
       </c>
-      <c r="I106" s="78">
+      <c r="I106" s="75">
         <v>11.66</v>
       </c>
-      <c r="J106" s="79">
+      <c r="J106" s="76">
         <v>196</v>
       </c>
-      <c r="K106" s="80">
+      <c r="K106" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>6.3741288419573772E-2</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A107" s="90" t="s">
+      <c r="A107" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="99">
+      <c r="B107" s="96">
         <v>45604</v>
       </c>
-      <c r="C107" s="120" t="s">
+      <c r="C107" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="120" t="s">
+      <c r="D107" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="86">
+      <c r="E107" s="83">
         <v>23537</v>
       </c>
-      <c r="F107" s="104">
+      <c r="F107" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>13842.109699999999</v>
       </c>
-      <c r="G107" s="87">
+      <c r="G107" s="84">
         <v>58.81</v>
       </c>
-      <c r="H107" s="131">
+      <c r="H107" s="126">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>4203.7082</v>
       </c>
-      <c r="I107" s="87">
+      <c r="I107" s="84">
         <v>17.86</v>
       </c>
-      <c r="J107" s="79">
+      <c r="J107" s="76">
         <v>10</v>
       </c>
-      <c r="K107" s="80">
+      <c r="K107" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.2486298168840551E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B108" s="97">
+      <c r="B108" s="94">
         <v>45594</v>
       </c>
-      <c r="C108" s="91" t="s">
+      <c r="C108" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="91" t="s">
+      <c r="D108" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="86">
+      <c r="E108" s="83">
         <v>9414</v>
       </c>
-      <c r="F108" s="104">
+      <c r="F108" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3925.6380000000004</v>
       </c>
-      <c r="G108" s="87">
+      <c r="G108" s="84">
         <v>41.7</v>
       </c>
-      <c r="H108" s="105">
+      <c r="H108" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>119.5578</v>
       </c>
-      <c r="I108" s="88">
+      <c r="I108" s="85">
         <v>1.27</v>
       </c>
-      <c r="J108" s="79">
+      <c r="J108" s="76">
         <v>2</v>
       </c>
-      <c r="K108" s="80">
+      <c r="K108" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.1244954323348206E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B109" s="97">
+      <c r="B109" s="94">
         <v>45594</v>
       </c>
-      <c r="C109" s="98" t="s">
+      <c r="C109" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="98" t="s">
+      <c r="D109" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="86">
+      <c r="E109" s="83">
         <v>323</v>
       </c>
-      <c r="F109" s="104">
+      <c r="F109" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>172.99880000000002</v>
       </c>
-      <c r="G109" s="87">
+      <c r="G109" s="84">
         <v>53.56</v>
       </c>
-      <c r="H109" s="105">
+      <c r="H109" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>4.0051999999999994</v>
       </c>
-      <c r="I109" s="88">
+      <c r="I109" s="85">
         <v>1.24</v>
       </c>
-      <c r="J109" s="79">
-        <v>0</v>
-      </c>
-      <c r="K109" s="80">
+      <c r="J109" s="76">
+        <v>0</v>
+      </c>
+      <c r="K109" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="97">
+      <c r="B110" s="94">
         <v>45594</v>
       </c>
-      <c r="C110" s="91" t="s">
+      <c r="C110" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="91" t="s">
+      <c r="D110" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="83">
         <v>5027</v>
       </c>
-      <c r="F110" s="104">
+      <c r="F110" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2111.34</v>
       </c>
-      <c r="G110" s="87">
+      <c r="G110" s="84">
         <v>42</v>
       </c>
-      <c r="H110" s="105">
+      <c r="H110" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>251.35</v>
       </c>
-      <c r="I110" s="88">
+      <c r="I110" s="85">
         <v>5</v>
       </c>
-      <c r="J110" s="79">
+      <c r="J110" s="76">
         <v>1</v>
       </c>
-      <c r="K110" s="80">
+      <c r="K110" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.9892580067634773E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="97">
+      <c r="B111" s="94">
         <v>45594</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="91" t="s">
+      <c r="D111" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="86">
+      <c r="E111" s="83">
         <v>131</v>
       </c>
-      <c r="F111" s="104">
+      <c r="F111" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>82.53</v>
       </c>
-      <c r="G111" s="87">
+      <c r="G111" s="84">
         <v>63</v>
       </c>
-      <c r="H111" s="105">
+      <c r="H111" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>34.06</v>
       </c>
-      <c r="I111" s="88">
+      <c r="I111" s="85">
         <v>26</v>
       </c>
-      <c r="J111" s="79">
-        <v>0</v>
-      </c>
-      <c r="K111" s="80">
+      <c r="J111" s="76">
+        <v>0</v>
+      </c>
+      <c r="K111" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="97">
+      <c r="B112" s="94">
         <v>45587</v>
       </c>
-      <c r="C112" s="120" t="s">
+      <c r="C112" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="120" t="s">
+      <c r="D112" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="76">
+      <c r="E112" s="73">
         <v>45474</v>
       </c>
-      <c r="F112" s="104">
+      <c r="F112" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>25774.663199999999</v>
       </c>
-      <c r="G112" s="87">
+      <c r="G112" s="84">
         <v>56.68</v>
       </c>
-      <c r="H112" s="95">
+      <c r="H112" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>291.03359999999998</v>
       </c>
-      <c r="I112" s="88">
+      <c r="I112" s="85">
         <v>0.64</v>
       </c>
-      <c r="J112" s="79">
+      <c r="J112" s="76">
         <v>53</v>
       </c>
-      <c r="K112" s="80">
+      <c r="K112" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.11655011655011654</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B113" s="97">
+      <c r="B113" s="94">
         <v>45587</v>
       </c>
-      <c r="C113" s="98" t="s">
+      <c r="C113" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="98" t="s">
+      <c r="D113" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="86">
+      <c r="E113" s="83">
         <v>4621</v>
       </c>
-      <c r="F113" s="104">
+      <c r="F113" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2790.1598000000004</v>
       </c>
-      <c r="G113" s="87">
+      <c r="G113" s="84">
         <v>60.38</v>
       </c>
-      <c r="H113" s="105">
+      <c r="H113" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>61.921400000000006</v>
       </c>
-      <c r="I113" s="88">
+      <c r="I113" s="85">
         <v>1.34</v>
       </c>
-      <c r="J113" s="79">
+      <c r="J113" s="76">
         <v>7</v>
       </c>
-      <c r="K113" s="80">
+      <c r="K113" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.15148236312486477</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="97">
+      <c r="B114" s="94">
         <v>45580</v>
       </c>
-      <c r="C114" s="120" t="s">
+      <c r="C114" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="120" t="s">
+      <c r="D114" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="76">
+      <c r="E114" s="73">
         <v>141</v>
       </c>
-      <c r="F114" s="104">
+      <c r="F114" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>124.99650000000001</v>
       </c>
-      <c r="G114" s="87">
+      <c r="G114" s="84">
         <v>88.65</v>
       </c>
-      <c r="H114" s="95">
+      <c r="H114" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>38.916000000000004</v>
       </c>
-      <c r="I114" s="88">
+      <c r="I114" s="85">
         <v>27.6</v>
       </c>
-      <c r="J114" s="79">
-        <v>0</v>
-      </c>
-      <c r="K114" s="80">
+      <c r="J114" s="76">
+        <v>0</v>
+      </c>
+      <c r="K114" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A115" s="90" t="s">
+      <c r="A115" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="97">
+      <c r="B115" s="94">
         <v>45580</v>
       </c>
-      <c r="C115" s="91" t="s">
+      <c r="C115" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="120" t="s">
+      <c r="D115" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="86">
+      <c r="E115" s="83">
         <v>24092</v>
       </c>
-      <c r="F115" s="104">
+      <c r="F115" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>17820.8524</v>
       </c>
-      <c r="G115" s="87">
+      <c r="G115" s="84">
         <v>73.97</v>
       </c>
-      <c r="H115" s="105">
+      <c r="H115" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>6006.1355999999996</v>
       </c>
-      <c r="I115" s="88">
+      <c r="I115" s="85">
         <v>24.93</v>
       </c>
-      <c r="J115" s="79">
-        <v>0</v>
-      </c>
-      <c r="K115" s="80">
+      <c r="J115" s="76">
+        <v>0</v>
+      </c>
+      <c r="K115" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="97">
+      <c r="B116" s="94">
         <v>45580</v>
       </c>
-      <c r="C116" s="91" t="s">
+      <c r="C116" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="120" t="s">
+      <c r="D116" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="86">
+      <c r="E116" s="83">
         <v>18497</v>
       </c>
-      <c r="F116" s="104">
+      <c r="F116" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12903.507200000002</v>
       </c>
-      <c r="G116" s="87">
+      <c r="G116" s="84">
         <v>69.760000000000005</v>
       </c>
-      <c r="H116" s="105">
+      <c r="H116" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3677.2035999999998</v>
       </c>
-      <c r="I116" s="88">
+      <c r="I116" s="85">
         <v>19.88</v>
       </c>
-      <c r="J116" s="79">
-        <v>0</v>
-      </c>
-      <c r="K116" s="80">
+      <c r="J116" s="76">
+        <v>0</v>
+      </c>
+      <c r="K116" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A117" s="90" t="s">
+      <c r="A117" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="97">
+      <c r="B117" s="94">
         <v>45575</v>
       </c>
-      <c r="C117" s="91" t="s">
+      <c r="C117" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="120" t="s">
+      <c r="D117" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="86">
+      <c r="E117" s="83">
         <v>220241</v>
       </c>
-      <c r="F117" s="104">
+      <c r="F117" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>131549.94930000001</v>
       </c>
-      <c r="G117" s="87">
+      <c r="G117" s="84">
         <v>59.73</v>
       </c>
-      <c r="H117" s="105">
+      <c r="H117" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>37881.451999999997</v>
       </c>
-      <c r="I117" s="88">
+      <c r="I117" s="85">
         <v>17.2</v>
       </c>
-      <c r="J117" s="79">
-        <v>0</v>
-      </c>
-      <c r="K117" s="80">
+      <c r="J117" s="76">
+        <v>0</v>
+      </c>
+      <c r="K117" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A118" s="90" t="s">
+      <c r="A118" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="97">
+      <c r="B118" s="94">
         <v>45573</v>
       </c>
-      <c r="C118" s="91" t="s">
+      <c r="C118" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="120" t="s">
+      <c r="D118" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="86">
+      <c r="E118" s="83">
         <v>327862</v>
       </c>
-      <c r="F118" s="104">
+      <c r="F118" s="101">
         <v>172086</v>
       </c>
-      <c r="G118" s="87">
+      <c r="G118" s="84">
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>52.48732698513399</v>
       </c>
-      <c r="H118" s="129">
+      <c r="H118" s="124">
         <v>58732</v>
       </c>
-      <c r="I118" s="88">
+      <c r="I118" s="85">
         <f>SUM(Table1[[#This Row],[unique-clicks]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>17.913634394958855</v>
       </c>
-      <c r="J118" s="79">
-        <v>0</v>
-      </c>
-      <c r="K118" s="80">
+      <c r="J118" s="76">
+        <v>0</v>
+      </c>
+      <c r="K118" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B119" s="97">
+      <c r="B119" s="94">
         <v>45572</v>
       </c>
-      <c r="C119" s="91" t="s">
+      <c r="C119" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="91" t="s">
+      <c r="D119" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="86">
+      <c r="E119" s="83">
         <v>2348</v>
       </c>
-      <c r="F119" s="104">
+      <c r="F119" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1849.7544</v>
       </c>
-      <c r="G119" s="87">
+      <c r="G119" s="84">
         <v>78.78</v>
       </c>
-      <c r="H119" s="105">
+      <c r="H119" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>814.99080000000004</v>
       </c>
-      <c r="I119" s="88">
+      <c r="I119" s="85">
         <v>34.71</v>
       </c>
-      <c r="J119" s="79">
-        <v>0</v>
-      </c>
-      <c r="K119" s="80">
+      <c r="J119" s="76">
+        <v>0</v>
+      </c>
+      <c r="K119" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A120" s="89" t="s">
+      <c r="A120" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="97">
+      <c r="B120" s="94">
         <v>45572</v>
       </c>
-      <c r="C120" s="120" t="s">
+      <c r="C120" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="120" t="s">
+      <c r="D120" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="76">
+      <c r="E120" s="73">
         <v>3652</v>
       </c>
-      <c r="F120" s="104">
+      <c r="F120" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2638.9352000000003</v>
       </c>
-      <c r="G120" s="87">
+      <c r="G120" s="84">
         <v>72.260000000000005</v>
       </c>
-      <c r="H120" s="95">
+      <c r="H120" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>956.09360000000004</v>
       </c>
-      <c r="I120" s="88">
+      <c r="I120" s="85">
         <v>26.18</v>
       </c>
-      <c r="J120" s="79">
-        <v>0</v>
-      </c>
-      <c r="K120" s="80">
+      <c r="J120" s="76">
+        <v>0</v>
+      </c>
+      <c r="K120" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="97">
+      <c r="B121" s="94">
         <v>45572</v>
       </c>
-      <c r="C121" s="120" t="s">
+      <c r="C121" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="120" t="s">
+      <c r="D121" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="76">
+      <c r="E121" s="73">
         <v>2034</v>
       </c>
-      <c r="F121" s="104">
+      <c r="F121" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1630.251</v>
       </c>
-      <c r="G121" s="87">
+      <c r="G121" s="84">
         <v>80.150000000000006</v>
       </c>
-      <c r="H121" s="95">
+      <c r="H121" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>833.94</v>
       </c>
-      <c r="I121" s="88">
+      <c r="I121" s="85">
         <v>41</v>
       </c>
-      <c r="J121" s="79">
-        <v>0</v>
-      </c>
-      <c r="K121" s="80">
+      <c r="J121" s="76">
+        <v>0</v>
+      </c>
+      <c r="K121" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B122" s="97">
+      <c r="B122" s="94">
         <v>45572</v>
       </c>
-      <c r="C122" s="120" t="s">
+      <c r="C122" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="120" t="s">
+      <c r="D122" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="76">
+      <c r="E122" s="73">
         <v>3584</v>
       </c>
-      <c r="F122" s="104">
+      <c r="F122" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2156.4928</v>
       </c>
-      <c r="G122" s="87">
+      <c r="G122" s="84">
         <v>60.17</v>
       </c>
-      <c r="H122" s="95">
+      <c r="H122" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>642.96960000000001</v>
       </c>
-      <c r="I122" s="88">
+      <c r="I122" s="85">
         <v>17.940000000000001</v>
       </c>
-      <c r="J122" s="79">
-        <v>0</v>
-      </c>
-      <c r="K122" s="80">
+      <c r="J122" s="76">
+        <v>0</v>
+      </c>
+      <c r="K122" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="97">
+      <c r="B123" s="94">
         <v>45560</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D123" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="76">
+      <c r="E123" s="73">
         <v>695</v>
       </c>
-      <c r="F123" s="104">
+      <c r="F123" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>412.41300000000001</v>
       </c>
-      <c r="G123" s="87">
+      <c r="G123" s="84">
         <v>59.34</v>
       </c>
-      <c r="H123" s="95">
+      <c r="H123" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>110.85250000000001</v>
       </c>
-      <c r="I123" s="88">
+      <c r="I123" s="85">
         <v>15.95</v>
       </c>
-      <c r="J123" s="79">
-        <v>0</v>
-      </c>
-      <c r="K123" s="80">
+      <c r="J123" s="76">
+        <v>0</v>
+      </c>
+      <c r="K123" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B124" s="97">
+      <c r="B124" s="94">
         <v>45560</v>
       </c>
-      <c r="C124" s="75" t="s">
+      <c r="C124" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="76">
+      <c r="E124" s="73">
         <v>15</v>
       </c>
-      <c r="F124" s="104">
+      <c r="F124" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12</v>
       </c>
-      <c r="G124" s="87">
+      <c r="G124" s="84">
         <v>80</v>
       </c>
-      <c r="H124" s="95">
+      <c r="H124" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3</v>
       </c>
-      <c r="I124" s="88">
+      <c r="I124" s="85">
         <v>20</v>
       </c>
-      <c r="J124" s="79">
-        <v>0</v>
-      </c>
-      <c r="K124" s="80">
+      <c r="J124" s="76">
+        <v>0</v>
+      </c>
+      <c r="K124" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B125" s="97">
+      <c r="B125" s="94">
         <v>45551</v>
       </c>
-      <c r="C125" s="85" t="s">
+      <c r="C125" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="85" t="s">
+      <c r="D125" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="103">
+      <c r="E125" s="100">
         <v>549</v>
       </c>
-      <c r="F125" s="104">
+      <c r="F125" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>249.0264</v>
       </c>
-      <c r="G125" s="87">
+      <c r="G125" s="84">
         <v>45.36</v>
       </c>
-      <c r="H125" s="105">
+      <c r="H125" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>57.974400000000003</v>
       </c>
-      <c r="I125" s="88">
+      <c r="I125" s="85">
         <v>10.56</v>
       </c>
-      <c r="J125" s="79">
+      <c r="J125" s="76">
         <v>1</v>
       </c>
-      <c r="K125" s="80">
+      <c r="K125" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.18214936247723132</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="97">
+      <c r="B126" s="94">
         <v>45551</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="85" t="s">
+      <c r="D126" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="76">
+      <c r="E126" s="73">
         <v>3640</v>
       </c>
-      <c r="F126" s="104">
+      <c r="F126" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1207.0239999999999</v>
       </c>
-      <c r="G126" s="87">
+      <c r="G126" s="84">
         <v>33.159999999999997</v>
       </c>
-      <c r="H126" s="95">
+      <c r="H126" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>234.05200000000002</v>
       </c>
-      <c r="I126" s="88">
+      <c r="I126" s="85">
         <v>6.43</v>
       </c>
-      <c r="J126" s="79">
-        <v>0</v>
-      </c>
-      <c r="K126" s="80">
+      <c r="J126" s="76">
+        <v>0</v>
+      </c>
+      <c r="K126" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="97">
+      <c r="B127" s="94">
         <v>45547</v>
       </c>
-      <c r="C127" s="85" t="s">
+      <c r="C127" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="85" t="s">
+      <c r="D127" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="76">
+      <c r="E127" s="73">
         <v>61270</v>
       </c>
-      <c r="F127" s="104">
+      <c r="F127" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>30340.904000000002</v>
       </c>
-      <c r="G127" s="87">
+      <c r="G127" s="84">
         <v>49.52</v>
       </c>
-      <c r="H127" s="95">
+      <c r="H127" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>655.58900000000006</v>
       </c>
-      <c r="I127" s="88">
+      <c r="I127" s="85">
         <v>1.07</v>
       </c>
-      <c r="J127" s="79">
-        <v>0</v>
-      </c>
-      <c r="K127" s="80">
+      <c r="J127" s="76">
+        <v>0</v>
+      </c>
+      <c r="K127" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A128" s="84" t="s">
+      <c r="A128" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="97">
+      <c r="B128" s="94">
         <v>45547</v>
       </c>
-      <c r="C128" s="85" t="s">
+      <c r="C128" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="85" t="s">
+      <c r="D128" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="76">
+      <c r="E128" s="73">
         <v>13636</v>
       </c>
-      <c r="F128" s="104">
+      <c r="F128" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>7428.8927999999987</v>
       </c>
-      <c r="G128" s="87">
+      <c r="G128" s="84">
         <v>54.48</v>
       </c>
-      <c r="H128" s="95">
+      <c r="H128" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>227.72119999999998</v>
       </c>
-      <c r="I128" s="88">
+      <c r="I128" s="85">
         <v>1.67</v>
       </c>
-      <c r="J128" s="79">
-        <v>0</v>
-      </c>
-      <c r="K128" s="80">
+      <c r="J128" s="76">
+        <v>0</v>
+      </c>
+      <c r="K128" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A129" s="74" t="s">
+      <c r="A129" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="97">
+      <c r="B129" s="94">
         <v>45547</v>
       </c>
-      <c r="C129" s="85" t="s">
+      <c r="C129" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="76">
+      <c r="E129" s="73">
         <v>65428</v>
       </c>
-      <c r="F129" s="104">
+      <c r="F129" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23050.2844</v>
       </c>
-      <c r="G129" s="87">
+      <c r="G129" s="84">
         <v>35.229999999999997</v>
       </c>
-      <c r="H129" s="95">
+      <c r="H129" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>667.36559999999997</v>
       </c>
-      <c r="I129" s="88">
+      <c r="I129" s="85">
         <v>1.02</v>
       </c>
-      <c r="J129" s="79">
-        <v>0</v>
-      </c>
-      <c r="K129" s="80">
+      <c r="J129" s="76">
+        <v>0</v>
+      </c>
+      <c r="K129" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="97">
+      <c r="B130" s="94">
         <v>45546</v>
       </c>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="85" t="s">
+      <c r="D130" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="86">
+      <c r="E130" s="83">
         <v>25695</v>
       </c>
-      <c r="F130" s="104">
+      <c r="F130" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>15023.866499999998</v>
       </c>
-      <c r="G130" s="87">
+      <c r="G130" s="84">
         <v>58.47</v>
       </c>
-      <c r="H130" s="105">
+      <c r="H130" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1575.1035000000002</v>
       </c>
-      <c r="I130" s="88">
+      <c r="I130" s="85">
         <v>6.13</v>
       </c>
-      <c r="J130" s="79">
-        <v>0</v>
-      </c>
-      <c r="K130" s="80">
+      <c r="J130" s="76">
+        <v>0</v>
+      </c>
+      <c r="K130" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="97">
+      <c r="B131" s="94">
         <v>45546</v>
       </c>
-      <c r="C131" s="85" t="s">
+      <c r="C131" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="85" t="s">
+      <c r="D131" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="86">
+      <c r="E131" s="83">
         <v>21318</v>
       </c>
-      <c r="F131" s="104">
+      <c r="F131" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>12347.385600000001</v>
       </c>
-      <c r="G131" s="87">
+      <c r="G131" s="84">
         <v>57.92</v>
       </c>
-      <c r="H131" s="105">
+      <c r="H131" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1534.896</v>
       </c>
-      <c r="I131" s="88">
+      <c r="I131" s="85">
         <v>7.2</v>
       </c>
-      <c r="J131" s="79">
-        <v>0</v>
-      </c>
-      <c r="K131" s="80">
+      <c r="J131" s="76">
+        <v>0</v>
+      </c>
+      <c r="K131" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="97">
+      <c r="B132" s="94">
         <v>45545</v>
       </c>
-      <c r="C132" s="85" t="s">
+      <c r="C132" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="85" t="s">
+      <c r="D132" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="86">
+      <c r="E132" s="83">
         <v>2253</v>
       </c>
-      <c r="F132" s="104">
+      <c r="F132" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>720.96</v>
       </c>
-      <c r="G132" s="87">
+      <c r="G132" s="84">
         <v>32</v>
       </c>
-      <c r="H132" s="105">
+      <c r="H132" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>45.961199999999998</v>
       </c>
-      <c r="I132" s="88">
+      <c r="I132" s="85">
         <v>2.04</v>
       </c>
-      <c r="J132" s="79">
-        <v>0</v>
-      </c>
-      <c r="K132" s="80">
+      <c r="J132" s="76">
+        <v>0</v>
+      </c>
+      <c r="K132" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="97">
+      <c r="B133" s="94">
         <v>45545</v>
       </c>
-      <c r="C133" s="85" t="s">
+      <c r="C133" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="85" t="s">
+      <c r="D133" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="86">
+      <c r="E133" s="83">
         <v>2191</v>
       </c>
-      <c r="F133" s="104">
+      <c r="F133" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>755.89499999999998</v>
       </c>
-      <c r="G133" s="87">
+      <c r="G133" s="84">
         <v>34.5</v>
       </c>
-      <c r="H133" s="105">
+      <c r="H133" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35.275100000000002</v>
       </c>
-      <c r="I133" s="88">
+      <c r="I133" s="85">
         <v>1.61</v>
       </c>
-      <c r="J133" s="79">
+      <c r="J133" s="76">
         <v>1</v>
       </c>
-      <c r="K133" s="80">
+      <c r="K133" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.5641259698767686E-2</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="97">
+      <c r="B134" s="94">
         <v>45538</v>
       </c>
-      <c r="C134" s="85" t="s">
+      <c r="C134" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="85" t="s">
+      <c r="D134" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="86">
+      <c r="E134" s="83">
         <v>12661</v>
       </c>
-      <c r="F134" s="104">
+      <c r="F134" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>8874.0949000000001</v>
       </c>
-      <c r="G134" s="87">
+      <c r="G134" s="84">
         <v>70.09</v>
       </c>
-      <c r="H134" s="105">
+      <c r="H134" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1386.3794999999998</v>
       </c>
-      <c r="I134" s="88">
+      <c r="I134" s="85">
         <v>10.95</v>
       </c>
-      <c r="J134" s="79">
-        <v>0</v>
-      </c>
-      <c r="K134" s="80">
+      <c r="J134" s="76">
+        <v>0</v>
+      </c>
+      <c r="K134" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B135" s="97">
+      <c r="B135" s="94">
         <v>45538</v>
       </c>
-      <c r="C135" s="85" t="s">
+      <c r="C135" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="85" t="s">
+      <c r="D135" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="86">
+      <c r="E135" s="83">
         <v>4539</v>
       </c>
-      <c r="F135" s="104">
+      <c r="F135" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1715.2881</v>
       </c>
-      <c r="G135" s="87">
+      <c r="G135" s="84">
         <v>37.79</v>
       </c>
-      <c r="H135" s="105">
+      <c r="H135" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>60.368699999999997</v>
       </c>
-      <c r="I135" s="88">
+      <c r="I135" s="85">
         <v>1.33</v>
       </c>
-      <c r="J135" s="79">
+      <c r="J135" s="76">
         <v>1</v>
       </c>
-      <c r="K135" s="80">
+      <c r="K135" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.203128442388191E-2</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B136" s="97">
+      <c r="B136" s="94">
         <v>45538</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C136" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="85" t="s">
+      <c r="D136" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="103">
+      <c r="E136" s="100">
         <v>92</v>
       </c>
-      <c r="F136" s="104">
+      <c r="F136" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>41.004399999999997</v>
       </c>
-      <c r="G136" s="87">
+      <c r="G136" s="84">
         <v>44.57</v>
       </c>
-      <c r="H136" s="105">
+      <c r="H136" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2.9991999999999996</v>
       </c>
-      <c r="I136" s="88">
+      <c r="I136" s="85">
         <v>3.26</v>
       </c>
-      <c r="J136" s="79">
-        <v>0</v>
-      </c>
-      <c r="K136" s="80">
+      <c r="J136" s="76">
+        <v>0</v>
+      </c>
+      <c r="K136" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B137" s="83">
+      <c r="B137" s="80">
         <v>45538</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C137" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D137" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="76">
+      <c r="E137" s="73">
         <v>12661</v>
       </c>
-      <c r="F137" s="94">
+      <c r="F137" s="91">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>9323.5604000000003</v>
       </c>
-      <c r="G137" s="87">
+      <c r="G137" s="84">
         <v>73.64</v>
       </c>
-      <c r="H137" s="95">
+      <c r="H137" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1405.3710000000001</v>
       </c>
-      <c r="I137" s="88">
+      <c r="I137" s="85">
         <v>11.1</v>
       </c>
-      <c r="J137" s="79">
-        <v>0</v>
-      </c>
-      <c r="K137" s="80">
+      <c r="J137" s="76">
+        <v>0</v>
+      </c>
+      <c r="K137" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="B138" s="83">
+      <c r="B138" s="80">
         <v>45537</v>
       </c>
-      <c r="C138" s="85" t="s">
+      <c r="C138" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D138" s="85" t="s">
+      <c r="D138" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="86">
+      <c r="E138" s="83">
         <v>3686</v>
       </c>
-      <c r="F138" s="104">
+      <c r="F138" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2029.1429999999998</v>
       </c>
-      <c r="G138" s="87">
+      <c r="G138" s="84">
         <v>55.05</v>
       </c>
-      <c r="H138" s="105">
+      <c r="H138" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30.962399999999999</v>
       </c>
-      <c r="I138" s="88">
+      <c r="I138" s="85">
         <v>0.84</v>
       </c>
-      <c r="J138" s="79">
+      <c r="J138" s="76">
         <v>2</v>
       </c>
-      <c r="K138" s="80">
+      <c r="K138" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4259359739555077E-2</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="83">
+      <c r="B139" s="80">
         <v>45537</v>
       </c>
-      <c r="C139" s="85" t="s">
+      <c r="C139" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="85" t="s">
+      <c r="D139" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E139" s="86">
+      <c r="E139" s="83">
         <v>51742</v>
       </c>
-      <c r="F139" s="104">
+      <c r="F139" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23749.577999999998</v>
       </c>
-      <c r="G139" s="87">
+      <c r="G139" s="84">
         <v>45.9</v>
       </c>
-      <c r="H139" s="105">
+      <c r="H139" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>222.4906</v>
       </c>
-      <c r="I139" s="88">
+      <c r="I139" s="85">
         <v>0.43</v>
       </c>
-      <c r="J139" s="79">
+      <c r="J139" s="76">
         <v>27</v>
       </c>
-      <c r="K139" s="80">
+      <c r="K139" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.2181979822967794E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="83">
+      <c r="B140" s="80">
         <v>45532</v>
       </c>
-      <c r="C140" s="85" t="s">
+      <c r="C140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="85" t="s">
+      <c r="D140" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="86">
+      <c r="E140" s="83">
         <v>9409</v>
       </c>
-      <c r="F140" s="104">
+      <c r="F140" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3291.2681999999995</v>
       </c>
-      <c r="G140" s="87">
+      <c r="G140" s="84">
         <v>34.979999999999997</v>
       </c>
-      <c r="H140" s="105">
+      <c r="H140" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>90.326399999999992</v>
       </c>
-      <c r="I140" s="88">
+      <c r="I140" s="85">
         <v>0.96</v>
       </c>
-      <c r="J140" s="79">
-        <v>0</v>
-      </c>
-      <c r="K140" s="80">
+      <c r="J140" s="76">
+        <v>0</v>
+      </c>
+      <c r="K140" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B141" s="83">
+      <c r="B141" s="80">
         <v>45532</v>
       </c>
-      <c r="C141" s="85" t="s">
+      <c r="C141" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="85" t="s">
+      <c r="D141" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="79">
+      <c r="E141" s="76">
         <v>562</v>
       </c>
-      <c r="F141" s="104">
+      <c r="F141" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>267.00619999999998</v>
       </c>
-      <c r="G141" s="87">
+      <c r="G141" s="84">
         <v>47.51</v>
       </c>
-      <c r="H141" s="95">
+      <c r="H141" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>6.7439999999999998</v>
       </c>
-      <c r="I141" s="88">
+      <c r="I141" s="85">
         <v>1.2</v>
       </c>
-      <c r="J141" s="79">
-        <v>0</v>
-      </c>
-      <c r="K141" s="80">
+      <c r="J141" s="76">
+        <v>0</v>
+      </c>
+      <c r="K141" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A142" s="84" t="s">
+      <c r="A142" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="83">
+      <c r="B142" s="80">
         <v>45531</v>
       </c>
-      <c r="C142" s="85" t="s">
+      <c r="C142" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D142" s="85" t="s">
+      <c r="D142" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E142" s="86">
+      <c r="E142" s="83">
         <v>3653</v>
       </c>
-      <c r="F142" s="104">
+      <c r="F142" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1970.4281999999998</v>
       </c>
-      <c r="G142" s="87">
+      <c r="G142" s="84">
         <v>53.94</v>
       </c>
-      <c r="H142" s="105">
+      <c r="H142" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>35.434100000000001</v>
       </c>
-      <c r="I142" s="88">
+      <c r="I142" s="85">
         <v>0.97</v>
       </c>
-      <c r="J142" s="79">
+      <c r="J142" s="76">
         <v>1</v>
       </c>
-      <c r="K142" s="80">
+      <c r="K142" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.7374760470845878E-2</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A143" s="84" t="s">
+      <c r="A143" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="83">
+      <c r="B143" s="80">
         <v>45531</v>
       </c>
-      <c r="C143" s="85" t="s">
+      <c r="C143" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="85" t="s">
+      <c r="D143" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E143" s="86">
+      <c r="E143" s="83">
         <v>52112</v>
       </c>
-      <c r="F143" s="104">
+      <c r="F143" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23731.804799999998</v>
       </c>
-      <c r="G143" s="87">
+      <c r="G143" s="84">
         <v>45.54</v>
       </c>
-      <c r="H143" s="105">
+      <c r="H143" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>317.88319999999999</v>
       </c>
-      <c r="I143" s="88">
+      <c r="I143" s="85">
         <v>0.61</v>
       </c>
-      <c r="J143" s="79">
+      <c r="J143" s="76">
         <v>13</v>
       </c>
-      <c r="K143" s="80">
+      <c r="K143" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.4946269573226893E-2</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A144" s="74" t="s">
+      <c r="A144" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="83">
+      <c r="B144" s="80">
         <v>45531</v>
       </c>
-      <c r="C144" s="75" t="s">
+      <c r="C144" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="75" t="s">
+      <c r="D144" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="76">
+      <c r="E144" s="73">
         <v>8619</v>
       </c>
-      <c r="F144" s="104">
+      <c r="F144" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4639.6076999999996</v>
       </c>
-      <c r="G144" s="87">
+      <c r="G144" s="84">
         <v>53.83</v>
       </c>
-      <c r="H144" s="95">
+      <c r="H144" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>249.0891</v>
       </c>
-      <c r="I144" s="88">
+      <c r="I144" s="85">
         <v>2.89</v>
       </c>
-      <c r="J144" s="79">
+      <c r="J144" s="76">
         <v>2</v>
       </c>
-      <c r="K144" s="80">
+      <c r="K144" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.3204548091425917E-2</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A145" s="74" t="s">
+      <c r="A145" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B145" s="97">
+      <c r="B145" s="94">
         <v>45531</v>
       </c>
-      <c r="C145" s="85" t="s">
+      <c r="C145" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="85" t="s">
+      <c r="D145" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="86">
+      <c r="E145" s="83">
         <v>1311</v>
       </c>
-      <c r="F145" s="104">
+      <c r="F145" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>847.03710000000001</v>
       </c>
-      <c r="G145" s="87">
+      <c r="G145" s="84">
         <v>64.61</v>
       </c>
-      <c r="H145" s="105">
+      <c r="H145" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>64.239000000000004</v>
       </c>
-      <c r="I145" s="88">
+      <c r="I145" s="85">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J145" s="79">
-        <v>0</v>
-      </c>
-      <c r="K145" s="80">
+      <c r="J145" s="76">
+        <v>0</v>
+      </c>
+      <c r="K145" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A146" s="84" t="s">
+      <c r="A146" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="B146" s="97">
+      <c r="B146" s="94">
         <v>45530</v>
       </c>
-      <c r="C146" s="85" t="s">
+      <c r="C146" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="85" t="s">
+      <c r="D146" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E146" s="103">
+      <c r="E146" s="100">
         <v>154</v>
       </c>
-      <c r="F146" s="104">
+      <c r="F146" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>91.783999999999992</v>
       </c>
-      <c r="G146" s="87">
+      <c r="G146" s="84">
         <v>59.6</v>
       </c>
-      <c r="H146" s="105">
+      <c r="H146" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>2.0327999999999999</v>
       </c>
-      <c r="I146" s="88">
+      <c r="I146" s="85">
         <v>1.32</v>
       </c>
-      <c r="J146" s="103">
-        <v>0</v>
-      </c>
-      <c r="K146" s="80">
+      <c r="J146" s="100">
+        <v>0</v>
+      </c>
+      <c r="K146" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="B147" s="97">
+      <c r="B147" s="94">
         <v>45530</v>
       </c>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="85" t="s">
+      <c r="D147" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E147" s="86">
+      <c r="E147" s="83">
         <v>1002</v>
       </c>
-      <c r="F147" s="104">
+      <c r="F147" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>437.9742</v>
       </c>
-      <c r="G147" s="87">
+      <c r="G147" s="84">
         <v>43.71</v>
       </c>
-      <c r="H147" s="105">
+      <c r="H147" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>7.0139999999999993</v>
       </c>
-      <c r="I147" s="88">
+      <c r="I147" s="85">
         <v>0.7</v>
       </c>
-      <c r="J147" s="103">
-        <v>0</v>
-      </c>
-      <c r="K147" s="80">
+      <c r="J147" s="100">
+        <v>0</v>
+      </c>
+      <c r="K147" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A148" s="74" t="s">
+      <c r="A148" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B148" s="97">
+      <c r="B148" s="94">
         <v>45508</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="75" t="s">
+      <c r="D148" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="76">
+      <c r="E148" s="73">
         <v>8213</v>
       </c>
-      <c r="F148" s="104">
+      <c r="F148" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3833.0071000000003</v>
       </c>
-      <c r="G148" s="87">
+      <c r="G148" s="84">
         <v>46.67</v>
       </c>
-      <c r="H148" s="95">
+      <c r="H148" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>159.3322</v>
       </c>
-      <c r="I148" s="88">
+      <c r="I148" s="85">
         <v>1.94</v>
       </c>
-      <c r="J148" s="103">
-        <v>0</v>
-      </c>
-      <c r="K148" s="80">
+      <c r="J148" s="100">
+        <v>0</v>
+      </c>
+      <c r="K148" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A149" s="74" t="s">
+      <c r="A149" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="97">
+      <c r="B149" s="94">
         <v>45508</v>
       </c>
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="85" t="s">
+      <c r="D149" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="86">
+      <c r="E149" s="83">
         <v>1553</v>
       </c>
-      <c r="F149" s="104">
+      <c r="F149" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>970.93560000000002</v>
       </c>
-      <c r="G149" s="87">
+      <c r="G149" s="84">
         <v>62.52</v>
       </c>
-      <c r="H149" s="105">
+      <c r="H149" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>99.236699999999999</v>
       </c>
-      <c r="I149" s="88">
+      <c r="I149" s="85">
         <v>6.39</v>
       </c>
-      <c r="J149" s="103">
-        <v>0</v>
-      </c>
-      <c r="K149" s="80">
+      <c r="J149" s="100">
+        <v>0</v>
+      </c>
+      <c r="K149" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="97">
+      <c r="B150" s="94">
         <v>45504</v>
       </c>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="85" t="s">
+      <c r="D150" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E150" s="86">
+      <c r="E150" s="83">
         <v>8525</v>
       </c>
-      <c r="F150" s="104">
+      <c r="F150" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4762.0649999999996</v>
       </c>
-      <c r="G150" s="87">
+      <c r="G150" s="84">
         <v>55.86</v>
       </c>
-      <c r="H150" s="105">
+      <c r="H150" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>457.79250000000002</v>
       </c>
-      <c r="I150" s="88">
+      <c r="I150" s="85">
         <v>5.37</v>
       </c>
-      <c r="J150" s="103">
+      <c r="J150" s="100">
         <v>3</v>
       </c>
-      <c r="K150" s="80">
+      <c r="K150" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.5190615835777123E-2</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="B151" s="97">
+      <c r="B151" s="94">
         <v>45503</v>
       </c>
-      <c r="C151" s="85" t="s">
+      <c r="C151" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="85" t="s">
+      <c r="D151" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="86">
+      <c r="E151" s="83">
         <v>309707</v>
       </c>
-      <c r="F151" s="104">
+      <c r="F151" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>182696.1593</v>
       </c>
-      <c r="G151" s="87">
+      <c r="G151" s="84">
         <v>58.99</v>
       </c>
-      <c r="H151" s="105">
+      <c r="H151" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>30072.549700000003</v>
       </c>
-      <c r="I151" s="88">
+      <c r="I151" s="85">
         <v>9.7100000000000009</v>
       </c>
-      <c r="J151" s="103">
+      <c r="J151" s="100">
         <v>79</v>
       </c>
-      <c r="K151" s="80">
+      <c r="K151" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5507980123148654E-2</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B152" s="97">
+      <c r="B152" s="94">
         <v>45503</v>
       </c>
-      <c r="C152" s="85" t="s">
+      <c r="C152" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="85" t="s">
+      <c r="D152" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E152" s="86">
+      <c r="E152" s="83">
         <v>3484</v>
       </c>
-      <c r="F152" s="104">
+      <c r="F152" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1813.7704000000001</v>
       </c>
-      <c r="G152" s="87">
+      <c r="G152" s="84">
         <v>52.06</v>
       </c>
-      <c r="H152" s="105">
+      <c r="H152" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>48.427599999999991</v>
       </c>
-      <c r="I152" s="88">
+      <c r="I152" s="85">
         <v>1.39</v>
       </c>
-      <c r="J152" s="103">
-        <v>0</v>
-      </c>
-      <c r="K152" s="80">
+      <c r="J152" s="100">
+        <v>0</v>
+      </c>
+      <c r="K152" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B153" s="97">
+      <c r="B153" s="94">
         <v>45503</v>
       </c>
-      <c r="C153" s="85" t="s">
+      <c r="C153" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="85" t="s">
+      <c r="D153" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="103">
+      <c r="E153" s="100">
         <v>365</v>
       </c>
-      <c r="F153" s="104">
+      <c r="F153" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>219.58399999999997</v>
       </c>
-      <c r="G153" s="87">
+      <c r="G153" s="84">
         <v>60.16</v>
       </c>
-      <c r="H153" s="105">
+      <c r="H153" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>10.0375</v>
       </c>
-      <c r="I153" s="88">
+      <c r="I153" s="85">
         <v>2.75</v>
       </c>
-      <c r="J153" s="103">
-        <v>0</v>
-      </c>
-      <c r="K153" s="80">
+      <c r="J153" s="100">
+        <v>0</v>
+      </c>
+      <c r="K153" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A154" s="84" t="s">
+      <c r="A154" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B154" s="97">
+      <c r="B154" s="94">
         <v>45502</v>
       </c>
-      <c r="C154" s="85" t="s">
+      <c r="C154" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="85" t="s">
+      <c r="D154" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E154" s="86">
+      <c r="E154" s="83">
         <v>9580</v>
       </c>
-      <c r="F154" s="104">
+      <c r="F154" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4718.1499999999996</v>
       </c>
-      <c r="G154" s="87">
+      <c r="G154" s="84">
         <v>49.25</v>
       </c>
-      <c r="H154" s="105">
+      <c r="H154" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>97.716000000000008</v>
       </c>
-      <c r="I154" s="88">
+      <c r="I154" s="85">
         <v>1.02</v>
       </c>
-      <c r="J154" s="103">
+      <c r="J154" s="100">
         <v>3</v>
       </c>
-      <c r="K154" s="80">
+      <c r="K154" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.1315240083507306E-2</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A155" s="84" t="s">
+      <c r="A155" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="B155" s="97">
+      <c r="B155" s="94">
         <v>45496</v>
       </c>
-      <c r="C155" s="85" t="s">
+      <c r="C155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="85" t="s">
+      <c r="D155" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="86">
+      <c r="E155" s="83">
         <v>4357</v>
       </c>
-      <c r="F155" s="104">
+      <c r="F155" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2644.6990000000001</v>
       </c>
-      <c r="G155" s="87">
+      <c r="G155" s="84">
         <v>60.7</v>
       </c>
-      <c r="H155" s="105">
+      <c r="H155" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>133.75989999999999</v>
       </c>
-      <c r="I155" s="88">
+      <c r="I155" s="85">
         <v>3.07</v>
       </c>
-      <c r="J155" s="103">
+      <c r="J155" s="100">
         <v>1</v>
       </c>
-      <c r="K155" s="80">
+      <c r="K155" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.2951572182694516E-2</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A156" s="89" t="s">
+      <c r="A156" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B156" s="97">
+      <c r="B156" s="94">
         <v>45496</v>
       </c>
-      <c r="C156" s="85" t="s">
+      <c r="C156" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="85" t="s">
+      <c r="D156" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="86">
+      <c r="E156" s="83">
         <v>4331</v>
       </c>
-      <c r="F156" s="104">
+      <c r="F156" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2628.9169999999999</v>
       </c>
-      <c r="G156" s="87">
+      <c r="G156" s="84">
         <v>60.7</v>
       </c>
-      <c r="H156" s="105">
+      <c r="H156" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>132.96170000000001</v>
       </c>
-      <c r="I156" s="88">
+      <c r="I156" s="85">
         <v>3.07</v>
       </c>
-      <c r="J156" s="103">
+      <c r="J156" s="100">
         <v>13</v>
       </c>
-      <c r="K156" s="80">
+      <c r="K156" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.30016162549064884</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="97">
+      <c r="B157" s="94">
         <v>45492</v>
       </c>
-      <c r="C157" s="85" t="s">
+      <c r="C157" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="85" t="s">
+      <c r="D157" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="86">
+      <c r="E157" s="83">
         <v>98299</v>
       </c>
-      <c r="F157" s="104">
+      <c r="F157" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53327.207499999997</v>
       </c>
-      <c r="G157" s="87">
+      <c r="G157" s="84">
         <v>54.25</v>
       </c>
-      <c r="H157" s="105">
+      <c r="H157" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>3371.6557000000003</v>
       </c>
-      <c r="I157" s="88">
+      <c r="I157" s="85">
         <v>3.43</v>
       </c>
-      <c r="J157" s="103">
+      <c r="J157" s="100">
         <v>13</v>
       </c>
-      <c r="K157" s="80">
+      <c r="K157" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.322495651023917E-2</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="97">
+      <c r="B158" s="94">
         <v>45492</v>
       </c>
-      <c r="C158" s="85" t="s">
+      <c r="C158" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="85" t="s">
+      <c r="D158" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="86">
+      <c r="E158" s="83">
         <v>98082</v>
       </c>
-      <c r="F158" s="104">
+      <c r="F158" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53209.485000000001</v>
       </c>
-      <c r="G158" s="87">
+      <c r="G158" s="84">
         <v>54.25</v>
       </c>
-      <c r="H158" s="105">
+      <c r="H158" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1824.3252000000002</v>
       </c>
-      <c r="I158" s="88">
+      <c r="I158" s="85">
         <v>1.86</v>
       </c>
-      <c r="J158" s="103">
-        <v>0</v>
-      </c>
-      <c r="K158" s="80">
+      <c r="J158" s="100">
+        <v>0</v>
+      </c>
+      <c r="K158" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A159" s="84" t="s">
+      <c r="A159" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="97">
+      <c r="B159" s="94">
         <v>45492</v>
       </c>
-      <c r="C159" s="85" t="s">
+      <c r="C159" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D159" s="85" t="s">
+      <c r="D159" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="76">
+      <c r="E159" s="73">
         <v>98299</v>
       </c>
-      <c r="F159" s="104">
+      <c r="F159" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>53327.207499999997</v>
       </c>
-      <c r="G159" s="87">
+      <c r="G159" s="84">
         <v>54.25</v>
       </c>
-      <c r="H159" s="95">
+      <c r="H159" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1838.1913</v>
       </c>
-      <c r="I159" s="88">
+      <c r="I159" s="85">
         <v>1.87</v>
       </c>
-      <c r="J159" s="103">
+      <c r="J159" s="100">
         <v>3</v>
       </c>
-      <c r="K159" s="80">
+      <c r="K159" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.0519130408244231E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A160" s="84" t="s">
+      <c r="A160" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="97">
+      <c r="B160" s="94">
         <v>45490</v>
       </c>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="85" t="s">
+      <c r="D160" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="103">
+      <c r="E160" s="100">
         <v>375</v>
       </c>
-      <c r="F160" s="104">
+      <c r="F160" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>223.57499999999999</v>
       </c>
-      <c r="G160" s="87">
+      <c r="G160" s="84">
         <v>59.62</v>
       </c>
-      <c r="H160" s="105">
+      <c r="H160" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>13.387499999999999</v>
       </c>
-      <c r="I160" s="88">
+      <c r="I160" s="85">
         <v>3.57</v>
       </c>
-      <c r="J160" s="103">
-        <v>0</v>
-      </c>
-      <c r="K160" s="80">
+      <c r="J160" s="100">
+        <v>0</v>
+      </c>
+      <c r="K160" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A161" s="84" t="s">
+      <c r="A161" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="97">
+      <c r="B161" s="94">
         <v>45490</v>
       </c>
-      <c r="C161" s="85" t="s">
+      <c r="C161" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="85" t="s">
+      <c r="D161" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E161" s="86">
+      <c r="E161" s="83">
         <v>3422</v>
       </c>
-      <c r="F161" s="104">
+      <c r="F161" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1694.5744</v>
       </c>
-      <c r="G161" s="87">
+      <c r="G161" s="84">
         <v>49.52</v>
       </c>
-      <c r="H161" s="105">
+      <c r="H161" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>79.390399999999985</v>
       </c>
-      <c r="I161" s="88">
+      <c r="I161" s="85">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J161" s="103">
+      <c r="J161" s="100">
         <v>1</v>
       </c>
-      <c r="K161" s="80">
+      <c r="K161" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.9222676797194622E-2</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A162" s="84" t="s">
+      <c r="A162" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="97">
+      <c r="B162" s="94">
         <v>45490</v>
       </c>
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="85" t="s">
+      <c r="D162" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="103">
+      <c r="E162" s="100">
         <v>365</v>
       </c>
-      <c r="F162" s="104">
+      <c r="F162" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>217.613</v>
       </c>
-      <c r="G162" s="87">
+      <c r="G162" s="84">
         <v>59.62</v>
       </c>
-      <c r="H162" s="105">
+      <c r="H162" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>13.0305</v>
       </c>
-      <c r="I162" s="88">
+      <c r="I162" s="85">
         <v>3.57</v>
       </c>
-      <c r="J162" s="103">
-        <v>0</v>
-      </c>
-      <c r="K162" s="80">
+      <c r="J162" s="100">
+        <v>0</v>
+      </c>
+      <c r="K162" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A163" s="84" t="s">
+      <c r="A163" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="97">
+      <c r="B163" s="94">
         <v>45490</v>
       </c>
-      <c r="C163" s="85" t="s">
+      <c r="C163" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="85" t="s">
+      <c r="D163" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="86">
+      <c r="E163" s="83">
         <v>3558</v>
       </c>
-      <c r="F163" s="104">
+      <c r="F163" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1761.9216000000001</v>
       </c>
-      <c r="G163" s="87">
+      <c r="G163" s="84">
         <v>49.52</v>
       </c>
-      <c r="H163" s="105">
+      <c r="H163" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>82.545599999999993</v>
       </c>
-      <c r="I163" s="88">
+      <c r="I163" s="85">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J163" s="103">
+      <c r="J163" s="100">
         <v>1</v>
       </c>
-      <c r="K163" s="80">
+      <c r="K163" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.8105677346824058E-2</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A164" s="84" t="s">
+      <c r="A164" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="97">
+      <c r="B164" s="94">
         <v>45484</v>
       </c>
-      <c r="C164" s="85" t="s">
+      <c r="C164" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D164" s="85" t="s">
+      <c r="D164" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E164" s="86">
+      <c r="E164" s="83">
         <v>4226</v>
       </c>
-      <c r="F164" s="104">
+      <c r="F164" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3228.2414000000003</v>
       </c>
-      <c r="G164" s="87">
+      <c r="G164" s="84">
         <v>76.39</v>
       </c>
-      <c r="H164" s="105">
+      <c r="H164" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>368.92980000000006</v>
       </c>
-      <c r="I164" s="88">
+      <c r="I164" s="85">
         <v>8.73</v>
       </c>
-      <c r="J164" s="103">
+      <c r="J164" s="100">
         <v>6</v>
       </c>
-      <c r="K164" s="80">
+      <c r="K164" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0.14197823000473261</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A165" s="84" t="s">
+      <c r="A165" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="B165" s="97">
+      <c r="B165" s="94">
         <v>45484</v>
       </c>
-      <c r="C165" s="85" t="s">
+      <c r="C165" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D165" s="85" t="s">
+      <c r="D165" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="103">
+      <c r="E165" s="100">
         <v>457</v>
       </c>
-      <c r="F165" s="104">
+      <c r="F165" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>374.00880000000006</v>
       </c>
-      <c r="G165" s="87">
+      <c r="G165" s="84">
         <v>81.84</v>
       </c>
-      <c r="H165" s="105">
+      <c r="H165" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>139.97909999999999</v>
       </c>
-      <c r="I165" s="88">
+      <c r="I165" s="85">
         <v>30.63</v>
       </c>
-      <c r="J165" s="103">
-        <v>0</v>
-      </c>
-      <c r="K165" s="80">
+      <c r="J165" s="100">
+        <v>0</v>
+      </c>
+      <c r="K165" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A166" s="84" t="s">
+      <c r="A166" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B166" s="97">
+      <c r="B166" s="94">
         <v>45483</v>
       </c>
-      <c r="C166" s="85" t="s">
+      <c r="C166" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="85" t="s">
+      <c r="D166" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E166" s="86">
+      <c r="E166" s="83">
         <v>17730</v>
       </c>
-      <c r="F166" s="104">
+      <c r="F166" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>8155.8</v>
       </c>
-      <c r="G166" s="87">
+      <c r="G166" s="84">
         <v>46</v>
       </c>
-      <c r="H166" s="105">
+      <c r="H166" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>283.68</v>
       </c>
-      <c r="I166" s="88">
+      <c r="I166" s="85">
         <v>1.6</v>
       </c>
-      <c r="J166" s="103">
+      <c r="J166" s="100">
         <v>17</v>
       </c>
-      <c r="K166" s="80">
+      <c r="K166" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>9.5882684715172029E-2</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A167" s="84" t="s">
+      <c r="A167" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="B167" s="97">
+      <c r="B167" s="94">
         <v>45483</v>
       </c>
-      <c r="C167" s="85" t="s">
+      <c r="C167" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="85" t="s">
+      <c r="D167" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E167" s="86">
+      <c r="E167" s="83">
         <v>35884</v>
       </c>
-      <c r="F167" s="104">
+      <c r="F167" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>23640.379199999999</v>
       </c>
-      <c r="G167" s="87">
+      <c r="G167" s="84">
         <v>65.88</v>
       </c>
-      <c r="H167" s="105">
+      <c r="H167" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>1309.7659999999998</v>
       </c>
-      <c r="I167" s="88">
+      <c r="I167" s="85">
         <v>3.65</v>
       </c>
-      <c r="J167" s="103">
+      <c r="J167" s="100">
         <v>3</v>
       </c>
-      <c r="K167" s="80">
+      <c r="K167" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>8.3602719875153272E-3</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A168" s="84" t="s">
+      <c r="A168" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="B168" s="97">
+      <c r="B168" s="94">
         <v>45483</v>
       </c>
-      <c r="C168" s="85" t="s">
+      <c r="C168" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="85" t="s">
+      <c r="D168" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="E168" s="86">
+      <c r="E168" s="83">
         <v>7399</v>
       </c>
-      <c r="F168" s="104">
+      <c r="F168" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>5382.7725</v>
       </c>
-      <c r="G168" s="87">
+      <c r="G168" s="84">
         <v>72.75</v>
       </c>
-      <c r="H168" s="105">
+      <c r="H168" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>402.50560000000007</v>
       </c>
-      <c r="I168" s="88">
+      <c r="I168" s="85">
         <v>5.44</v>
       </c>
-      <c r="J168" s="103">
+      <c r="J168" s="100">
         <v>4</v>
       </c>
-      <c r="K168" s="80">
+      <c r="K168" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.4061359643195028E-2</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A169" s="84" t="s">
+      <c r="A169" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="B169" s="97">
+      <c r="B169" s="94">
         <v>45483</v>
       </c>
-      <c r="C169" s="85" t="s">
+      <c r="C169" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D169" s="85" t="s">
+      <c r="D169" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E169" s="86">
+      <c r="E169" s="83">
         <v>476382</v>
       </c>
-      <c r="F169" s="104">
+      <c r="F169" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>222946.77599999998</v>
       </c>
-      <c r="G169" s="87">
+      <c r="G169" s="84">
         <v>46.8</v>
       </c>
-      <c r="H169" s="105">
+      <c r="H169" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>7193.3681999999999</v>
       </c>
-      <c r="I169" s="88">
+      <c r="I169" s="85">
         <v>1.51</v>
       </c>
-      <c r="J169" s="103">
+      <c r="J169" s="100">
         <v>277</v>
       </c>
-      <c r="K169" s="80">
+      <c r="K169" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>5.8146613432077617E-2</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A170" s="84" t="s">
+      <c r="A170" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B170" s="97">
+      <c r="B170" s="94">
         <v>45482</v>
       </c>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="85" t="s">
+      <c r="D170" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="86">
+      <c r="E170" s="83">
         <v>8599</v>
       </c>
-      <c r="F170" s="104">
+      <c r="F170" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>4299.5</v>
       </c>
-      <c r="G170" s="87">
+      <c r="G170" s="84">
         <v>50</v>
       </c>
-      <c r="H170" s="105">
+      <c r="H170" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>163.38099999999997</v>
       </c>
-      <c r="I170" s="88">
+      <c r="I170" s="85">
         <v>1.9</v>
       </c>
-      <c r="J170" s="103">
-        <v>0</v>
-      </c>
-      <c r="K170" s="80">
+      <c r="J170" s="100">
+        <v>0</v>
+      </c>
+      <c r="K170" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A171" s="84" t="s">
+      <c r="A171" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B171" s="97">
+      <c r="B171" s="94">
         <v>45482</v>
       </c>
-      <c r="C171" s="85" t="s">
+      <c r="C171" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D171" s="85" t="s">
+      <c r="D171" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="103">
+      <c r="E171" s="100">
         <v>990</v>
       </c>
-      <c r="F171" s="104">
+      <c r="F171" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>643.5</v>
       </c>
-      <c r="G171" s="87">
+      <c r="G171" s="84">
         <v>65</v>
       </c>
-      <c r="H171" s="105">
+      <c r="H171" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>33.066000000000003</v>
       </c>
-      <c r="I171" s="88">
+      <c r="I171" s="85">
         <v>3.34</v>
       </c>
-      <c r="J171" s="103">
-        <v>0</v>
-      </c>
-      <c r="K171" s="80">
+      <c r="J171" s="100">
+        <v>0</v>
+      </c>
+      <c r="K171" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A172" s="84" t="s">
+      <c r="A172" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B172" s="97">
+      <c r="B172" s="94">
         <v>45476</v>
       </c>
-      <c r="C172" s="85" t="s">
+      <c r="C172" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D172" s="85" t="s">
+      <c r="D172" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E172" s="86">
+      <c r="E172" s="83">
         <v>11889</v>
       </c>
-      <c r="F172" s="104">
+      <c r="F172" s="101">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>6657.84</v>
       </c>
-      <c r="G172" s="87">
+      <c r="G172" s="84">
         <v>56</v>
       </c>
-      <c r="H172" s="105">
+      <c r="H172" s="102">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>369.74790000000002</v>
       </c>
-      <c r="I172" s="88">
+      <c r="I172" s="85">
         <v>3.11</v>
       </c>
-      <c r="J172" s="103">
+      <c r="J172" s="100">
         <v>3</v>
       </c>
-      <c r="K172" s="80">
+      <c r="K172" s="77">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>2.5233409033560434E-2</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A173" s="117" t="s">
+      <c r="A173" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="97">
+      <c r="B173" s="94">
         <v>45476</v>
       </c>
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D173" s="85" t="s">
+      <c r="D173" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E173" s="123">
+      <c r="E173" s="120">
         <v>2674</v>
       </c>
-      <c r="F173" s="126">
+      <c r="F173" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>1845.06</v>
       </c>
-      <c r="G173" s="87">
+      <c r="G173" s="84">
         <v>69</v>
       </c>
-      <c r="H173" s="128">
+      <c r="H173" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>77.011200000000002</v>
       </c>
-      <c r="I173" s="88">
+      <c r="I173" s="85">
         <v>2.88</v>
       </c>
-      <c r="J173" s="124">
+      <c r="J173" s="121">
         <v>1</v>
       </c>
-      <c r="K173" s="131">
+      <c r="K173" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>3.7397157816005985E-2</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A174" s="74" t="s">
+      <c r="A174" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B174" s="97">
+      <c r="B174" s="94">
         <v>45475</v>
       </c>
-      <c r="C174" s="85" t="s">
+      <c r="C174" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="85" t="s">
+      <c r="D174" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="123">
+      <c r="E174" s="120">
         <v>9248</v>
       </c>
-      <c r="F174" s="126">
+      <c r="F174" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>3884.16</v>
       </c>
-      <c r="G174" s="87">
+      <c r="G174" s="84">
         <v>42</v>
       </c>
-      <c r="H174" s="128">
+      <c r="H174" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>174.78719999999998</v>
       </c>
-      <c r="I174" s="88">
+      <c r="I174" s="85">
         <v>1.89</v>
       </c>
-      <c r="J174" s="124">
+      <c r="J174" s="121">
         <v>1</v>
       </c>
-      <c r="K174" s="131">
+      <c r="K174" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>1.0813148788927337E-2</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A175" s="74" t="s">
+      <c r="A175" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B175" s="97">
+      <c r="B175" s="94">
         <v>45475</v>
       </c>
-      <c r="C175" s="85" t="s">
+      <c r="C175" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D175" s="85" t="s">
+      <c r="D175" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E175" s="124">
+      <c r="E175" s="121">
         <v>742</v>
       </c>
-      <c r="F175" s="126">
+      <c r="F175" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>472.654</v>
       </c>
-      <c r="G175" s="87">
+      <c r="G175" s="84">
         <v>63.7</v>
       </c>
-      <c r="H175" s="128">
+      <c r="H175" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>28.270199999999999</v>
       </c>
-      <c r="I175" s="88">
+      <c r="I175" s="85">
         <v>3.81</v>
       </c>
-      <c r="J175" s="124">
-        <v>0</v>
-      </c>
-      <c r="K175" s="131">
+      <c r="J175" s="121">
+        <v>0</v>
+      </c>
+      <c r="K175" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A176" s="74" t="s">
+      <c r="A176" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B176" s="97">
+      <c r="B176" s="94">
         <v>45468</v>
       </c>
-      <c r="C176" s="85" t="s">
+      <c r="C176" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D176" s="85" t="s">
+      <c r="D176" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E176" s="123">
+      <c r="E176" s="120">
         <v>4058</v>
       </c>
-      <c r="F176" s="126">
+      <c r="F176" s="122">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>2741.1789999999996</v>
       </c>
-      <c r="G176" s="87">
+      <c r="G176" s="84">
         <v>67.55</v>
       </c>
-      <c r="H176" s="128">
+      <c r="H176" s="123">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
         <v>92.928200000000004</v>
       </c>
-      <c r="I176" s="88">
+      <c r="I176" s="85">
         <v>2.29</v>
       </c>
-      <c r="J176" s="124">
+      <c r="J176" s="121">
         <v>2</v>
       </c>
-      <c r="K176" s="131">
+      <c r="K176" s="126">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[deliveried]])*100</f>
         <v>4.928536224741252E-2</v>
       </c>
@@ -11252,20 +11267,20 @@
     <hyperlink ref="A18" r:id="rId145" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/21b4fc75-b277-418f-9c29-973d0fb4a80c" xr:uid="{DAB76CF7-8356-493F-A131-F595A55F52E4}"/>
     <hyperlink ref="A12" r:id="rId146" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8f45fe33-bd9b-4571-975f-50c6cde365f5" xr:uid="{4CCE7949-2262-478C-ACE2-75FCBD10C3DA}"/>
     <hyperlink ref="A13" r:id="rId147" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8f45fe33-bd9b-4571-975f-50c6cde365f5" xr:uid="{81E771A8-0834-4495-97AE-D4C0502E3147}"/>
-    <hyperlink ref="A8" r:id="rId148" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{FE3D4640-FC41-4B6E-8128-2282A3F4A133}"/>
-    <hyperlink ref="A9" r:id="rId149" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{1C6FF9F9-9C40-4567-ABB3-AED8A48CBF5D}"/>
-    <hyperlink ref="A10" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{2EFBF729-0882-4907-A3BB-24D881F5A365}"/>
-    <hyperlink ref="A11" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{71C794D5-E5A0-412B-BC23-B0230B70A0D3}"/>
-    <hyperlink ref="A3" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/46d445cb-ce24-4254-87bb-ca88434439e0" xr:uid="{BC45559B-19E3-4603-8805-FD31EC7E5CE7}"/>
-    <hyperlink ref="A2" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb13a4ec-a774-4a69-9033-4b72587b5392" display="CBUS - SEN - Insurance May 25 - Non Corporate_x000a_" xr:uid="{9476B490-5BDA-4904-ABAA-8FCF86348D34}"/>
-    <hyperlink ref="A65" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{6F824331-B482-4B06-A286-E44C912661B6}"/>
-    <hyperlink ref="A66" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{11100667-5BD5-455A-AEAF-BE8A7D3A97A8}"/>
-    <hyperlink ref="A50" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{B7836BB4-D84C-439C-9F58-EE0DDD9C18E5}"/>
-    <hyperlink ref="A51" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{2727C184-61AE-4E67-8063-0044C832106B}"/>
-    <hyperlink ref="A37" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{C12B5B88-A5BF-42E7-B0C1-DF4D1DCD0BFE}"/>
-    <hyperlink ref="A38" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{3E33AA54-EDE4-421A-B4E6-1727CBEFE885}"/>
-    <hyperlink ref="A173:A175" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" display="Email - CBUS - Young Cohort 2025 - May - 1. eDM [30-34]" xr:uid="{887A13A9-63F6-4FEB-A44C-A14848537DBA}"/>
-    <hyperlink ref="A7" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" xr:uid="{8EA51640-4C65-4A36-89FE-340DEB2E1CE4}"/>
+    <hyperlink ref="A9" r:id="rId148" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{1C6FF9F9-9C40-4567-ABB3-AED8A48CBF5D}"/>
+    <hyperlink ref="A11" r:id="rId149" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{71C794D5-E5A0-412B-BC23-B0230B70A0D3}"/>
+    <hyperlink ref="A3" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/46d445cb-ce24-4254-87bb-ca88434439e0" xr:uid="{BC45559B-19E3-4603-8805-FD31EC7E5CE7}"/>
+    <hyperlink ref="A2" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb13a4ec-a774-4a69-9033-4b72587b5392" display="CBUS - SEN - Insurance May 25 - Non Corporate_x000a_" xr:uid="{9476B490-5BDA-4904-ABAA-8FCF86348D34}"/>
+    <hyperlink ref="A65" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{6F824331-B482-4B06-A286-E44C912661B6}"/>
+    <hyperlink ref="A66" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/0be03e42-1e28-409a-b2d0-8cf468685d79" xr:uid="{11100667-5BD5-455A-AEAF-BE8A7D3A97A8}"/>
+    <hyperlink ref="A50" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{B7836BB4-D84C-439C-9F58-EE0DDD9C18E5}"/>
+    <hyperlink ref="A51" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/977081d2-f0ac-46e1-b9a0-acd7c18e1586" xr:uid="{2727C184-61AE-4E67-8063-0044C832106B}"/>
+    <hyperlink ref="A37" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{C12B5B88-A5BF-42E7-B0C1-DF4D1DCD0BFE}"/>
+    <hyperlink ref="A38" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/389e92c2-8e2f-45bb-87f1-47639cf54cc9" xr:uid="{3E33AA54-EDE4-421A-B4E6-1727CBEFE885}"/>
+    <hyperlink ref="A173:A175" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" display="Email - CBUS - Young Cohort 2025 - May - 1. eDM [30-34]" xr:uid="{887A13A9-63F6-4FEB-A44C-A14848537DBA}"/>
+    <hyperlink ref="A7" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b17a7d18-c2c4-4726-bcbc-bc9f8caf44ff" xr:uid="{8EA51640-4C65-4A36-89FE-340DEB2E1CE4}"/>
+    <hyperlink ref="A10" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c2bc4ad1-7d23-49f9-8b27-1b089a7f9324" xr:uid="{70E2F968-5F6C-4AAD-BD48-DE09517801D8}"/>
+    <hyperlink ref="A8" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f6628c63-7e81-479f-994f-04d0a81140ae" xr:uid="{EC1C3F34-0A0A-4763-99F5-999AB2BE9A9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId162"/>
@@ -11312,66 +11327,66 @@
     <row r="1" spans="1:20" s="22" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64" t="s">
+      <c r="L1" s="129"/>
+      <c r="M1" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64" t="s">
+      <c r="R1" s="129"/>
+      <c r="S1" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="63"/>
+      <c r="T1" s="129"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="27">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="63"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
     </row>
     <row r="3" spans="1:20" s="27" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -11380,28 +11395,28 @@
       <c r="B3" s="26"/>
       <c r="C3" s="34">
         <f>AVERAGE('FY-ajo-report'!G:G)</f>
-        <v>55.898739449216016</v>
+        <v>53.903101836480452</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!G:G)</f>
-        <v>49.621032199890728</v>
+        <v>50.933906720170675</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="G3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Media",'FY-ajo-report'!G:G)</f>
-        <v>66.947398821495838</v>
+        <v>58.194692197975833</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!G:G)</f>
-        <v>58.269097469058586</v>
+        <v>54.300499943732142</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>158</v>
@@ -11449,28 +11464,28 @@
       <c r="B4" s="28"/>
       <c r="C4" s="20">
         <f>AVERAGE('FY-ajo-report'!I:I)</f>
-        <v>8.0427565754072781</v>
+        <v>7.8940284645903853</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!I:I)</f>
-        <v>7.3780939234638776</v>
+        <v>7.3787868517315651</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Media",'FY-ajo-report'!I:I)</f>
-        <v>7.6868367266910909</v>
+        <v>7.2288294772968271</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="I4" s="20">
         <f>AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!I:I)</f>
-        <v>5.8599265371121136</v>
+        <v>5.5641604076466971</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>158</v>
@@ -11675,11 +11690,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="H1:H2"/>
@@ -11693,6 +11703,11 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 E4 G4 I4 K4 M4 O4 Q4 S4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -11886,14 +11901,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12132,16 +12145,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12149,7 +12164,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/ajo-report-fy25.xlsx
+++ b/pages/dashboard/data/ajo-report-fy25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D3B8E5-2F21-49F7-8B4D-B694A0549ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{958F2EC7-A6F5-4BC7-BD5F-679022CBB9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="-2180" yWindow="-20600" windowWidth="36780" windowHeight="20180" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="Deliveried " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -697,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -977,6 +977,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
@@ -1278,7 +1283,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1618,6 +1623,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -1625,7 +1631,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2051,6 +2057,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <color rgb="FF9C0006"/>
@@ -2424,25 +2450,25 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>53.903101836480452</c:v>
+                  <c:v>53.076591608424643</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.933906720170675</c:v>
+                  <c:v>49.628627173269535</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.194692197975833</c:v>
+                  <c:v>58.267719889852408</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.300499943732142</c:v>
+                  <c:v>52.656871649302985</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4408,8 +4434,8 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H8:H9"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -4714,7 +4740,7 @@
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>58.931977113795298</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="135">
         <v>43</v>
       </c>
       <c r="I8" s="75">
@@ -4752,7 +4778,7 @@
         <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
         <v>44.450392576730906</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="135">
         <v>186</v>
       </c>
       <c r="I9" s="75">
@@ -4786,8 +4812,9 @@
       <c r="F10" s="133">
         <v>967</v>
       </c>
-      <c r="G10" s="131">
-        <v>51</v>
+      <c r="G10" s="74">
+        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>55.162578436965205</v>
       </c>
       <c r="H10" s="133">
         <v>51</v>
@@ -4823,8 +4850,9 @@
       <c r="F11" s="133">
         <v>4253</v>
       </c>
-      <c r="G11" s="131">
-        <v>195</v>
+      <c r="G11" s="74">
+        <f>SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>46.198131653269606</v>
       </c>
       <c r="H11" s="133">
         <v>195</v>
@@ -7100,11 +7128,12 @@
         <v>236</v>
       </c>
       <c r="F71" s="91">
-        <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
+        <f ca="1">SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>228.92</v>
       </c>
       <c r="G71" s="84">
-        <v>97</v>
+        <f ca="1">SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>62.586926286509041</v>
       </c>
       <c r="H71" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
@@ -7138,11 +7167,12 @@
         <v>894</v>
       </c>
       <c r="F72" s="91">
-        <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
+        <f ca="1">SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-opens-pc]]/100)</f>
         <v>35.76</v>
       </c>
-      <c r="G72" s="100">
-        <v>4</v>
+      <c r="G72" s="84">
+        <f ca="1">SUM(Table1[[#This Row],[unique-opens]])/(Table1[[#This Row],[deliveried]])*100</f>
+        <v>62.586926286509041</v>
       </c>
       <c r="H72" s="92">
         <f>SUM(Table1[[#This Row],[deliveried]]*Table1[[#This Row],[unique-clicks-pc]]/100)</f>
@@ -11115,8 +11145,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A60:A61 A63:A66">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>90</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+      <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11394,29 +11434,29 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="34">
-        <f>AVERAGE('FY-ajo-report'!G:G)</f>
-        <v>53.903101836480452</v>
+        <f ca="1">AVERAGE('FY-ajo-report'!G:G)</f>
+        <v>53.076591608424643</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E3" s="35">
-        <f>AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!G:G)</f>
-        <v>50.933906720170675</v>
+        <f ca="1">AVERAGEIF('FY-ajo-report'!C:C,"Cbus",'FY-ajo-report'!G:G)</f>
+        <v>49.628627173269535</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="G3" s="35">
         <f>AVERAGEIF('FY-ajo-report'!C:C,"Media",'FY-ajo-report'!G:G)</f>
-        <v>58.194692197975833</v>
+        <v>58.267719889852408</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="35">
-        <f>AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!G:G)</f>
-        <v>54.300499943732142</v>
+        <f ca="1">AVERAGEIF('FY-ajo-report'!D:D,"Event",'FY-ajo-report'!G:G)</f>
+        <v>52.656871649302985</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>158</v>
